--- a/scaled_output_data.xlsx
+++ b/scaled_output_data.xlsx
@@ -1,37 +1,501 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+  <si>
+    <t>MFCC_1</t>
+  </si>
+  <si>
+    <t>MFCC_2</t>
+  </si>
+  <si>
+    <t>MFCC_3</t>
+  </si>
+  <si>
+    <t>MFCC_4</t>
+  </si>
+  <si>
+    <t>MFCC_5</t>
+  </si>
+  <si>
+    <t>MFCC_6</t>
+  </si>
+  <si>
+    <t>MFCC_7</t>
+  </si>
+  <si>
+    <t>MFCC_8</t>
+  </si>
+  <si>
+    <t>MFCC_9</t>
+  </si>
+  <si>
+    <t>MFCC_10</t>
+  </si>
+  <si>
+    <t>MFCC_11</t>
+  </si>
+  <si>
+    <t>MFCC_12</t>
+  </si>
+  <si>
+    <t>MFCC_13</t>
+  </si>
+  <si>
+    <t>Audio File</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_01_01_dogs-sitting_disgust.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_01_01_dogs-sitting_fear.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_01_01_dogs-sitting_neutral.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_01_01_dogs-sitting_ps.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_01_01_dogs-sitting_sad.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_01_01_kids-talking_angry.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_01_01_kids-talking_disgust.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_01_01_kids-talking_fear.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_01_01_kids-talking_happy.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_01_01_kids-talking_neutral.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_01_01_kids-talking_ps.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_01_01_kids-talking_sad.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_01_02_dogs-sitting_angry.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_01_02_dogs-sitting_disgust.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_01_02_dogs-sitting_fear.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_01_02_dogs-sitting_happy.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_01_02_dogs-sitting_neutral.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_01_02_dogs-sitting_ps.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_01_02_dogs-sitting_sad.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_01_02_kids-talking_angry.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_01_02_kids-talking_disgust.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_01_02_kids-talking_fear.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_01_02_kids-talking_happy.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_01_02_kids-talking_neutral.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_01_02_kids-talking_ps.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_01_02_kids-talking_sad.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_02_01_dogs-sitting_angry.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_02_01_dogs-sitting_disgust.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_02_01_dogs-sitting_fear.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_02_01_dogs-sitting_happy.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_02_01_dogs-sitting_ps.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_02_01_dogs-sitting_sad.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_02_01_kids-talking_angry.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_02_01_kids-talking_disgust.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_02_01_kids-talking_fear.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_02_01_kids-talking_happy.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_02_01_kids-talking_ps.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_02_01_kids-talking_sad.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_02_02_dogs-sitting_angry.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_02_02_dogs-sitting_disgust.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_02_02_dogs-sitting_fear.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_02_02_dogs-sitting_happy.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_02_02_dogs-sitting_ps.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_02_02_dogs-sitting_sad.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_02_02_kids-talking_angry.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_02_02_kids-talking_disgust.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_02_02_kids-talking_fear.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_02_02_kids-talking_happy.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_02_02_kids-talking_ps.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_01_02_02_kids-talking_sad.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_02_01_01_dogs-sitting_angry.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_02_01_01_dogs-sitting_fear.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_02_01_01_dogs-sitting_happy.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_02_01_01_dogs-sitting_neutral.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_02_01_01_dogs-sitting_sad.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_02_01_01_kids-talking_angry.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_02_01_01_kids-talking_fear.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_02_01_01_kids-talking_happy.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_02_01_01_kids-talking_neutral.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_02_01_01_kids-talking_sad.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_02_01_02_dogs-sitting_angry.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_02_01_02_dogs-sitting_fear.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_02_01_02_dogs-sitting_happy.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_02_01_02_dogs-sitting_neutral.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_02_01_02_dogs-sitting_sad.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_02_01_02_kids-talking_angry.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_02_01_02_kids-talking_fear.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_02_01_02_kids-talking_happy.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_02_01_02_kids-talking_neutral.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_02_01_02_kids-talking_sad.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_02_02_01_dogs-sitting_angry.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_02_02_01_dogs-sitting_fear.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_02_02_01_dogs-sitting_happy.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_02_02_01_dogs-sitting_sad.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_02_02_01_kids-talking_angry.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_02_02_01_kids-talking_fear.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_02_02_01_kids-talking_happy.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_02_02_01_kids-talking_sad.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_02_02_02_dogs-sitting_angry.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_02_02_02_dogs-sitting_fear.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_02_02_02_dogs-sitting_happy.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_02_02_02_dogs-sitting_sad.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_02_02_02_kids-talking_angry.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_02_02_02_kids-talking_fear.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_02_02_02_kids-talking_happy.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_01_02_02_02_kids-talking_sad.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-01-02-01-01-01-01_calm.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-01-02-01-01-02-01_calm.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-01-02-01-02-01-01_calm.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-01-02-01-02-02-01_calm.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-01-02-02-01-01-01_calm.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-01-02-02-01-02-01_calm.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-01-02-02-02-01-01_calm.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-01-02-02-02-02-01_calm.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-01-01-01-01-01_neutral.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-01-01-01-02-01_neutral.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-01-01-02-01-01_neutral.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-01-01-02-02-01_neutral.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-02-01-01-01-01_calm.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-02-01-01-02-01_calm.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-02-01-02-01-01_calm.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-02-01-02-02-01_calm.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-02-02-01-01-01_calm.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-02-02-01-02-01_calm.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-02-02-02-01-01_calm.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-02-02-02-02-01_calm.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-03-01-01-01-01_happy.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-03-01-01-02-01_happy.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-03-01-02-01-01_happy.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-03-01-02-02-01_happy.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-03-02-01-01-01_happy.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-03-02-01-02-01_happy.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-03-02-02-01-01_happy.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-03-02-02-02-01_happy.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-04-01-01-01-01_sad.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-04-01-01-02-01_sad.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-04-01-02-01-01_sad.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-04-01-02-02-01_sad.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-04-02-01-01-01_sad.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-04-02-01-02-01_sad.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-04-02-02-01-01_sad.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-04-02-02-02-01_sad.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-05-01-01-01-01_angry.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-05-01-01-02-01_angry.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-05-01-02-01-01_angry.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-05-01-02-02-01_angry.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-05-02-01-01-01_angry.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-05-02-01-02-01_angry.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-05-02-02-01-01_angry.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-05-02-02-02-01_angry.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-06-01-01-01-01_fear.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-06-01-01-02-01_fear.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-06-01-02-01-01_fear.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-06-01-02-02-01_fear.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-06-02-01-01-01_fear.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-06-02-01-02-01_fear.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-06-02-02-01-01_fear.wav</t>
+  </si>
+  <si>
+    <t>output\cleaned_03-02-06-02-02-02-01_fear.wav</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +510,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,6440 +826,6130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MFCC_1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MFCC_2</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>MFCC_3</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>MFCC_4</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>MFCC_5</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MFCC_6</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>MFCC_7</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MFCC_8</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>MFCC_9</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>MFCC_10</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>MFCC_11</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MFCC_12</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MFCC_13</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Audio File</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
         <v>-1.402855846892461</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1.196844487585031</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>1.128202993308587</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>1.23522504794948</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0.276046587188842</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0.1629774160760051</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>2.025443251703428</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>1.539621114648255</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>-0.3307373648459484</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>0.4622092747823311</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>1.852550217861224</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>1.867827715203199</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>0.1384621867369506</v>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_01_01_dogs-sitting_disgust.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
         <v>-0.6625235908456274</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>-0.5148080602873482</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>1.537641359106641</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>2.05141493123905</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>2.032518043597147</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>1.861664300843478</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>1.911824633150278</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>2.106366334652431</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>1.688295304626511</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>1.63001530541786</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>1.995256319386314</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>2.276236507673817</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>1.156576637233561</v>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_01_01_dogs-sitting_fear.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="N3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
         <v>-1.313647481972548</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>-1.633120826000694</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.9277380481369082</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>1.558147635620344</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>0.3222331620348527</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>0.1080813855762057</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>1.324072081232635</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>1.728677676727971</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>1.207834835624485</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>1.275418631947304</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>1.39972657320513</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>1.085798094738833</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>0.2682595563806355</v>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_01_01_dogs-sitting_neutral.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="N4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
         <v>-1.116777953931418</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>-0.9028821915018278</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.8850168127767931</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>1.33316425147345</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>0.4971316613595479</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>-0.06939485188970443</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>0.881489409126338</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>1.417484117143812</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>0.789693661398808</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>0.7127228712761019</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>1.348356387199712</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>1.469033569315161</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>0.4752885722541024</v>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_01_01_dogs-sitting_ps.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="N5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
         <v>-1.92346658466409</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>-0.9268448113757181</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.7393304048295867</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>1.267543388041448</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>0.8628957145317316</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>0.6745467253072635</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>1.063102250829001</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>1.423096720206812</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>1.233841141648568</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>0.9987903039183971</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>1.116378204329217</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>1.136656627365953</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>0.5792513520189362</v>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_01_01_dogs-sitting_sad.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="N6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
         <v>0.05261998038481196</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>-1.352961424767156</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>-0.1729369937651472</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.7820506204874722</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>0.1580068548763404</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>-0.8948445788989172</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>0.1375674693129125</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>1.279979863831267</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>1.891694536321645</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>1.893828966720578</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>1.021287221641354</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>0.5608893324950487</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>0.3154681104219429</v>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_01_01_kids-talking_angry.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="N7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
         <v>-1.133058575829525</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>0.114810856691343</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>1.246362257109239</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.4854620449497435</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>-0.5464979097926524</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>0.7578353434213785</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>1.387795221290418</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>0.7818739073579027</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>0.2811457569455882</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>0.7009960233488353</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>0.8501193579538658</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>0.7857950683139605</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>0.3578862415344864</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_01_01_kids-talking_disgust.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="N8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
         <v>-0.3822386138754414</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>-0.6171873693664087</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>1.25289679721997</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>1.323031055120755</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>1.256915037563606</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>1.280642292955093</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>0.8476908443653381</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>0.9576940117906437</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>0.690691456351046</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>0.3770940916051506</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>1.063437222075035</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>1.326533024877584</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>-0.03886539284682042</v>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_01_01_kids-talking_fear.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="N9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
         <v>-0.9889385569985979</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>-0.5373084226437986</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.7923944476904602</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0.7794096714731295</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>0.4109619281206388</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>0.3485237493144118</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>0.3865584371610684</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>0.7350348275634709</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>0.8089832229980702</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>0.7708270672199573</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>1.174409596163563</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>1.407905931524743</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>-0.05471171963188077</v>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_01_01_kids-talking_happy.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="N10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
         <v>-1.44554432768354</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>-1.64712870216741</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.9923862620812125</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>1.304620358838165</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>0.4903710247533744</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>0.9346732935368757</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>1.258390803984083</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>1.392507192219293</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>1.475243834393533</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>1.604269932715553</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>1.344527251433246</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>1.136105847698877</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>0.7684191793244075</v>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_01_01_kids-talking_neutral.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="N11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
         <v>-0.8916400391415593</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>-2.211656502728373</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>1.100741365957287</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>1.196151425936417</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>-0.5756501544146949</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>0.1400919856581925</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>0.9457273228060042</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>0.8138041736134615</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>0.7564061243436353</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>1.383458253993319</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>1.46155894871676</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>0.94384677672618</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>-0.1280693958014254</v>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_01_01_kids-talking_ps.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="N12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
         <v>-1.377030489711336</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>-0.8910664496784749</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>1.301519934775451</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>1.212103539328909</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>0.5175508286511507</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>1.099213385993755</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>1.253313932021631</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>1.153676712756157</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>0.9242332061652105</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>1.071703074920292</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>1.186214956470183</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>0.7301709816657524</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>-0.3938484249162456</v>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_01_01_kids-talking_sad.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="N13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
         <v>0.3126437956303413</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>-1.610185416994148</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0.08734236660554227</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>1.174259990106757</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>-0.284398128010064</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>-1.093594185463008</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>0.486828645152479</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>1.202143903935523</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>1.238360309707192</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>0.7781493405672467</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>0.526677596613829</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>0.5530440099351057</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>-0.2467872147734302</v>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_01_02_dogs-sitting_angry.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="N14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
         <v>-1.222717025309799</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>-0.6858809224334972</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.6669230119434089</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>1.060517675846222</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>-0.5034671271363564</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>-0.2823047480095781</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>1.775288971483947</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>1.362255623087901</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>-0.1580988247393251</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>0.765317562968611</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>1.868272783304209</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>2.120895232704092</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15">
         <v>0.9349887230500118</v>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_01_02_dogs-sitting_disgust.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="N15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
         <v>-0.7525284649949453</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>0.1249177102344604</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.6520891248826667</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>1.001320881824316</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>1.318001956076801</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>1.257089539500276</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>1.28785475338774</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>1.26206321647286</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>0.5163970770634808</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>0.3874174546383463</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>1.296592674129479</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>1.791010260688709</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16">
         <v>0.8472599076150726</v>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_01_02_dogs-sitting_fear.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="N16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17">
         <v>-1.132084841624643</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>-0.2590175311232645</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.6091272466100199</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>1.43207474603876</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>1.22215274675788</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>-0.005985558080897894</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>0.7478147087687794</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>1.601363711611427</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>1.329017991719081</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>0.6378331061381083</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>0.7004202473669294</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17">
         <v>1.067234676484206</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17">
         <v>0.5619665106313392</v>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_01_02_dogs-sitting_happy.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="N17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18">
         <v>-1.296118259964198</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>-1.739332301399022</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>1.045994481361746</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>1.794562578539204</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>0.4793545592133538</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>0.3228867313168569</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>1.697897174315497</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>1.983833613629165</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>1.153487176973407</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>1.183034671483818</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>1.50535712600797</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18">
         <v>1.412379579570744</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18">
         <v>0.8257152719149768</v>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_01_02_dogs-sitting_neutral.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="N18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19">
         <v>-1.213235823508556</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>-1.364790937851373</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.1994500347735677</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>1.05914321033997</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>-0.2468175402416421</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>-1.315154061496189</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>0.2621170516059217</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>1.177645633958088</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>1.078463038713497</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>1.262926711677277</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>1.378967041987646</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19">
         <v>1.140077384331897</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19">
         <v>-0.05360213260139707</v>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_01_02_dogs-sitting_ps.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="N19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20">
         <v>-1.586317135185186</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>-1.329205999772658</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.9986493359770046</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>1.747816843370303</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>0.9201608879302695</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>0.3625995865017618</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>1.217986331487663</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>2.007236741984913</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>1.645341830695354</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>0.8352225572769766</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>0.9419433433833031</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20">
         <v>0.9097625344936121</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20">
         <v>-0.130924110406066</v>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_01_02_dogs-sitting_sad.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="N20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21">
         <v>0.2398551574949473</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>-1.189710012826702</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>-0.3992940658448266</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>0.5988348607520301</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>-0.521445173093449</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>-1.71954526815314</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>0.1482929645517952</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>0.8321688146197449</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>0.03939022687702433</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>0.3674543767630689</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>0.8379666881833873</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21">
         <v>0.1148752272702737</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21">
         <v>-1.214988788889697</v>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_01_02_kids-talking_angry.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="N21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22">
         <v>-0.8660547716441938</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>-0.4119198405226358</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.978833131612948</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>0.2240620053943041</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>-1.29756169435421</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>0.2152944139335281</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>1.112032598709756</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>0.3511186111648822</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>-0.07889649417856874</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>0.5710926398490251</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>0.7058928930670489</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22">
         <v>0.5068967714032321</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22">
         <v>-0.001331272763364333</v>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_01_02_kids-talking_disgust.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="N22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23">
         <v>-0.5446114676334565</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>-0.8142146764808542</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.388784865132729</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>0.4567899334584662</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>0.2215243038696417</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>0.4434057363712974</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>0.3487368985287126</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>0.3598542350903835</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>-0.1506867624076134</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>-0.8126789557489421</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>0.07958990249196304</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23">
         <v>0.7163656618698845</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23">
         <v>-0.5152012910498226</v>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_01_02_kids-talking_fear.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="N23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24">
         <v>-0.685111415550218</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>-0.9639959173947846</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.9524048451083317</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>0.9934480409164699</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>0.9863520334207967</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>1.424586626279763</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>0.6823496275566496</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>0.7564843339494577</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>1.192810215091028</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>0.811495087463286</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24">
         <v>0.9537241647030968</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L24">
         <v>1.80281552234027</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M24">
         <v>0.9327939636783248</v>
       </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_01_02_kids-talking_happy.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="N24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25">
         <v>-1.397308370773302</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>-1.43537490945558</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>0.8235009651069086</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>1.325214604267347</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>1.023195215299891</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>1.089047909158514</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>1.118084290209266</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>1.438734775456561</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>1.389720439999146</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>1.091325705436876</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25">
         <v>1.19062203806749</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L25">
         <v>1.478598434486772</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M25">
         <v>1.070751427443018</v>
       </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_01_02_kids-talking_neutral.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="N25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26">
         <v>-1.20874434073384</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>-1.922583965882275</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>0.6467855817730805</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>0.9852978222275323</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>0.1713829627776518</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>0.725105653821145</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>0.855477356864343</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>0.7076849486705721</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>0.6496385770448232</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>1.074128098567138</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26">
         <v>1.552028924038724</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L26">
         <v>1.735270457500182</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M26">
         <v>0.3571477873858306</v>
       </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_01_02_kids-talking_ps.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="N26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27">
         <v>-1.567451034965601</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>-0.3817407483003782</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>1.227650577451689</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>1.336319482334314</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>1.263488710286694</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>1.244186412214853</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>1.240301283447357</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>1.672451699630281</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>1.526705636043784</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>1.138300950605647</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27">
         <v>1.069162634394061</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L27">
         <v>0.7137081680974016</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M27">
         <v>-0.01752501160292605</v>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_01_02_kids-talking_sad.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="N27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28">
         <v>1.399282013426778</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>-0.500153560826315</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>-2.113305415855336</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>-0.7153263718525181</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>-1.347141649557073</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>-2.383474282274706</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>-0.262703137567678</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>-0.02164107177079506</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>-0.648381068577243</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>-0.3702177555846383</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28">
         <v>-0.2362696130105273</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L28">
         <v>-0.3945788791112421</v>
       </c>
-      <c r="M28" t="n">
+      <c r="M28">
         <v>-0.9473117235290968</v>
       </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_02_01_dogs-sitting_angry.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="N28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29">
         <v>0.2445064771343382</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>-0.528668208382949</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>1.057530689727976</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>1.228898646772163</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>-2.258410746888288</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>-2.618614843709837</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>1.23217838373643</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>0.4232703048670466</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>-2.449709435844743</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>0.004915505003223218</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29">
         <v>2.342902178128408</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L29">
         <v>-0.1091263145172588</v>
       </c>
-      <c r="M29" t="n">
+      <c r="M29">
         <v>-4.169301559570091</v>
       </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_02_01_dogs-sitting_disgust.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="N29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30">
         <v>1.871982821365696</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>-0.697411223577079</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>-0.6223445439698785</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>-1.25882617808398</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>-2.935336079419982</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>-1.581976590890516</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>0.5846992087658023</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>0.3347497288961899</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>-1.857845273431309</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30">
         <v>-2.496693260089997</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30">
         <v>-0.8892625906807591</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L30">
         <v>-0.9432612550841017</v>
       </c>
-      <c r="M30" t="n">
+      <c r="M30">
         <v>-1.496859124316718</v>
       </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_02_01_dogs-sitting_fear.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="N30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31">
         <v>0.2940197914149916</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>-0.6339294667815026</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>-0.08847616920504979</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>0.06296192775098181</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>-0.4986694700911825</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>-0.1521047472904731</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>0.4248787074719655</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>0.23677826682373</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>-0.0821368261072314</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>-0.3493597987480349</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31">
         <v>-0.2457260051487125</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L31">
         <v>0.5509856534353624</v>
       </c>
-      <c r="M31" t="n">
+      <c r="M31">
         <v>0.7715078965600807</v>
       </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_02_01_dogs-sitting_happy.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="N31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32">
         <v>-0.5409713335145198</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>-0.5909437279199138</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>-0.4341463747199608</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>0.6360919317699909</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>0.2199269206026805</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>-0.8131522598745692</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>0.2068977539402903</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>0.8235721213284893</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>0.4699470082704411</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>0.004816379949045568</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K32">
         <v>0.6570536852611905</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L32">
         <v>1.310865471291023</v>
       </c>
-      <c r="M32" t="n">
+      <c r="M32">
         <v>0.1375741914600198</v>
       </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_02_01_dogs-sitting_ps.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="N32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33">
         <v>-0.6466830219054962</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>-1.155874650844419</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>0.5252727979587517</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>1.113872424990809</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>0.8097044897940699</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>0.4826049087808235</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>0.6176610093088162</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>0.7995582350250182</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33">
         <v>0.3570348157997981</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33">
         <v>-0.3931364908293239</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K33">
         <v>-0.09224442803405949</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L33">
         <v>0.3552912250204937</v>
       </c>
-      <c r="M33" t="n">
+      <c r="M33">
         <v>0.1158607160178424</v>
       </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_02_01_dogs-sitting_sad.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="N33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34">
         <v>2.050232023445684</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>-1.035806783148905</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>-2.196761925997027</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>-1.371627204984286</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>-2.569789888948608</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>-3.50642415186831</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>-0.7180531892745096</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>-0.2341101119208826</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34">
         <v>-2.146925441474336</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34">
         <v>-1.358245946393585</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K34">
         <v>0.2647415261141726</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L34">
         <v>-1.025494036586572</v>
       </c>
-      <c r="M34" t="n">
+      <c r="M34">
         <v>-2.723514099566868</v>
       </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_02_01_kids-talking_angry.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="N34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35">
         <v>0.738808334489864</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>-1.446427598233653</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>0.5416742503675744</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>-0.4836867023052729</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>-4.344377028292702</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>-2.834445076597997</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>0.4465359562079194</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>-0.1086290871974906</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35">
         <v>-2.058985562860954</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35">
         <v>-1.547238089371404</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K35">
         <v>0.1710980425572149</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L35">
         <v>-0.1524783384725112</v>
       </c>
-      <c r="M35" t="n">
+      <c r="M35">
         <v>-1.408125171204069</v>
       </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_02_01_kids-talking_disgust.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="N35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36">
         <v>1.046268253548765</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>0.3449430229957596</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>-0.05321666100750647</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>-1.0089530214957</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>-1.54530027756449</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>0.7401879508649057</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>2.056932911899191</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>1.515097083414729</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36">
         <v>-0.3511636893427653</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36">
         <v>-0.8720705973369396</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K36">
         <v>0.3616530607510763</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L36">
         <v>1.303081035823436</v>
       </c>
-      <c r="M36" t="n">
+      <c r="M36">
         <v>1.663976864627329</v>
       </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_02_01_kids-talking_fear.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="N36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37">
         <v>-0.4450464764107967</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>-1.274731273550095</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.08948776520797731</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>0.1306789858621794</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>-1.211876810429932</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>-0.7555663633688137</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>0.2603913662874946</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>-0.1645740324105541</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37">
         <v>-0.6796807311276358</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37">
         <v>0.5387235894193474</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K37">
         <v>0.9620260200929815</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L37">
         <v>-0.1093313424813142</v>
       </c>
-      <c r="M37" t="n">
+      <c r="M37">
         <v>-1.263828085049211</v>
       </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_02_01_kids-talking_happy.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="N37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38">
         <v>-0.4477744034861491</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>-1.105143829678302</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.05341116305441848</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>0.498220172726606</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>0.3065315849291286</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>0.2381406876539928</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>0.3559968733140498</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>0.5691192235179029</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38">
         <v>0.7191284096577916</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38">
         <v>1.000328905701793</v>
       </c>
-      <c r="K38" t="n">
+      <c r="K38">
         <v>1.068619916311179</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L38">
         <v>1.247897448649516</v>
       </c>
-      <c r="M38" t="n">
+      <c r="M38">
         <v>0.5338992395121547</v>
       </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_02_01_kids-talking_ps.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="N38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39">
         <v>-1.254553987413782</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>-0.5161507582218174</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>1.557256313567973</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>1.665279998290159</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>1.248751889411511</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>1.304274687150283</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>1.350697857113702</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>1.446838582057857</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39">
         <v>1.172652811765585</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39">
         <v>1.132494464545158</v>
       </c>
-      <c r="K39" t="n">
+      <c r="K39">
         <v>1.502415458507411</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L39">
         <v>1.593940902320948</v>
       </c>
-      <c r="M39" t="n">
+      <c r="M39">
         <v>0.209474609502784</v>
       </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_02_01_kids-talking_sad.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="N39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40">
         <v>2.418964635488218</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>-0.8127880990483795</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>-3.065388849892312</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>-1.732387091110405</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>-2.456880363475738</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>-3.734516310752928</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>-1.204761340788427</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
         <v>-1.190759076744523</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40">
         <v>-2.42158406993867</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40">
         <v>-0.9898799375202966</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K40">
         <v>-0.5078815716164238</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L40">
         <v>-1.590212705832861</v>
       </c>
-      <c r="M40" t="n">
+      <c r="M40">
         <v>-1.12446744738416</v>
       </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_02_02_dogs-sitting_angry.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="N40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41">
         <v>0.662336760732022</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>-1.9470711456019</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.6780520209872298</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>0.5781812330373168</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>-2.639450766030532</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>-1.703042213484842</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>0.7805428563503598</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>-0.3368702131884564</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I41">
         <v>-2.257043615560115</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J41">
         <v>-0.5324268596184016</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K41">
         <v>1.668363593659618</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L41">
         <v>0.7522568424725357</v>
       </c>
-      <c r="M41" t="n">
+      <c r="M41">
         <v>-2.651190814295004</v>
       </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_02_02_dogs-sitting_disgust.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="N41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42">
         <v>1.351325603836348</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>-0.7432638885644839</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>-0.5906081876150771</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>-1.032121801540935</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>-2.225148562351819</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>-0.4758986121440434</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>1.077914902109223</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
         <v>0.04783447779515242</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I42">
         <v>-1.876394283839097</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J42">
         <v>-1.516132883382489</v>
       </c>
-      <c r="K42" t="n">
+      <c r="K42">
         <v>-0.5354302727045704</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L42">
         <v>-0.7750459584254386</v>
       </c>
-      <c r="M42" t="n">
+      <c r="M42">
         <v>0.376244496616044</v>
       </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_02_02_dogs-sitting_fear.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="N42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43">
         <v>0.1290781786728068</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>-0.4026336289338761</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>-0.0519756429775504</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>0.1058532837814949</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>-0.6947472776309276</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>-0.4823885028930556</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>0.2932029484277278</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
         <v>0.1993615375856934</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43">
         <v>-0.03427947990060162</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J43">
         <v>-0.2200802737241206</v>
       </c>
-      <c r="K43" t="n">
+      <c r="K43">
         <v>-0.1442628648203064</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L43">
         <v>-0.1001096402758038</v>
       </c>
-      <c r="M43" t="n">
+      <c r="M43">
         <v>-0.336537203822211</v>
       </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_02_02_dogs-sitting_happy.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="N43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44">
         <v>-0.2720581810084895</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>-1.284860661883718</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>-0.2142856937309908</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>0.4334637903565761</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>-0.7202384757024715</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>-0.9451322311409176</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>0.6461780891766982</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>0.7307052071132462</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44">
         <v>-0.2602021210960759</v>
       </c>
-      <c r="J44" t="n">
+      <c r="J44">
         <v>0.206089409103374</v>
       </c>
-      <c r="K44" t="n">
+      <c r="K44">
         <v>0.9613693387399908</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L44">
         <v>0.8169264936662247</v>
       </c>
-      <c r="M44" t="n">
+      <c r="M44">
         <v>-0.1675350055283265</v>
       </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_02_02_dogs-sitting_ps.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="N44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45">
         <v>-0.5769159024086021</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>-0.5819097807915711</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.1641728342768837</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>1.016314908920539</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>0.9664519592064033</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>-0.0282519476605522</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>0.347821767360842</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
         <v>0.7808707676487028</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I45">
         <v>0.3942337484439951</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J45">
         <v>-0.1269979143174115</v>
       </c>
-      <c r="K45" t="n">
+      <c r="K45">
         <v>0.3145111077764004</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L45">
         <v>0.9206078924952776</v>
       </c>
-      <c r="M45" t="n">
+      <c r="M45">
         <v>0.4366373159221061</v>
       </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_02_02_dogs-sitting_sad.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="N45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46">
         <v>1.786994082795854</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>-0.7540361443939979</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>-2.018517748330034</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>-1.568402909620413</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>-1.77781034183244</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>-2.205205743880783</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>-1.185674751773222</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
         <v>-0.4225458817734053</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I46">
         <v>-0.3430953460483943</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J46">
         <v>-0.3987791452030477</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K46">
         <v>-0.4130258922194192</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L46">
         <v>-1.131354323506358</v>
       </c>
-      <c r="M46" t="n">
+      <c r="M46">
         <v>-1.90595273105987</v>
       </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_02_02_kids-talking_angry.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="N46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47">
         <v>0.6189199856077578</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>-1.561747510762282</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>-0.2458734969724999</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>-0.3331038525059324</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>-2.69383432680846</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>-2.274423377915164</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>-0.4811784133001354</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
         <v>-1.466269189253941</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I47">
         <v>-2.97837340518133</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J47">
         <v>-0.9243614235359867</v>
       </c>
-      <c r="K47" t="n">
+      <c r="K47">
         <v>1.373896655016364</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L47">
         <v>0.6211139152983322</v>
       </c>
-      <c r="M47" t="n">
+      <c r="M47">
         <v>-2.005589679357193</v>
       </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_02_02_kids-talking_disgust.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="N47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48">
         <v>1.665725051038762</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>-1.758314732570515</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>-0.2358455571080111</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>-1.279605602482512</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>-3.152461162523203</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>-0.01592853859773416</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>1.205070099106191</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
         <v>-0.1014397151130934</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I48">
         <v>-1.834508439350969</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J48">
         <v>-1.90040216979706</v>
       </c>
-      <c r="K48" t="n">
+      <c r="K48">
         <v>-0.3930342957982708</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L48">
         <v>-0.3937604240466496</v>
       </c>
-      <c r="M48" t="n">
+      <c r="M48">
         <v>-1.747850197413281</v>
       </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_02_02_kids-talking_fear.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="N48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49">
         <v>0.008629397604099589</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>-1.324729714024682</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>0.290720597628686</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>-0.04394196938871587</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>-1.143752198559344</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>0.2595567464120009</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>0.6054125660087968</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
         <v>-0.05200808015325669</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I49">
         <v>-0.07941309192581443</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J49">
         <v>0.4066569589534659</v>
       </c>
-      <c r="K49" t="n">
+      <c r="K49">
         <v>0.2091756249992049</v>
       </c>
-      <c r="L49" t="n">
+      <c r="L49">
         <v>0.1418682977824011</v>
       </c>
-      <c r="M49" t="n">
+      <c r="M49">
         <v>0.8146173200242827</v>
       </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_02_02_kids-talking_happy.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
+      <c r="N49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50">
         <v>0.01815340090885384</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>-1.620086953557072</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>-0.176909536917116</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>0.3667077876559237</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>-0.4362034811231459</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>-0.6618471311213122</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>0.1338284296120699</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50">
         <v>0.6184766372364151</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I50">
         <v>0.5885642598243576</v>
       </c>
-      <c r="J50" t="n">
+      <c r="J50">
         <v>0.7291255109454706</v>
       </c>
-      <c r="K50" t="n">
+      <c r="K50">
         <v>0.7760557276955395</v>
       </c>
-      <c r="L50" t="n">
+      <c r="L50">
         <v>0.4767077498392852</v>
       </c>
-      <c r="M50" t="n">
+      <c r="M50">
         <v>-0.2180011581791057</v>
       </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_02_02_kids-talking_ps.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
+      <c r="N50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51">
         <v>-0.6574710071108182</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>-1.433232852424456</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>0.6596141573030992</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>0.8326229188820666</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>0.1971320128510939</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>0.5388992979469319</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>0.4513201079508896</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H51">
         <v>0.3775028933259886</v>
       </c>
-      <c r="I51" t="n">
+      <c r="I51">
         <v>0.3929642068245644</v>
       </c>
-      <c r="J51" t="n">
+      <c r="J51">
         <v>0.2742190028878078</v>
       </c>
-      <c r="K51" t="n">
+      <c r="K51">
         <v>0.514701968858737</v>
       </c>
-      <c r="L51" t="n">
+      <c r="L51">
         <v>0.6558595280391937</v>
       </c>
-      <c r="M51" t="n">
+      <c r="M51">
         <v>-0.2695874815680371</v>
       </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_01_02_02_kids-talking_sad.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
+      <c r="N51" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52">
         <v>0.8542827783223685</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>0.7482030991474315</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>-1.413227047811064</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>-0.2032733925382913</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>1.226832209867899</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>-0.9567056898985961</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>-1.160557445071097</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H52">
         <v>0.2267873671468987</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I52">
         <v>1.235525926590879</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J52">
         <v>0.3196869178676559</v>
       </c>
-      <c r="K52" t="n">
+      <c r="K52">
         <v>-0.3668176251116052</v>
       </c>
-      <c r="L52" t="n">
+      <c r="L52">
         <v>0.2509417249671554</v>
       </c>
-      <c r="M52" t="n">
+      <c r="M52">
         <v>0.1774985272017913</v>
       </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_02_01_01_dogs-sitting_angry.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
+      <c r="N52" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53">
         <v>0.1890337222632301</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>0.1044104249052152</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>0.3623938983216134</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>-0.1510169812722429</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>-0.1490515274869218</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>0.5644145319790062</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>-0.11528416084653</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H53">
         <v>-0.745412316863883</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I53">
         <v>-0.0954246124394012</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J53">
         <v>0.8956516684300264</v>
       </c>
-      <c r="K53" t="n">
+      <c r="K53">
         <v>-0.03211818956356695</v>
       </c>
-      <c r="L53" t="n">
+      <c r="L53">
         <v>-1.40723622415803</v>
       </c>
-      <c r="M53" t="n">
+      <c r="M53">
         <v>-1.055161036881276</v>
       </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_02_01_01_dogs-sitting_fear.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
+      <c r="N53" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54">
         <v>-0.0526971316456697</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>0.523024830956491</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>-0.9933612788875775</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>-0.3683397380474741</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>0.416319488335323</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>-0.4385517506209285</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>-0.4625880550656387</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H54">
         <v>-0.7571776086245691</v>
       </c>
-      <c r="I54" t="n">
+      <c r="I54">
         <v>-0.8631460482160307</v>
       </c>
-      <c r="J54" t="n">
+      <c r="J54">
         <v>-0.1230167846613321</v>
       </c>
-      <c r="K54" t="n">
+      <c r="K54">
         <v>-0.5131810894953753</v>
       </c>
-      <c r="L54" t="n">
+      <c r="L54">
         <v>-0.6523046216005243</v>
       </c>
-      <c r="M54" t="n">
+      <c r="M54">
         <v>0.6483617141396574</v>
       </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_02_01_01_dogs-sitting_happy.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
+      <c r="N54" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55">
         <v>-0.2764125652172708</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>-0.1088763595276062</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>-0.1289407379876653</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>0.5021504986828027</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>0.8390761769193725</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>-0.1979608900855764</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>-0.1853843271281147</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H55">
         <v>0.2531543550381819</v>
       </c>
-      <c r="I55" t="n">
+      <c r="I55">
         <v>0.0798778229046469</v>
       </c>
-      <c r="J55" t="n">
+      <c r="J55">
         <v>-0.4398562529715541</v>
       </c>
-      <c r="K55" t="n">
+      <c r="K55">
         <v>-0.2452641302310186</v>
       </c>
-      <c r="L55" t="n">
+      <c r="L55">
         <v>-0.08884987726800221</v>
       </c>
-      <c r="M55" t="n">
+      <c r="M55">
         <v>-0.4187925956270747</v>
       </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_02_01_01_dogs-sitting_neutral.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
+      <c r="N55" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56">
         <v>-0.6197856208161127</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>0.2425393012269837</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>2.048720739477979</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>1.15570833903062</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>0.03971604870875959</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>0.7910883390531167</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>1.102226356184187</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H56">
         <v>0.4261745892460133</v>
       </c>
-      <c r="I56" t="n">
+      <c r="I56">
         <v>-1.282150372653049</v>
       </c>
-      <c r="J56" t="n">
+      <c r="J56">
         <v>-2.118039880018661</v>
       </c>
-      <c r="K56" t="n">
+      <c r="K56">
         <v>-0.3915863450295706</v>
       </c>
-      <c r="L56" t="n">
+      <c r="L56">
         <v>0.3642863609707752</v>
       </c>
-      <c r="M56" t="n">
+      <c r="M56">
         <v>-0.6792329213487612</v>
       </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_02_01_01_dogs-sitting_sad.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
+      <c r="N56" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57">
         <v>0.8302015824093294</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>0.4496359039003714</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>-0.83646086888625</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>-0.5140573034318698</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>0.6604536507633206</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>-0.4954767948998323</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>-1.029302297554645</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H57">
         <v>0.3718674113852013</v>
       </c>
-      <c r="I57" t="n">
+      <c r="I57">
         <v>1.808769068269698</v>
       </c>
-      <c r="J57" t="n">
+      <c r="J57">
         <v>1.804491528259497</v>
       </c>
-      <c r="K57" t="n">
+      <c r="K57">
         <v>0.8460896950067078</v>
       </c>
-      <c r="L57" t="n">
+      <c r="L57">
         <v>0.2709949095444407</v>
       </c>
-      <c r="M57" t="n">
+      <c r="M57">
         <v>-0.108838724956673</v>
       </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_02_01_01_kids-talking_angry.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
+      <c r="N57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58">
         <v>-0.01840443327772619</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>0.354858956785951</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>-0.1924256141529274</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>-0.3846126720509989</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>0.400572158738572</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>0.03305350325684506</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>-1.128890945073242</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H58">
         <v>-0.8954660489844072</v>
       </c>
-      <c r="I58" t="n">
+      <c r="I58">
         <v>0.1193398360844987</v>
       </c>
-      <c r="J58" t="n">
+      <c r="J58">
         <v>0.21511962286828</v>
       </c>
-      <c r="K58" t="n">
+      <c r="K58">
         <v>-0.2944538089652974</v>
       </c>
-      <c r="L58" t="n">
+      <c r="L58">
         <v>-0.5873822061339773</v>
       </c>
-      <c r="M58" t="n">
+      <c r="M58">
         <v>-0.6202587259358945</v>
       </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_02_01_01_kids-talking_fear.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
+      <c r="N58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59">
         <v>0.07819588505328444</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>0.7475151620705112</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>-0.5972930086026886</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>-0.6408456714195</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>0.3432547371249737</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>0.05176210867873208</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>-0.8984796737372392</v>
       </c>
-      <c r="H59" t="n">
+      <c r="H59">
         <v>-0.997613500743496</v>
       </c>
-      <c r="I59" t="n">
+      <c r="I59">
         <v>-0.1624036879408419</v>
       </c>
-      <c r="J59" t="n">
+      <c r="J59">
         <v>-0.06088661677498375</v>
       </c>
-      <c r="K59" t="n">
+      <c r="K59">
         <v>-0.8399798745608467</v>
       </c>
-      <c r="L59" t="n">
+      <c r="L59">
         <v>-0.4649562810153821</v>
       </c>
-      <c r="M59" t="n">
+      <c r="M59">
         <v>0.8939960249293035</v>
       </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_02_01_01_kids-talking_happy.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
+      <c r="N59" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60">
         <v>-0.4423165430149673</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>0.370524391987859</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>-0.326443743485241</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>-0.2761974957445723</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>0.3913431469992229</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>0.2694892740816638</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>-0.3862374869663637</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H60">
         <v>-0.4219117585465566</v>
       </c>
-      <c r="I60" t="n">
+      <c r="I60">
         <v>0.04614565416948509</v>
       </c>
-      <c r="J60" t="n">
+      <c r="J60">
         <v>-0.4252585153303368</v>
       </c>
-      <c r="K60" t="n">
+      <c r="K60">
         <v>-0.9692587844597896</v>
       </c>
-      <c r="L60" t="n">
+      <c r="L60">
         <v>-0.5803164040353521</v>
       </c>
-      <c r="M60" t="n">
+      <c r="M60">
         <v>0.1007866298328397</v>
       </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_02_01_01_kids-talking_neutral.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
+      <c r="N60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61">
         <v>-0.5428552684425089</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>0.1288631764726794</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>1.855278945959706</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>0.8757210190277263</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>-0.1342449481840619</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>0.5342506015643211</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>0.4494002739848379</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H61">
         <v>0.1386652799765507</v>
       </c>
-      <c r="I61" t="n">
+      <c r="I61">
         <v>-0.2199214828362841</v>
       </c>
-      <c r="J61" t="n">
+      <c r="J61">
         <v>-0.6826536326983557</v>
       </c>
-      <c r="K61" t="n">
+      <c r="K61">
         <v>-0.5617848434644445</v>
       </c>
-      <c r="L61" t="n">
+      <c r="L61">
         <v>-1.270951444164063</v>
       </c>
-      <c r="M61" t="n">
+      <c r="M61">
         <v>-1.86624946898806</v>
       </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_02_01_01_kids-talking_sad.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
+      <c r="N61" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62">
         <v>1.143265823334239</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>-0.1940027826067016</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>-0.5473417391771472</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>0.02370836178584624</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>0.2798028102175875</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>-1.216285889465635</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>-1.199281742008356</v>
       </c>
-      <c r="H62" t="n">
+      <c r="H62">
         <v>0.02973544794956962</v>
       </c>
-      <c r="I62" t="n">
+      <c r="I62">
         <v>1.299424447225648</v>
       </c>
-      <c r="J62" t="n">
+      <c r="J62">
         <v>1.169638825124505</v>
       </c>
-      <c r="K62" t="n">
+      <c r="K62">
         <v>0.01639433357103925</v>
       </c>
-      <c r="L62" t="n">
+      <c r="L62">
         <v>-0.7651776932868168</v>
       </c>
-      <c r="M62" t="n">
+      <c r="M62">
         <v>-1.19031527984979</v>
       </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_02_01_02_dogs-sitting_angry.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
+      <c r="N62" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63">
         <v>0.261805641061315</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>0.3700937271025833</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>0.2320800250113311</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>-0.3710860124840451</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>0.186761165795563</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>0.7506006458317083</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>-0.4955182982267757</v>
       </c>
-      <c r="H63" t="n">
+      <c r="H63">
         <v>-1.043487127925051</v>
       </c>
-      <c r="I63" t="n">
+      <c r="I63">
         <v>-0.8999661189071414</v>
       </c>
-      <c r="J63" t="n">
+      <c r="J63">
         <v>-1.059349686303076</v>
       </c>
-      <c r="K63" t="n">
+      <c r="K63">
         <v>-0.9888993077687974</v>
       </c>
-      <c r="L63" t="n">
+      <c r="L63">
         <v>-0.8924333731021131</v>
       </c>
-      <c r="M63" t="n">
+      <c r="M63">
         <v>0.1786404574508125</v>
       </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_02_01_02_dogs-sitting_fear.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
+      <c r="N63" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64">
         <v>0.4040403874172685</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>-0.3165112933075817</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>-0.112118056816099</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>-0.2280590897108295</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>-0.8752408547317491</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>-0.663429161245097</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>-0.4488877418534436</v>
       </c>
-      <c r="H64" t="n">
+      <c r="H64">
         <v>-1.061323284869322</v>
       </c>
-      <c r="I64" t="n">
+      <c r="I64">
         <v>-0.8823263771867629</v>
       </c>
-      <c r="J64" t="n">
+      <c r="J64">
         <v>-0.05326264137787577</v>
       </c>
-      <c r="K64" t="n">
+      <c r="K64">
         <v>-0.3768602431068635</v>
       </c>
-      <c r="L64" t="n">
+      <c r="L64">
         <v>-0.2836635138332475</v>
       </c>
-      <c r="M64" t="n">
+      <c r="M64">
         <v>0.8523802156453864</v>
       </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_02_01_02_dogs-sitting_happy.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
+      <c r="N64" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65">
         <v>-0.3111413039022356</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>0.4096034745282136</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>-0.6467230117537447</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>-0.0003414638536416746</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>0.8872213537732275</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>-0.09249946026174041</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>-0.1951903475344684</v>
       </c>
-      <c r="H65" t="n">
+      <c r="H65">
         <v>-0.09424241648836094</v>
       </c>
-      <c r="I65" t="n">
+      <c r="I65">
         <v>-0.5427490449079148</v>
       </c>
-      <c r="J65" t="n">
+      <c r="J65">
         <v>-0.7179531658805084</v>
       </c>
-      <c r="K65" t="n">
+      <c r="K65">
         <v>-0.4528434845371246</v>
       </c>
-      <c r="L65" t="n">
+      <c r="L65">
         <v>0.07220828665350119</v>
       </c>
-      <c r="M65" t="n">
+      <c r="M65">
         <v>0.8641695223353151</v>
       </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_02_01_02_dogs-sitting_neutral.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
+      <c r="N65" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66">
         <v>-0.1128773831295273</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>0.2479013294352281</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>0.5006542401467032</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>0.2420076446196957</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>0.01120518622944525</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>-0.4393207815201147</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>-0.336734057112997</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H66">
         <v>0.2634850871170381</v>
       </c>
-      <c r="I66" t="n">
+      <c r="I66">
         <v>-0.01015057648469768</v>
       </c>
-      <c r="J66" t="n">
+      <c r="J66">
         <v>-1.440127961384999</v>
       </c>
-      <c r="K66" t="n">
+      <c r="K66">
         <v>-1.025341961395225</v>
       </c>
-      <c r="L66" t="n">
+      <c r="L66">
         <v>-0.4523056414352618</v>
       </c>
-      <c r="M66" t="n">
+      <c r="M66">
         <v>-0.5851259973139555</v>
       </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_02_01_02_dogs-sitting_sad.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
+      <c r="N66" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67">
         <v>0.7106335760300655</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>0.7245785011311636</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>-1.170839076779271</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>-0.3943666812567525</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>0.9851048544061396</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>-1.631543494432179</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>-1.819462021155293</v>
       </c>
-      <c r="H67" t="n">
+      <c r="H67">
         <v>0.409118259751851</v>
       </c>
-      <c r="I67" t="n">
+      <c r="I67">
         <v>1.412292557160628</v>
       </c>
-      <c r="J67" t="n">
+      <c r="J67">
         <v>0.6847532818323365</v>
       </c>
-      <c r="K67" t="n">
+      <c r="K67">
         <v>0.668121219957768</v>
       </c>
-      <c r="L67" t="n">
+      <c r="L67">
         <v>0.6906101111549414</v>
       </c>
-      <c r="M67" t="n">
+      <c r="M67">
         <v>-0.5736836030979218</v>
       </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_02_01_02_kids-talking_angry.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
+      <c r="N67" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68">
         <v>-0.2795899080794917</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>0.4449417818441416</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>-0.3205653388746711</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>-0.4647024981598057</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>0.5181961647128535</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>0.04703941277486191</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>-1.118593037550839</v>
       </c>
-      <c r="H68" t="n">
+      <c r="H68">
         <v>-0.5917711767063777</v>
       </c>
-      <c r="I68" t="n">
+      <c r="I68">
         <v>0.4309902623869012</v>
       </c>
-      <c r="J68" t="n">
+      <c r="J68">
         <v>-0.2022479911602731</v>
       </c>
-      <c r="K68" t="n">
+      <c r="K68">
         <v>-0.9264224451246218</v>
       </c>
-      <c r="L68" t="n">
+      <c r="L68">
         <v>-0.8302301668962191</v>
       </c>
-      <c r="M68" t="n">
+      <c r="M68">
         <v>0.2300460806839986</v>
       </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_02_01_02_kids-talking_fear.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
+      <c r="N68" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69">
         <v>0.06328223617356955</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>1.411882726013492</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>-0.3570588849372752</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>-0.9293463796680974</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>0.6535823044257719</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>1.146377627949415</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>-0.635160140815796</v>
       </c>
-      <c r="H69" t="n">
+      <c r="H69">
         <v>-1.164501186872039</v>
       </c>
-      <c r="I69" t="n">
+      <c r="I69">
         <v>-0.2134799444423386</v>
       </c>
-      <c r="J69" t="n">
+      <c r="J69">
         <v>-0.2560335602397776</v>
       </c>
-      <c r="K69" t="n">
+      <c r="K69">
         <v>-1.150664223123763</v>
       </c>
-      <c r="L69" t="n">
+      <c r="L69">
         <v>-0.6826359201455887</v>
       </c>
-      <c r="M69" t="n">
+      <c r="M69">
         <v>0.8244667621569848</v>
       </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_02_01_02_kids-talking_happy.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
+      <c r="N69" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70">
         <v>-0.1739818795798317</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>0.3412711040756625</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>-0.4094250149744293</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>-0.49035033235673</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>0.6352163507746951</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>0.4063538774239653</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>-0.8749225324048034</v>
       </c>
-      <c r="H70" t="n">
+      <c r="H70">
         <v>-0.4991162614153831</v>
       </c>
-      <c r="I70" t="n">
+      <c r="I70">
         <v>0.2375844220256831</v>
       </c>
-      <c r="J70" t="n">
+      <c r="J70">
         <v>-0.5013924572396158</v>
       </c>
-      <c r="K70" t="n">
+      <c r="K70">
         <v>-0.3781007415820215</v>
       </c>
-      <c r="L70" t="n">
+      <c r="L70">
         <v>0.6347323282885843</v>
       </c>
-      <c r="M70" t="n">
+      <c r="M70">
         <v>0.9123312252910108</v>
       </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_02_01_02_kids-talking_neutral.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
+      <c r="N70" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71">
         <v>-0.5084074146243369</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>0.1892132233539566</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>0.7670972243410621</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>0.372455524087672</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>0.5993977987563768</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>0.09784920962090521</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>-0.8743457463886068</v>
       </c>
-      <c r="H71" t="n">
+      <c r="H71">
         <v>-0.2877442544477438</v>
       </c>
-      <c r="I71" t="n">
+      <c r="I71">
         <v>0.2792087809508607</v>
       </c>
-      <c r="J71" t="n">
+      <c r="J71">
         <v>-0.9069582895201824</v>
       </c>
-      <c r="K71" t="n">
+      <c r="K71">
         <v>-1.069326966187364</v>
       </c>
-      <c r="L71" t="n">
+      <c r="L71">
         <v>-1.309452382230394</v>
       </c>
-      <c r="M71" t="n">
+      <c r="M71">
         <v>-1.712709919573284</v>
       </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_02_01_02_kids-talking_sad.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
+      <c r="N71" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72">
         <v>1.644318614708433</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>1.639313847288885</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>-1.784966614222829</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>-2.045946186237457</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>-1.139861965919535</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>-0.6637142087283338</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>-0.7733363256480038</v>
       </c>
-      <c r="H72" t="n">
+      <c r="H72">
         <v>-1.192744458920221</v>
       </c>
-      <c r="I72" t="n">
+      <c r="I72">
         <v>-1.133064653347684</v>
       </c>
-      <c r="J72" t="n">
+      <c r="J72">
         <v>-1.57803844648338</v>
       </c>
-      <c r="K72" t="n">
+      <c r="K72">
         <v>-1.263469192835848</v>
       </c>
-      <c r="L72" t="n">
+      <c r="L72">
         <v>0.1626761509465729</v>
       </c>
-      <c r="M72" t="n">
+      <c r="M72">
         <v>0.7747065145906099</v>
       </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_02_02_01_dogs-sitting_angry.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
+      <c r="N72" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73">
         <v>1.269867989306187</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>0.1304318482786391</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>-0.6578851938584538</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>-0.9950425648412182</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>-0.1018198471282891</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>1.223614545304757</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>0.1537622306750267</v>
       </c>
-      <c r="H73" t="n">
+      <c r="H73">
         <v>-0.7396363189807827</v>
       </c>
-      <c r="I73" t="n">
+      <c r="I73">
         <v>-0.8516562628163582</v>
       </c>
-      <c r="J73" t="n">
+      <c r="J73">
         <v>-1.027587186800152</v>
       </c>
-      <c r="K73" t="n">
+      <c r="K73">
         <v>-0.865946036817574</v>
       </c>
-      <c r="L73" t="n">
+      <c r="L73">
         <v>-0.4639862295167608</v>
       </c>
-      <c r="M73" t="n">
+      <c r="M73">
         <v>0.05487228561067202</v>
       </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_02_02_01_dogs-sitting_fear.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
+      <c r="N73" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74">
         <v>1.038337937476314</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>0.116184226979566</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>-0.9445798673889175</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>-0.8444303364374585</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>-0.1551464935909332</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>-0.5232496780031531</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>-1.597976454188144</v>
       </c>
-      <c r="H74" t="n">
+      <c r="H74">
         <v>-2.156181424649443</v>
       </c>
-      <c r="I74" t="n">
+      <c r="I74">
         <v>-1.252253915635442</v>
       </c>
-      <c r="J74" t="n">
+      <c r="J74">
         <v>-0.06367077206652901</v>
       </c>
-      <c r="K74" t="n">
+      <c r="K74">
         <v>-0.5738628424529234</v>
       </c>
-      <c r="L74" t="n">
+      <c r="L74">
         <v>-0.8814161229689672</v>
       </c>
-      <c r="M74" t="n">
+      <c r="M74">
         <v>0.07297775290523557</v>
       </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_02_02_01_dogs-sitting_happy.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
+      <c r="N74" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75">
         <v>0.2455497637824258</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>0.1477742474742288</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>-0.460271335049075</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>-0.4938048186828271</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>-0.06289944567201991</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>-0.0130657858178938</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>-0.4151387837172393</v>
       </c>
-      <c r="H75" t="n">
+      <c r="H75">
         <v>-0.5993630729209083</v>
       </c>
-      <c r="I75" t="n">
+      <c r="I75">
         <v>-0.4243159131816664</v>
       </c>
-      <c r="J75" t="n">
+      <c r="J75">
         <v>-0.7293167519524851</v>
       </c>
-      <c r="K75" t="n">
+      <c r="K75">
         <v>-1.51169173334774</v>
       </c>
-      <c r="L75" t="n">
+      <c r="L75">
         <v>-1.666774703788096</v>
       </c>
-      <c r="M75" t="n">
+      <c r="M75">
         <v>0.613124452901511</v>
       </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_02_02_01_dogs-sitting_sad.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
+      <c r="N75" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76">
         <v>1.7327164261556</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>0.9290391592814382</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>-1.144430832332276</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>-1.502223852704432</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>-0.3536610449120331</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>-0.6357415601012545</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>-1.604519855930995</v>
       </c>
-      <c r="H76" t="n">
+      <c r="H76">
         <v>-0.9210010383782818</v>
       </c>
-      <c r="I76" t="n">
+      <c r="I76">
         <v>0.3364512812962799</v>
       </c>
-      <c r="J76" t="n">
+      <c r="J76">
         <v>-0.1122955446745622</v>
       </c>
-      <c r="K76" t="n">
+      <c r="K76">
         <v>-0.5183147057578648</v>
       </c>
-      <c r="L76" t="n">
+      <c r="L76">
         <v>0.16520876405004</v>
       </c>
-      <c r="M76" t="n">
+      <c r="M76">
         <v>0.2655345847098555</v>
       </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_02_02_01_kids-talking_angry.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
+      <c r="N76" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77">
         <v>0.6412356195009563</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>0.03304336933083725</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>-0.1411073727318679</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>-0.9216954409851257</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>-0.6018403488769265</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>0.5410177416407421</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>-0.7207098009050205</v>
       </c>
-      <c r="H77" t="n">
+      <c r="H77">
         <v>-1.227448581936494</v>
       </c>
-      <c r="I77" t="n">
+      <c r="I77">
         <v>0.07195801474048127</v>
       </c>
-      <c r="J77" t="n">
+      <c r="J77">
         <v>0.3754060155337082</v>
       </c>
-      <c r="K77" t="n">
+      <c r="K77">
         <v>-1.083712834304994</v>
       </c>
-      <c r="L77" t="n">
+      <c r="L77">
         <v>-2.11486145534041</v>
       </c>
-      <c r="M77" t="n">
+      <c r="M77">
         <v>-0.937105476763912</v>
       </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_02_02_01_kids-talking_fear.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
+      <c r="N77" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78">
         <v>1.016800087154734</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>0.004917446910475699</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>-0.4292253239134765</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>-0.4530920111853881</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>-0.1562393285540709</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>-0.06876734922288189</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>-0.5545067121803566</v>
       </c>
-      <c r="H78" t="n">
+      <c r="H78">
         <v>-1.044510948698581</v>
       </c>
-      <c r="I78" t="n">
+      <c r="I78">
         <v>-0.6050578501652358</v>
       </c>
-      <c r="J78" t="n">
+      <c r="J78">
         <v>0.4325407920489095</v>
       </c>
-      <c r="K78" t="n">
+      <c r="K78">
         <v>-0.1971219500877794</v>
       </c>
-      <c r="L78" t="n">
+      <c r="L78">
         <v>-1.149351222573436</v>
       </c>
-      <c r="M78" t="n">
+      <c r="M78">
         <v>-0.7312798950630474</v>
       </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_02_02_01_kids-talking_happy.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
+      <c r="N78" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79">
         <v>0.03906327292110341</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>-0.02745440562155311</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>0.1350533832076701</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>-0.2504577752742493</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>0.1227689641021624</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>0.4888971909427955</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>-0.2545126971619631</v>
       </c>
-      <c r="H79" t="n">
+      <c r="H79">
         <v>0.004514493671900197</v>
       </c>
-      <c r="I79" t="n">
+      <c r="I79">
         <v>0.3068740243260629</v>
       </c>
-      <c r="J79" t="n">
+      <c r="J79">
         <v>-0.6538703917682154</v>
       </c>
-      <c r="K79" t="n">
+      <c r="K79">
         <v>-0.5884853687747931</v>
       </c>
-      <c r="L79" t="n">
+      <c r="L79">
         <v>-0.2046014173102593</v>
       </c>
-      <c r="M79" t="n">
+      <c r="M79">
         <v>-0.7404647770322961</v>
       </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_02_02_01_kids-talking_sad.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
+      <c r="N79" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80">
         <v>1.892458659381402</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>1.926969196198555</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>-1.456902319669176</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>-2.332110045281293</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>-0.9245829393446895</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>0.02121656638311313</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>-1.580673926711856</v>
       </c>
-      <c r="H80" t="n">
+      <c r="H80">
         <v>-2.12985435769767</v>
       </c>
-      <c r="I80" t="n">
+      <c r="I80">
         <v>-0.3684946762752081</v>
       </c>
-      <c r="J80" t="n">
+      <c r="J80">
         <v>-0.3555614082883715</v>
       </c>
-      <c r="K80" t="n">
+      <c r="K80">
         <v>-1.25030726314092</v>
       </c>
-      <c r="L80" t="n">
+      <c r="L80">
         <v>0.2635345839392237</v>
       </c>
-      <c r="M80" t="n">
+      <c r="M80">
         <v>2.132946280257557</v>
       </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_02_02_02_dogs-sitting_angry.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
+      <c r="N80" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81">
         <v>1.034061799766139</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>0.5394451816404389</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>-1.206460033119414</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>-1.29675833192691</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>0.1953456887415589</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>1.069463919265405</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>-0.2744190541618489</v>
       </c>
-      <c r="H81" t="n">
+      <c r="H81">
         <v>-1.134782425370117</v>
       </c>
-      <c r="I81" t="n">
+      <c r="I81">
         <v>-1.396328743015502</v>
       </c>
-      <c r="J81" t="n">
+      <c r="J81">
         <v>-1.961078110202078</v>
       </c>
-      <c r="K81" t="n">
+      <c r="K81">
         <v>-1.548407778385685</v>
       </c>
-      <c r="L81" t="n">
+      <c r="L81">
         <v>-0.4040346031343106</v>
       </c>
-      <c r="M81" t="n">
+      <c r="M81">
         <v>0.9858969212742933</v>
       </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_02_02_02_dogs-sitting_fear.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
+      <c r="N81" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82">
         <v>0.903796092603022</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>0.5396780411423601</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>-0.7287282350368255</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>-0.8332380257685077</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>-0.3530487523160692</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>-0.3814398824385765</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>-0.7847597688218212</v>
       </c>
-      <c r="H82" t="n">
+      <c r="H82">
         <v>-1.426364102826185</v>
       </c>
-      <c r="I82" t="n">
+      <c r="I82">
         <v>-1.26954772452576</v>
       </c>
-      <c r="J82" t="n">
+      <c r="J82">
         <v>-0.2975044147512674</v>
       </c>
-      <c r="K82" t="n">
+      <c r="K82">
         <v>-0.8855332668668457</v>
       </c>
-      <c r="L82" t="n">
+      <c r="L82">
         <v>-1.586079424917087</v>
       </c>
-      <c r="M82" t="n">
+      <c r="M82">
         <v>-0.04300369655696173</v>
       </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_02_02_02_dogs-sitting_happy.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
+      <c r="N82" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83">
         <v>0.3741756383422664</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>0.08777286387942396</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>-0.3817954835576525</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>-0.6300196556907646</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>0.159444669270276</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>0.4008935091624291</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>-0.7187963508097552</v>
       </c>
-      <c r="H83" t="n">
+      <c r="H83">
         <v>-0.8450117462023617</v>
       </c>
-      <c r="I83" t="n">
+      <c r="I83">
         <v>-0.5290893011161962</v>
       </c>
-      <c r="J83" t="n">
+      <c r="J83">
         <v>-1.193409635070723</v>
       </c>
-      <c r="K83" t="n">
+      <c r="K83">
         <v>-1.612232027116347</v>
       </c>
-      <c r="L83" t="n">
+      <c r="L83">
         <v>-1.976546277205435</v>
       </c>
-      <c r="M83" t="n">
+      <c r="M83">
         <v>-1.050170559674004</v>
       </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_02_02_02_dogs-sitting_sad.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
+      <c r="N83" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84">
         <v>1.530616755017438</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>3.805945067463009</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>-2.577884596346985</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>-2.685602164735278</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>0.5077888851181716</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>-0.3992432381116044</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>-1.369734514283665</v>
       </c>
-      <c r="H84" t="n">
+      <c r="H84">
         <v>-1.336727037619328</v>
       </c>
-      <c r="I84" t="n">
+      <c r="I84">
         <v>-1.119177061269226</v>
       </c>
-      <c r="J84" t="n">
+      <c r="J84">
         <v>-0.7555022870977506</v>
       </c>
-      <c r="K84" t="n">
+      <c r="K84">
         <v>-1.064263203237067</v>
       </c>
-      <c r="L84" t="n">
+      <c r="L84">
         <v>-0.4053337348701887</v>
       </c>
-      <c r="M84" t="n">
+      <c r="M84">
         <v>1.189714114924251</v>
       </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_02_02_02_kids-talking_angry.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
+      <c r="N84" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85">
         <v>1.009344600261862</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>0.9155533390948415</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>-0.1384410879629362</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>-1.237732652648832</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>-0.4811363812304648</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>0.9446323681199936</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>-0.1513440802073729</v>
       </c>
-      <c r="H85" t="n">
+      <c r="H85">
         <v>-0.7026236991809469</v>
       </c>
-      <c r="I85" t="n">
+      <c r="I85">
         <v>-0.502259147382446</v>
       </c>
-      <c r="J85" t="n">
+      <c r="J85">
         <v>-0.8602825829575875</v>
       </c>
-      <c r="K85" t="n">
+      <c r="K85">
         <v>-1.38195787364395</v>
       </c>
-      <c r="L85" t="n">
+      <c r="L85">
         <v>-1.940204552829248</v>
       </c>
-      <c r="M85" t="n">
+      <c r="M85">
         <v>-0.8467654645156245</v>
       </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_02_02_02_kids-talking_fear.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
+      <c r="N85" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86">
         <v>0.6777479770900556</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>0.6342177469900311</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>-0.8576089025344455</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>-0.5794881435501781</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>0.7684557949055478</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>-0.0545118226150748</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>-1.363699979436893</v>
       </c>
-      <c r="H86" t="n">
+      <c r="H86">
         <v>-1.361857629337171</v>
       </c>
-      <c r="I86" t="n">
+      <c r="I86">
         <v>-0.2024609038712903</v>
       </c>
-      <c r="J86" t="n">
+      <c r="J86">
         <v>0.06546753909052108</v>
       </c>
-      <c r="K86" t="n">
+      <c r="K86">
         <v>-1.018088056234173</v>
       </c>
-      <c r="L86" t="n">
+      <c r="L86">
         <v>-0.9111041721641769</v>
       </c>
-      <c r="M86" t="n">
+      <c r="M86">
         <v>0.7243076665493451</v>
       </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_02_02_02_kids-talking_happy.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
+      <c r="N86" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87">
         <v>-0.2643024148175454</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>-0.1165701125870811</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>0.1316695236653892</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>0.1773390855245803</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>0.3942594446680068</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>-0.3724650346718482</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>-0.8703697137114605</v>
       </c>
-      <c r="H87" t="n">
+      <c r="H87">
         <v>-0.2044971337027099</v>
       </c>
-      <c r="I87" t="n">
+      <c r="I87">
         <v>0.2901777196841875</v>
       </c>
-      <c r="J87" t="n">
+      <c r="J87">
         <v>-0.4768798540602959</v>
       </c>
-      <c r="K87" t="n">
+      <c r="K87">
         <v>-0.6499346048908801</v>
       </c>
-      <c r="L87" t="n">
+      <c r="L87">
         <v>-0.7409402814511743</v>
       </c>
-      <c r="M87" t="n">
+      <c r="M87">
         <v>-1.187187091120441</v>
       </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>output\cleaned_01_02_02_02_kids-talking_sad.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
+      <c r="N87" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88">
         <v>-1.898202997216551</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>-0.6252980160503</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>1.27998481297301</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>1.398590247247412</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>0.7334401708624677</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>1.154665242494045</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>1.495747792548676</v>
       </c>
-      <c r="H88" t="n">
+      <c r="H88">
         <v>1.299833829707153</v>
       </c>
-      <c r="I88" t="n">
+      <c r="I88">
         <v>1.312008683370171</v>
       </c>
-      <c r="J88" t="n">
+      <c r="J88">
         <v>1.749326665519382</v>
       </c>
-      <c r="K88" t="n">
+      <c r="K88">
         <v>1.256719078725274</v>
       </c>
-      <c r="L88" t="n">
+      <c r="L88">
         <v>0.8593018389563406</v>
       </c>
-      <c r="M88" t="n">
+      <c r="M88">
         <v>0.6314303630372768</v>
       </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-01-02-01-01-01-01_calm.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
+      <c r="N88" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89">
         <v>-1.533637847191682</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>-0.8556517744613801</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>2.006229918669953</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>1.4380471194059</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>-0.005631730468426028</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>1.49288486603796</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>1.961956972995746</v>
       </c>
-      <c r="H89" t="n">
+      <c r="H89">
         <v>1.132247815375043</v>
       </c>
-      <c r="I89" t="n">
+      <c r="I89">
         <v>0.9114212987722448</v>
       </c>
-      <c r="J89" t="n">
+      <c r="J89">
         <v>2.04657487324584</v>
       </c>
-      <c r="K89" t="n">
+      <c r="K89">
         <v>1.769605130376925</v>
       </c>
-      <c r="L89" t="n">
+      <c r="L89">
         <v>1.082016571395734</v>
       </c>
-      <c r="M89" t="n">
+      <c r="M89">
         <v>0.9082024413668749</v>
       </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-01-02-01-01-02-01_calm.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
+      <c r="N89" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90">
         <v>-1.65057021723754</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>0.1625076187020397</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>1.078546653127508</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>1.256898488283577</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>0.6726969608775398</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>0.7285215779101323</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>1.690841351769119</v>
       </c>
-      <c r="H90" t="n">
+      <c r="H90">
         <v>1.95791626999771</v>
       </c>
-      <c r="I90" t="n">
+      <c r="I90">
         <v>1.579031694394725</v>
       </c>
-      <c r="J90" t="n">
+      <c r="J90">
         <v>1.808951959020796</v>
       </c>
-      <c r="K90" t="n">
+      <c r="K90">
         <v>1.571254843852512</v>
       </c>
-      <c r="L90" t="n">
+      <c r="L90">
         <v>1.035885383032765</v>
       </c>
-      <c r="M90" t="n">
+      <c r="M90">
         <v>0.8044998260089311</v>
       </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-01-02-01-02-01-01_calm.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
+      <c r="N90" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91">
         <v>-1.559544794738875</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>-0.07508356326072278</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>1.273980074288888</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>1.189670708951309</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>0.5337353487177113</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>0.9776208901264263</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>1.686051737538775</v>
       </c>
-      <c r="H91" t="n">
+      <c r="H91">
         <v>1.702084872511445</v>
       </c>
-      <c r="I91" t="n">
+      <c r="I91">
         <v>1.342002511450486</v>
       </c>
-      <c r="J91" t="n">
+      <c r="J91">
         <v>1.67074036190268</v>
       </c>
-      <c r="K91" t="n">
+      <c r="K91">
         <v>1.554003333929708</v>
       </c>
-      <c r="L91" t="n">
+      <c r="L91">
         <v>1.114976266310302</v>
       </c>
-      <c r="M91" t="n">
+      <c r="M91">
         <v>0.5084868877608985</v>
       </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-01-02-01-02-02-01_calm.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
+      <c r="N91" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92">
         <v>-2.136787271843879</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>0.7818750838985269</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>1.501739261075465</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>1.220098504595022</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>0.9108248379557378</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>1.510855799102182</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>1.607729277310644</v>
       </c>
-      <c r="H92" t="n">
+      <c r="H92">
         <v>1.148555302985863</v>
       </c>
-      <c r="I92" t="n">
+      <c r="I92">
         <v>1.288733281578486</v>
       </c>
-      <c r="J92" t="n">
+      <c r="J92">
         <v>2.535150268009093</v>
       </c>
-      <c r="K92" t="n">
+      <c r="K92">
         <v>1.950359006249577</v>
       </c>
-      <c r="L92" t="n">
+      <c r="L92">
         <v>1.048196483878472</v>
       </c>
-      <c r="M92" t="n">
+      <c r="M92">
         <v>1.015373546290971</v>
       </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-01-02-02-01-01-01_calm.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
+      <c r="N92" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93">
         <v>-1.675572983023057</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>0.3970991696615477</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>1.49405665661581</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>0.8761623231707146</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>0.2961793777773493</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>1.473318463475017</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>1.710120444104426</v>
       </c>
-      <c r="H93" t="n">
+      <c r="H93">
         <v>0.9643634028290247</v>
       </c>
-      <c r="I93" t="n">
+      <c r="I93">
         <v>0.8579336036431838</v>
       </c>
-      <c r="J93" t="n">
+      <c r="J93">
         <v>2.112310026609468</v>
       </c>
-      <c r="K93" t="n">
+      <c r="K93">
         <v>1.687147058980871</v>
       </c>
-      <c r="L93" t="n">
+      <c r="L93">
         <v>1.061092535718598</v>
       </c>
-      <c r="M93" t="n">
+      <c r="M93">
         <v>1.465593257679808</v>
       </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-01-02-02-01-02-01_calm.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
+      <c r="N93" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94">
         <v>-1.895743248311637</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>1.817406296678471</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>0.9090197338671822</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>1.160625661079988</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>0.5101781818717956</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>0.6621430118312402</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>2.168933252114565</v>
       </c>
-      <c r="H94" t="n">
+      <c r="H94">
         <v>1.719797429471074</v>
       </c>
-      <c r="I94" t="n">
+      <c r="I94">
         <v>0.7145648049869124</v>
       </c>
-      <c r="J94" t="n">
+      <c r="J94">
         <v>1.765776900948892</v>
       </c>
-      <c r="K94" t="n">
+      <c r="K94">
         <v>1.668326860452343</v>
       </c>
-      <c r="L94" t="n">
+      <c r="L94">
         <v>0.7988303942003764</v>
       </c>
-      <c r="M94" t="n">
+      <c r="M94">
         <v>1.111206558327923</v>
       </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-01-02-02-02-01-01_calm.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
+      <c r="N94" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95">
         <v>-1.68942796346436</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>1.13419714400468</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>0.5594563932148044</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>0.8125060757747073</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>1.030392759953095</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>1.26833083000333</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>1.878834631693533</v>
       </c>
-      <c r="H95" t="n">
+      <c r="H95">
         <v>1.368570157327348</v>
       </c>
-      <c r="I95" t="n">
+      <c r="I95">
         <v>0.5815216764160529</v>
       </c>
-      <c r="J95" t="n">
+      <c r="J95">
         <v>1.168885553383433</v>
       </c>
-      <c r="K95" t="n">
+      <c r="K95">
         <v>1.32420309904952</v>
       </c>
-      <c r="L95" t="n">
+      <c r="L95">
         <v>1.374216523447197</v>
       </c>
-      <c r="M95" t="n">
+      <c r="M95">
         <v>1.856673690019739</v>
       </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-01-02-02-02-02-01_calm.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
+      <c r="N95" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96">
         <v>-0.4423165430149673</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>0.370524391987859</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>-0.326443743485241</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>-0.2761974957445723</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>0.3913431469992229</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>0.2694892740816638</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>-0.3862374869663637</v>
       </c>
-      <c r="H96" t="n">
+      <c r="H96">
         <v>-0.4219117585465566</v>
       </c>
-      <c r="I96" t="n">
+      <c r="I96">
         <v>0.04614565416948509</v>
       </c>
-      <c r="J96" t="n">
+      <c r="J96">
         <v>-0.4252585153303368</v>
       </c>
-      <c r="K96" t="n">
+      <c r="K96">
         <v>-0.9692587844597896</v>
       </c>
-      <c r="L96" t="n">
+      <c r="L96">
         <v>-0.5803164040353521</v>
       </c>
-      <c r="M96" t="n">
+      <c r="M96">
         <v>0.1007866298328397</v>
       </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-01-01-01-01-01_neutral.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
+      <c r="N96" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97">
         <v>-0.1739818795798317</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>0.3412711040756625</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>-0.4094250149744293</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>-0.49035033235673</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>0.6352163507746951</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>0.4063538774239653</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>-0.8749225324048034</v>
       </c>
-      <c r="H97" t="n">
+      <c r="H97">
         <v>-0.4991162614153831</v>
       </c>
-      <c r="I97" t="n">
+      <c r="I97">
         <v>0.2375844220256831</v>
       </c>
-      <c r="J97" t="n">
+      <c r="J97">
         <v>-0.5013924572396158</v>
       </c>
-      <c r="K97" t="n">
+      <c r="K97">
         <v>-0.3781007415820215</v>
       </c>
-      <c r="L97" t="n">
+      <c r="L97">
         <v>0.6347323282885843</v>
       </c>
-      <c r="M97" t="n">
+      <c r="M97">
         <v>0.9123312252910108</v>
       </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-01-01-01-02-01_neutral.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
+      <c r="N97" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98">
         <v>-0.2764125652172708</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>-0.1088763595276062</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>-0.1289407379876653</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>0.5021504986828027</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>0.8390761769193725</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>-0.1979608900855764</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>-0.1853843271281147</v>
       </c>
-      <c r="H98" t="n">
+      <c r="H98">
         <v>0.2531543550381819</v>
       </c>
-      <c r="I98" t="n">
+      <c r="I98">
         <v>0.0798778229046469</v>
       </c>
-      <c r="J98" t="n">
+      <c r="J98">
         <v>-0.4398562529715541</v>
       </c>
-      <c r="K98" t="n">
+      <c r="K98">
         <v>-0.2452641302310186</v>
       </c>
-      <c r="L98" t="n">
+      <c r="L98">
         <v>-0.08884987726800221</v>
       </c>
-      <c r="M98" t="n">
+      <c r="M98">
         <v>-0.4187925956270747</v>
       </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-01-01-02-01-01_neutral.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
+      <c r="N98" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99">
         <v>-0.3111413039022356</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>0.4096034745282136</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>-0.6467230117537447</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>-0.0003414638536416746</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>0.8872213537732275</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>-0.09249946026174041</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>-0.1951903475344684</v>
       </c>
-      <c r="H99" t="n">
+      <c r="H99">
         <v>-0.09424241648836094</v>
       </c>
-      <c r="I99" t="n">
+      <c r="I99">
         <v>-0.5427490449079148</v>
       </c>
-      <c r="J99" t="n">
+      <c r="J99">
         <v>-0.7179531658805084</v>
       </c>
-      <c r="K99" t="n">
+      <c r="K99">
         <v>-0.4528434845371246</v>
       </c>
-      <c r="L99" t="n">
+      <c r="L99">
         <v>0.07220828665350119</v>
       </c>
-      <c r="M99" t="n">
+      <c r="M99">
         <v>0.8641695223353151</v>
       </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-01-01-02-02-01_neutral.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
+      <c r="N99" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100">
         <v>-0.4675466917878877</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>0.931677607670153</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>0.3363957558398551</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>-0.0632329299196958</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>1.098980262766849</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>1.239766351124385</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>-0.3536007702351942</v>
       </c>
-      <c r="H100" t="n">
+      <c r="H100">
         <v>-0.5003602958913281</v>
       </c>
-      <c r="I100" t="n">
+      <c r="I100">
         <v>0.5259043876263962</v>
       </c>
-      <c r="J100" t="n">
+      <c r="J100">
         <v>0.4717518313371831</v>
       </c>
-      <c r="K100" t="n">
+      <c r="K100">
         <v>-0.2974984498829696</v>
       </c>
-      <c r="L100" t="n">
+      <c r="L100">
         <v>-0.08825032579735599</v>
       </c>
-      <c r="M100" t="n">
+      <c r="M100">
         <v>1.058226331034336</v>
       </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-02-01-01-01-01_calm.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
+      <c r="N100" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101">
         <v>-0.351355322771569</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>0.6698965800292004</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>-0.05145696834844642</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>-0.1818437321132105</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>1.100735237947347</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>0.941095987411201</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>-0.3761071395988259</v>
       </c>
-      <c r="H101" t="n">
+      <c r="H101">
         <v>-0.08420035459663616</v>
       </c>
-      <c r="I101" t="n">
+      <c r="I101">
         <v>0.4804986677404855</v>
       </c>
-      <c r="J101" t="n">
+      <c r="J101">
         <v>-0.5299408661961685</v>
       </c>
-      <c r="K101" t="n">
+      <c r="K101">
         <v>-0.7659781186803449</v>
       </c>
-      <c r="L101" t="n">
+      <c r="L101">
         <v>0.196075827588045</v>
       </c>
-      <c r="M101" t="n">
+      <c r="M101">
         <v>1.102923696898563</v>
       </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-02-01-01-02-01_calm.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
+      <c r="N101" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102">
         <v>-0.5147988828908587</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>0.7617771805968525</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>1.223423500167942</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>1.017383321252555</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>0.4266654821858517</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>-0.2952218124245619</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>0.1530690870964569</v>
       </c>
-      <c r="H102" t="n">
+      <c r="H102">
         <v>0.690616801425364</v>
       </c>
-      <c r="I102" t="n">
+      <c r="I102">
         <v>1.05202635259224</v>
       </c>
-      <c r="J102" t="n">
+      <c r="J102">
         <v>0.441933087608937</v>
       </c>
-      <c r="K102" t="n">
+      <c r="K102">
         <v>-0.4308104852854941</v>
       </c>
-      <c r="L102" t="n">
+      <c r="L102">
         <v>-0.6758360331033743</v>
       </c>
-      <c r="M102" t="n">
+      <c r="M102">
         <v>0.08479997640625091</v>
       </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-02-01-02-01-01_calm.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
+      <c r="N102" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103">
         <v>-0.1783168693573345</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>0.4830049209123994</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>0.3274386147366371</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>0.1774630069783302</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E103">
         <v>0.321368665892673</v>
       </c>
-      <c r="F103" t="n">
+      <c r="F103">
         <v>-0.05086925425245656</v>
       </c>
-      <c r="G103" t="n">
+      <c r="G103">
         <v>-0.4692848013335625</v>
       </c>
-      <c r="H103" t="n">
+      <c r="H103">
         <v>-0.3401025122184024</v>
       </c>
-      <c r="I103" t="n">
+      <c r="I103">
         <v>0.07380293082137476</v>
       </c>
-      <c r="J103" t="n">
+      <c r="J103">
         <v>-0.3610927436528402</v>
       </c>
-      <c r="K103" t="n">
+      <c r="K103">
         <v>-0.6897789943843804</v>
       </c>
-      <c r="L103" t="n">
+      <c r="L103">
         <v>-0.362521824985902</v>
       </c>
-      <c r="M103" t="n">
+      <c r="M103">
         <v>0.602126555904549</v>
       </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-02-01-02-02-01_calm.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
+      <c r="N103" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104">
         <v>-0.75288625881336</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>1.770302324851433</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>0.5212865018086238</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>-0.4172948067764211</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E104">
         <v>0.8560540225865173</v>
       </c>
-      <c r="F104" t="n">
+      <c r="F104">
         <v>0.8900160757207402</v>
       </c>
-      <c r="G104" t="n">
+      <c r="G104">
         <v>-0.6493515513868295</v>
       </c>
-      <c r="H104" t="n">
+      <c r="H104">
         <v>-0.4346592207142821</v>
       </c>
-      <c r="I104" t="n">
+      <c r="I104">
         <v>-0.2043102459095796</v>
       </c>
-      <c r="J104" t="n">
+      <c r="J104">
         <v>-1.138739414218022</v>
       </c>
-      <c r="K104" t="n">
+      <c r="K104">
         <v>-0.1125368152262511</v>
       </c>
-      <c r="L104" t="n">
+      <c r="L104">
         <v>1.520990658341606</v>
       </c>
-      <c r="M104" t="n">
+      <c r="M104">
         <v>1.114570382576769</v>
       </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-02-02-01-01-01_calm.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
+      <c r="N104" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105">
         <v>-0.6594392074988451</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>0.5203419389531622</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>0.3124752145173406</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>-0.05221267160960994</v>
       </c>
-      <c r="E105" t="n">
+      <c r="E105">
         <v>0.3966501535355504</v>
       </c>
-      <c r="F105" t="n">
+      <c r="F105">
         <v>0.8111833570302599</v>
       </c>
-      <c r="G105" t="n">
+      <c r="G105">
         <v>0.0001305630429980714</v>
       </c>
-      <c r="H105" t="n">
+      <c r="H105">
         <v>-0.6909745672659063</v>
       </c>
-      <c r="I105" t="n">
+      <c r="I105">
         <v>-0.8140336775302287</v>
       </c>
-      <c r="J105" t="n">
+      <c r="J105">
         <v>-0.418200968814244</v>
       </c>
-      <c r="K105" t="n">
+      <c r="K105">
         <v>-0.1267688254019359</v>
       </c>
-      <c r="L105" t="n">
+      <c r="L105">
         <v>-0.04302633440059215</v>
       </c>
-      <c r="M105" t="n">
+      <c r="M105">
         <v>0.2986665855168574</v>
       </c>
-      <c r="N105" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-02-02-01-02-01_calm.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
+      <c r="N105" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106">
         <v>-0.4975986974407517</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>0.9931212178575103</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>1.773003949670001</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>0.7665274659733449</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E106">
         <v>0.007213140175962788</v>
       </c>
-      <c r="F106" t="n">
+      <c r="F106">
         <v>0.8941909096981573</v>
       </c>
-      <c r="G106" t="n">
+      <c r="G106">
         <v>0.9957062893331677</v>
       </c>
-      <c r="H106" t="n">
+      <c r="H106">
         <v>0.1317154335292043</v>
       </c>
-      <c r="I106" t="n">
+      <c r="I106">
         <v>-0.4912445327687942</v>
       </c>
-      <c r="J106" t="n">
+      <c r="J106">
         <v>-0.1756403878279764</v>
       </c>
-      <c r="K106" t="n">
+      <c r="K106">
         <v>0.1135106106747184</v>
       </c>
-      <c r="L106" t="n">
+      <c r="L106">
         <v>0.1745526546381692</v>
       </c>
-      <c r="M106" t="n">
+      <c r="M106">
         <v>0.6747257021862427</v>
       </c>
-      <c r="N106" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-02-02-02-01-01_calm.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
+      <c r="N106" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107">
         <v>-0.4615591627107536</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>1.41228084064581</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>1.194473231709262</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>0.1797537567772211</v>
       </c>
-      <c r="E107" t="n">
+      <c r="E107">
         <v>0.09235033571614312</v>
       </c>
-      <c r="F107" t="n">
+      <c r="F107">
         <v>0.5625121137934463</v>
       </c>
-      <c r="G107" t="n">
+      <c r="G107">
         <v>0.2572520155619583</v>
       </c>
-      <c r="H107" t="n">
+      <c r="H107">
         <v>0.002587767894686299</v>
       </c>
-      <c r="I107" t="n">
+      <c r="I107">
         <v>0.007968230864209617</v>
       </c>
-      <c r="J107" t="n">
+      <c r="J107">
         <v>-0.2429301721256273</v>
       </c>
-      <c r="K107" t="n">
+      <c r="K107">
         <v>-0.4529889119069088</v>
       </c>
-      <c r="L107" t="n">
+      <c r="L107">
         <v>-0.2330098020712291</v>
       </c>
-      <c r="M107" t="n">
+      <c r="M107">
         <v>1.043147360061178</v>
       </c>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-02-02-02-02-01_calm.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
+      <c r="N107" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108">
         <v>0.07819588505328444</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>0.7475151620705112</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>-0.5972930086026886</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>-0.6408456714195</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E108">
         <v>0.3432547371249737</v>
       </c>
-      <c r="F108" t="n">
+      <c r="F108">
         <v>0.05176210867873208</v>
       </c>
-      <c r="G108" t="n">
+      <c r="G108">
         <v>-0.8984796737372392</v>
       </c>
-      <c r="H108" t="n">
+      <c r="H108">
         <v>-0.997613500743496</v>
       </c>
-      <c r="I108" t="n">
+      <c r="I108">
         <v>-0.1624036879408419</v>
       </c>
-      <c r="J108" t="n">
+      <c r="J108">
         <v>-0.06088661677498375</v>
       </c>
-      <c r="K108" t="n">
+      <c r="K108">
         <v>-0.8399798745608467</v>
       </c>
-      <c r="L108" t="n">
+      <c r="L108">
         <v>-0.4649562810153821</v>
       </c>
-      <c r="M108" t="n">
+      <c r="M108">
         <v>0.8939960249293035</v>
       </c>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-03-01-01-01-01_happy.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
+      <c r="N108" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109">
         <v>0.06328223617356955</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>1.411882726013492</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>-0.3570588849372752</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>-0.9293463796680974</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E109">
         <v>0.6535823044257719</v>
       </c>
-      <c r="F109" t="n">
+      <c r="F109">
         <v>1.146377627949415</v>
       </c>
-      <c r="G109" t="n">
+      <c r="G109">
         <v>-0.635160140815796</v>
       </c>
-      <c r="H109" t="n">
+      <c r="H109">
         <v>-1.164501186872039</v>
       </c>
-      <c r="I109" t="n">
+      <c r="I109">
         <v>-0.2134799444423386</v>
       </c>
-      <c r="J109" t="n">
+      <c r="J109">
         <v>-0.2560335602397776</v>
       </c>
-      <c r="K109" t="n">
+      <c r="K109">
         <v>-1.150664223123763</v>
       </c>
-      <c r="L109" t="n">
+      <c r="L109">
         <v>-0.6826359201455887</v>
       </c>
-      <c r="M109" t="n">
+      <c r="M109">
         <v>0.8244667621569848</v>
       </c>
-      <c r="N109" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-03-01-01-02-01_happy.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
+      <c r="N109" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="A110">
         <v>-0.0526971316456697</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>0.523024830956491</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>-0.9933612788875775</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>-0.3683397380474741</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E110">
         <v>0.416319488335323</v>
       </c>
-      <c r="F110" t="n">
+      <c r="F110">
         <v>-0.4385517506209285</v>
       </c>
-      <c r="G110" t="n">
+      <c r="G110">
         <v>-0.4625880550656387</v>
       </c>
-      <c r="H110" t="n">
+      <c r="H110">
         <v>-0.7571776086245691</v>
       </c>
-      <c r="I110" t="n">
+      <c r="I110">
         <v>-0.8631460482160307</v>
       </c>
-      <c r="J110" t="n">
+      <c r="J110">
         <v>-0.1230167846613321</v>
       </c>
-      <c r="K110" t="n">
+      <c r="K110">
         <v>-0.5131810894953753</v>
       </c>
-      <c r="L110" t="n">
+      <c r="L110">
         <v>-0.6523046216005243</v>
       </c>
-      <c r="M110" t="n">
+      <c r="M110">
         <v>0.6483617141396574</v>
       </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-03-01-02-01-01_happy.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
+      <c r="N110" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111">
         <v>0.4040403874172685</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>-0.3165112933075817</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>-0.112118056816099</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>-0.2280590897108295</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E111">
         <v>-0.8752408547317491</v>
       </c>
-      <c r="F111" t="n">
+      <c r="F111">
         <v>-0.663429161245097</v>
       </c>
-      <c r="G111" t="n">
+      <c r="G111">
         <v>-0.4488877418534436</v>
       </c>
-      <c r="H111" t="n">
+      <c r="H111">
         <v>-1.061323284869322</v>
       </c>
-      <c r="I111" t="n">
+      <c r="I111">
         <v>-0.8823263771867629</v>
       </c>
-      <c r="J111" t="n">
+      <c r="J111">
         <v>-0.05326264137787577</v>
       </c>
-      <c r="K111" t="n">
+      <c r="K111">
         <v>-0.3768602431068635</v>
       </c>
-      <c r="L111" t="n">
+      <c r="L111">
         <v>-0.2836635138332475</v>
       </c>
-      <c r="M111" t="n">
+      <c r="M111">
         <v>0.8523802156453864</v>
       </c>
-      <c r="N111" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-03-01-02-02-01_happy.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
+      <c r="N111" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112">
         <v>1.016800087154734</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>0.004917446910475699</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>-0.4292253239134765</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>-0.4530920111853881</v>
       </c>
-      <c r="E112" t="n">
+      <c r="E112">
         <v>-0.1562393285540709</v>
       </c>
-      <c r="F112" t="n">
+      <c r="F112">
         <v>-0.06876734922288189</v>
       </c>
-      <c r="G112" t="n">
+      <c r="G112">
         <v>-0.5545067121803566</v>
       </c>
-      <c r="H112" t="n">
+      <c r="H112">
         <v>-1.044510948698581</v>
       </c>
-      <c r="I112" t="n">
+      <c r="I112">
         <v>-0.6050578501652358</v>
       </c>
-      <c r="J112" t="n">
+      <c r="J112">
         <v>0.4325407920489095</v>
       </c>
-      <c r="K112" t="n">
+      <c r="K112">
         <v>-0.1971219500877794</v>
       </c>
-      <c r="L112" t="n">
+      <c r="L112">
         <v>-1.149351222573436</v>
       </c>
-      <c r="M112" t="n">
+      <c r="M112">
         <v>-0.7312798950630474</v>
       </c>
-      <c r="N112" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-03-02-01-01-01_happy.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
+      <c r="N112" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113">
         <v>0.6777479770900556</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>0.6342177469900311</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>-0.8576089025344455</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>-0.5794881435501781</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E113">
         <v>0.7684557949055478</v>
       </c>
-      <c r="F113" t="n">
+      <c r="F113">
         <v>-0.0545118226150748</v>
       </c>
-      <c r="G113" t="n">
+      <c r="G113">
         <v>-1.363699979436893</v>
       </c>
-      <c r="H113" t="n">
+      <c r="H113">
         <v>-1.361857629337171</v>
       </c>
-      <c r="I113" t="n">
+      <c r="I113">
         <v>-0.2024609038712903</v>
       </c>
-      <c r="J113" t="n">
+      <c r="J113">
         <v>0.06546753909052108</v>
       </c>
-      <c r="K113" t="n">
+      <c r="K113">
         <v>-1.018088056234173</v>
       </c>
-      <c r="L113" t="n">
+      <c r="L113">
         <v>-0.9111041721641769</v>
       </c>
-      <c r="M113" t="n">
+      <c r="M113">
         <v>0.7243076665493451</v>
       </c>
-      <c r="N113" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-03-02-01-02-01_happy.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
+      <c r="N113" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114">
         <v>1.038337937476314</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>0.116184226979566</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>-0.9445798673889175</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>-0.8444303364374585</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E114">
         <v>-0.1551464935909332</v>
       </c>
-      <c r="F114" t="n">
+      <c r="F114">
         <v>-0.5232496780031531</v>
       </c>
-      <c r="G114" t="n">
+      <c r="G114">
         <v>-1.597976454188144</v>
       </c>
-      <c r="H114" t="n">
+      <c r="H114">
         <v>-2.156181424649443</v>
       </c>
-      <c r="I114" t="n">
+      <c r="I114">
         <v>-1.252253915635442</v>
       </c>
-      <c r="J114" t="n">
+      <c r="J114">
         <v>-0.06367077206652901</v>
       </c>
-      <c r="K114" t="n">
+      <c r="K114">
         <v>-0.5738628424529234</v>
       </c>
-      <c r="L114" t="n">
+      <c r="L114">
         <v>-0.8814161229689672</v>
       </c>
-      <c r="M114" t="n">
+      <c r="M114">
         <v>0.07297775290523557</v>
       </c>
-      <c r="N114" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-03-02-02-01-01_happy.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
+      <c r="N114" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115">
         <v>0.903796092603022</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>0.5396780411423601</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>-0.7287282350368255</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>-0.8332380257685077</v>
       </c>
-      <c r="E115" t="n">
+      <c r="E115">
         <v>-0.3530487523160692</v>
       </c>
-      <c r="F115" t="n">
+      <c r="F115">
         <v>-0.3814398824385765</v>
       </c>
-      <c r="G115" t="n">
+      <c r="G115">
         <v>-0.7847597688218212</v>
       </c>
-      <c r="H115" t="n">
+      <c r="H115">
         <v>-1.426364102826185</v>
       </c>
-      <c r="I115" t="n">
+      <c r="I115">
         <v>-1.26954772452576</v>
       </c>
-      <c r="J115" t="n">
+      <c r="J115">
         <v>-0.2975044147512674</v>
       </c>
-      <c r="K115" t="n">
+      <c r="K115">
         <v>-0.8855332668668457</v>
       </c>
-      <c r="L115" t="n">
+      <c r="L115">
         <v>-1.586079424917087</v>
       </c>
-      <c r="M115" t="n">
+      <c r="M115">
         <v>-0.04300369655696173</v>
       </c>
-      <c r="N115" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-03-02-02-02-01_happy.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
+      <c r="N115" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="A116">
         <v>-0.5428552684425089</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>0.1288631764726794</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>1.855278945959706</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>0.8757210190277263</v>
       </c>
-      <c r="E116" t="n">
+      <c r="E116">
         <v>-0.1342449481840619</v>
       </c>
-      <c r="F116" t="n">
+      <c r="F116">
         <v>0.5342506015643211</v>
       </c>
-      <c r="G116" t="n">
+      <c r="G116">
         <v>0.4494002739848379</v>
       </c>
-      <c r="H116" t="n">
+      <c r="H116">
         <v>0.1386652799765507</v>
       </c>
-      <c r="I116" t="n">
+      <c r="I116">
         <v>-0.2199214828362841</v>
       </c>
-      <c r="J116" t="n">
+      <c r="J116">
         <v>-0.6826536326983557</v>
       </c>
-      <c r="K116" t="n">
+      <c r="K116">
         <v>-0.5617848434644445</v>
       </c>
-      <c r="L116" t="n">
+      <c r="L116">
         <v>-1.270951444164063</v>
       </c>
-      <c r="M116" t="n">
+      <c r="M116">
         <v>-1.86624946898806</v>
       </c>
-      <c r="N116" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-04-01-01-01-01_sad.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
+      <c r="N116" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="A117">
         <v>-0.5084074146243369</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>0.1892132233539566</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>0.7670972243410621</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>0.372455524087672</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E117">
         <v>0.5993977987563768</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F117">
         <v>0.09784920962090521</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G117">
         <v>-0.8743457463886068</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H117">
         <v>-0.2877442544477438</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I117">
         <v>0.2792087809508607</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J117">
         <v>-0.9069582895201824</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K117">
         <v>-1.069326966187364</v>
       </c>
-      <c r="L117" t="n">
+      <c r="L117">
         <v>-1.309452382230394</v>
       </c>
-      <c r="M117" t="n">
+      <c r="M117">
         <v>-1.712709919573284</v>
       </c>
-      <c r="N117" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-04-01-01-02-01_sad.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
+      <c r="N117" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
+      <c r="A118">
         <v>-0.6197856208161127</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>0.2425393012269837</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>2.048720739477979</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>1.15570833903062</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E118">
         <v>0.03971604870875959</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F118">
         <v>0.7910883390531167</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G118">
         <v>1.102226356184187</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H118">
         <v>0.4261745892460133</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I118">
         <v>-1.282150372653049</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J118">
         <v>-2.118039880018661</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K118">
         <v>-0.3915863450295706</v>
       </c>
-      <c r="L118" t="n">
+      <c r="L118">
         <v>0.3642863609707752</v>
       </c>
-      <c r="M118" t="n">
+      <c r="M118">
         <v>-0.6792329213487612</v>
       </c>
-      <c r="N118" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-04-01-02-01-01_sad.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
+      <c r="N118" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="A119">
         <v>-0.1128773831295273</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>0.2479013294352281</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>0.5006542401467032</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>0.2420076446196957</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E119">
         <v>0.01120518622944525</v>
       </c>
-      <c r="F119" t="n">
+      <c r="F119">
         <v>-0.4393207815201147</v>
       </c>
-      <c r="G119" t="n">
+      <c r="G119">
         <v>-0.336734057112997</v>
       </c>
-      <c r="H119" t="n">
+      <c r="H119">
         <v>0.2634850871170381</v>
       </c>
-      <c r="I119" t="n">
+      <c r="I119">
         <v>-0.01015057648469768</v>
       </c>
-      <c r="J119" t="n">
+      <c r="J119">
         <v>-1.440127961384999</v>
       </c>
-      <c r="K119" t="n">
+      <c r="K119">
         <v>-1.025341961395225</v>
       </c>
-      <c r="L119" t="n">
+      <c r="L119">
         <v>-0.4523056414352618</v>
       </c>
-      <c r="M119" t="n">
+      <c r="M119">
         <v>-0.5851259973139555</v>
       </c>
-      <c r="N119" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-04-01-02-02-01_sad.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
+      <c r="N119" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
+      <c r="A120">
         <v>0.03906327292110341</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>-0.02745440562155311</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>0.1350533832076701</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>-0.2504577752742493</v>
       </c>
-      <c r="E120" t="n">
+      <c r="E120">
         <v>0.1227689641021624</v>
       </c>
-      <c r="F120" t="n">
+      <c r="F120">
         <v>0.4888971909427955</v>
       </c>
-      <c r="G120" t="n">
+      <c r="G120">
         <v>-0.2545126971619631</v>
       </c>
-      <c r="H120" t="n">
+      <c r="H120">
         <v>0.004514493671900197</v>
       </c>
-      <c r="I120" t="n">
+      <c r="I120">
         <v>0.3068740243260629</v>
       </c>
-      <c r="J120" t="n">
+      <c r="J120">
         <v>-0.6538703917682154</v>
       </c>
-      <c r="K120" t="n">
+      <c r="K120">
         <v>-0.5884853687747931</v>
       </c>
-      <c r="L120" t="n">
+      <c r="L120">
         <v>-0.2046014173102593</v>
       </c>
-      <c r="M120" t="n">
+      <c r="M120">
         <v>-0.7404647770322961</v>
       </c>
-      <c r="N120" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-04-02-01-01-01_sad.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
+      <c r="N120" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
+      <c r="A121">
         <v>-0.2643024148175454</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>-0.1165701125870811</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>0.1316695236653892</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>0.1773390855245803</v>
       </c>
-      <c r="E121" t="n">
+      <c r="E121">
         <v>0.3942594446680068</v>
       </c>
-      <c r="F121" t="n">
+      <c r="F121">
         <v>-0.3724650346718482</v>
       </c>
-      <c r="G121" t="n">
+      <c r="G121">
         <v>-0.8703697137114605</v>
       </c>
-      <c r="H121" t="n">
+      <c r="H121">
         <v>-0.2044971337027099</v>
       </c>
-      <c r="I121" t="n">
+      <c r="I121">
         <v>0.2901777196841875</v>
       </c>
-      <c r="J121" t="n">
+      <c r="J121">
         <v>-0.4768798540602959</v>
       </c>
-      <c r="K121" t="n">
+      <c r="K121">
         <v>-0.6499346048908801</v>
       </c>
-      <c r="L121" t="n">
+      <c r="L121">
         <v>-0.7409402814511743</v>
       </c>
-      <c r="M121" t="n">
+      <c r="M121">
         <v>-1.187187091120441</v>
       </c>
-      <c r="N121" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-04-02-01-02-01_sad.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
+      <c r="N121" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
+      <c r="A122">
         <v>0.2455497637824258</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>0.1477742474742288</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>-0.460271335049075</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>-0.4938048186828271</v>
       </c>
-      <c r="E122" t="n">
+      <c r="E122">
         <v>-0.06289944567201991</v>
       </c>
-      <c r="F122" t="n">
+      <c r="F122">
         <v>-0.0130657858178938</v>
       </c>
-      <c r="G122" t="n">
+      <c r="G122">
         <v>-0.4151387837172393</v>
       </c>
-      <c r="H122" t="n">
+      <c r="H122">
         <v>-0.5993630729209083</v>
       </c>
-      <c r="I122" t="n">
+      <c r="I122">
         <v>-0.4243159131816664</v>
       </c>
-      <c r="J122" t="n">
+      <c r="J122">
         <v>-0.7293167519524851</v>
       </c>
-      <c r="K122" t="n">
+      <c r="K122">
         <v>-1.51169173334774</v>
       </c>
-      <c r="L122" t="n">
+      <c r="L122">
         <v>-1.666774703788096</v>
       </c>
-      <c r="M122" t="n">
+      <c r="M122">
         <v>0.613124452901511</v>
       </c>
-      <c r="N122" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-04-02-02-01-01_sad.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
+      <c r="N122" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
+      <c r="A123">
         <v>0.3741756383422664</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>0.08777286387942396</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>-0.3817954835576525</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>-0.6300196556907646</v>
       </c>
-      <c r="E123" t="n">
+      <c r="E123">
         <v>0.159444669270276</v>
       </c>
-      <c r="F123" t="n">
+      <c r="F123">
         <v>0.4008935091624291</v>
       </c>
-      <c r="G123" t="n">
+      <c r="G123">
         <v>-0.7187963508097552</v>
       </c>
-      <c r="H123" t="n">
+      <c r="H123">
         <v>-0.8450117462023617</v>
       </c>
-      <c r="I123" t="n">
+      <c r="I123">
         <v>-0.5290893011161962</v>
       </c>
-      <c r="J123" t="n">
+      <c r="J123">
         <v>-1.193409635070723</v>
       </c>
-      <c r="K123" t="n">
+      <c r="K123">
         <v>-1.612232027116347</v>
       </c>
-      <c r="L123" t="n">
+      <c r="L123">
         <v>-1.976546277205435</v>
       </c>
-      <c r="M123" t="n">
+      <c r="M123">
         <v>-1.050170559674004</v>
       </c>
-      <c r="N123" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-04-02-02-02-01_sad.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
+      <c r="N123" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
+      <c r="A124">
         <v>0.8302015824093294</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>0.4496359039003714</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>-0.83646086888625</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>-0.5140573034318698</v>
       </c>
-      <c r="E124" t="n">
+      <c r="E124">
         <v>0.6604536507633206</v>
       </c>
-      <c r="F124" t="n">
+      <c r="F124">
         <v>-0.4954767948998323</v>
       </c>
-      <c r="G124" t="n">
+      <c r="G124">
         <v>-1.029302297554645</v>
       </c>
-      <c r="H124" t="n">
+      <c r="H124">
         <v>0.3718674113852013</v>
       </c>
-      <c r="I124" t="n">
+      <c r="I124">
         <v>1.808769068269698</v>
       </c>
-      <c r="J124" t="n">
+      <c r="J124">
         <v>1.804491528259497</v>
       </c>
-      <c r="K124" t="n">
+      <c r="K124">
         <v>0.8460896950067078</v>
       </c>
-      <c r="L124" t="n">
+      <c r="L124">
         <v>0.2709949095444407</v>
       </c>
-      <c r="M124" t="n">
+      <c r="M124">
         <v>-0.108838724956673</v>
       </c>
-      <c r="N124" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-05-01-01-01-01_angry.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
+      <c r="N124" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="A125">
         <v>0.7106335760300655</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>0.7245785011311636</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>-1.170839076779271</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>-0.3943666812567525</v>
       </c>
-      <c r="E125" t="n">
+      <c r="E125">
         <v>0.9851048544061396</v>
       </c>
-      <c r="F125" t="n">
+      <c r="F125">
         <v>-1.631543494432179</v>
       </c>
-      <c r="G125" t="n">
+      <c r="G125">
         <v>-1.819462021155293</v>
       </c>
-      <c r="H125" t="n">
+      <c r="H125">
         <v>0.409118259751851</v>
       </c>
-      <c r="I125" t="n">
+      <c r="I125">
         <v>1.412292557160628</v>
       </c>
-      <c r="J125" t="n">
+      <c r="J125">
         <v>0.6847532818323365</v>
       </c>
-      <c r="K125" t="n">
+      <c r="K125">
         <v>0.668121219957768</v>
       </c>
-      <c r="L125" t="n">
+      <c r="L125">
         <v>0.6906101111549414</v>
       </c>
-      <c r="M125" t="n">
+      <c r="M125">
         <v>-0.5736836030979218</v>
       </c>
-      <c r="N125" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-05-01-01-02-01_angry.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
+      <c r="N125" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="A126">
         <v>0.8542827783223685</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>0.7482030991474315</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>-1.413227047811064</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>-0.2032733925382913</v>
       </c>
-      <c r="E126" t="n">
+      <c r="E126">
         <v>1.226832209867899</v>
       </c>
-      <c r="F126" t="n">
+      <c r="F126">
         <v>-0.9567056898985961</v>
       </c>
-      <c r="G126" t="n">
+      <c r="G126">
         <v>-1.160557445071097</v>
       </c>
-      <c r="H126" t="n">
+      <c r="H126">
         <v>0.2267873671468987</v>
       </c>
-      <c r="I126" t="n">
+      <c r="I126">
         <v>1.235525926590879</v>
       </c>
-      <c r="J126" t="n">
+      <c r="J126">
         <v>0.3196869178676559</v>
       </c>
-      <c r="K126" t="n">
+      <c r="K126">
         <v>-0.3668176251116052</v>
       </c>
-      <c r="L126" t="n">
+      <c r="L126">
         <v>0.2509417249671554</v>
       </c>
-      <c r="M126" t="n">
+      <c r="M126">
         <v>0.1774985272017913</v>
       </c>
-      <c r="N126" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-05-01-02-01-01_angry.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
+      <c r="N126" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
+      <c r="A127">
         <v>1.143265823334239</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>-0.1940027826067016</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>-0.5473417391771472</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>0.02370836178584624</v>
       </c>
-      <c r="E127" t="n">
+      <c r="E127">
         <v>0.2798028102175875</v>
       </c>
-      <c r="F127" t="n">
+      <c r="F127">
         <v>-1.216285889465635</v>
       </c>
-      <c r="G127" t="n">
+      <c r="G127">
         <v>-1.199281742008356</v>
       </c>
-      <c r="H127" t="n">
+      <c r="H127">
         <v>0.02973544794956962</v>
       </c>
-      <c r="I127" t="n">
+      <c r="I127">
         <v>1.299424447225648</v>
       </c>
-      <c r="J127" t="n">
+      <c r="J127">
         <v>1.169638825124505</v>
       </c>
-      <c r="K127" t="n">
+      <c r="K127">
         <v>0.01639433357103925</v>
       </c>
-      <c r="L127" t="n">
+      <c r="L127">
         <v>-0.7651776932868168</v>
       </c>
-      <c r="M127" t="n">
+      <c r="M127">
         <v>-1.19031527984979</v>
       </c>
-      <c r="N127" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-05-01-02-02-01_angry.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
+      <c r="N127" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
+      <c r="A128">
         <v>1.7327164261556</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>0.9290391592814382</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>-1.144430832332276</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>-1.502223852704432</v>
       </c>
-      <c r="E128" t="n">
+      <c r="E128">
         <v>-0.3536610449120331</v>
       </c>
-      <c r="F128" t="n">
+      <c r="F128">
         <v>-0.6357415601012545</v>
       </c>
-      <c r="G128" t="n">
+      <c r="G128">
         <v>-1.604519855930995</v>
       </c>
-      <c r="H128" t="n">
+      <c r="H128">
         <v>-0.9210010383782818</v>
       </c>
-      <c r="I128" t="n">
+      <c r="I128">
         <v>0.3364512812962799</v>
       </c>
-      <c r="J128" t="n">
+      <c r="J128">
         <v>-0.1122955446745622</v>
       </c>
-      <c r="K128" t="n">
+      <c r="K128">
         <v>-0.5183147057578648</v>
       </c>
-      <c r="L128" t="n">
+      <c r="L128">
         <v>0.16520876405004</v>
       </c>
-      <c r="M128" t="n">
+      <c r="M128">
         <v>0.2655345847098555</v>
       </c>
-      <c r="N128" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-05-02-01-01-01_angry.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
+      <c r="N128" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
+      <c r="A129">
         <v>1.530616755017438</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>3.805945067463009</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>-2.577884596346985</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>-2.685602164735278</v>
       </c>
-      <c r="E129" t="n">
+      <c r="E129">
         <v>0.5077888851181716</v>
       </c>
-      <c r="F129" t="n">
+      <c r="F129">
         <v>-0.3992432381116044</v>
       </c>
-      <c r="G129" t="n">
+      <c r="G129">
         <v>-1.369734514283665</v>
       </c>
-      <c r="H129" t="n">
+      <c r="H129">
         <v>-1.336727037619328</v>
       </c>
-      <c r="I129" t="n">
+      <c r="I129">
         <v>-1.119177061269226</v>
       </c>
-      <c r="J129" t="n">
+      <c r="J129">
         <v>-0.7555022870977506</v>
       </c>
-      <c r="K129" t="n">
+      <c r="K129">
         <v>-1.064263203237067</v>
       </c>
-      <c r="L129" t="n">
+      <c r="L129">
         <v>-0.4053337348701887</v>
       </c>
-      <c r="M129" t="n">
+      <c r="M129">
         <v>1.189714114924251</v>
       </c>
-      <c r="N129" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-05-02-01-02-01_angry.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
+      <c r="N129" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
+      <c r="A130">
         <v>1.644318614708433</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>1.639313847288885</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>-1.784966614222829</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>-2.045946186237457</v>
       </c>
-      <c r="E130" t="n">
+      <c r="E130">
         <v>-1.139861965919535</v>
       </c>
-      <c r="F130" t="n">
+      <c r="F130">
         <v>-0.6637142087283338</v>
       </c>
-      <c r="G130" t="n">
+      <c r="G130">
         <v>-0.7733363256480038</v>
       </c>
-      <c r="H130" t="n">
+      <c r="H130">
         <v>-1.192744458920221</v>
       </c>
-      <c r="I130" t="n">
+      <c r="I130">
         <v>-1.133064653347684</v>
       </c>
-      <c r="J130" t="n">
+      <c r="J130">
         <v>-1.57803844648338</v>
       </c>
-      <c r="K130" t="n">
+      <c r="K130">
         <v>-1.263469192835848</v>
       </c>
-      <c r="L130" t="n">
+      <c r="L130">
         <v>0.1626761509465729</v>
       </c>
-      <c r="M130" t="n">
+      <c r="M130">
         <v>0.7747065145906099</v>
       </c>
-      <c r="N130" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-05-02-02-01-01_angry.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
+      <c r="N130" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
+      <c r="A131">
         <v>1.892458659381402</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>1.926969196198555</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>-1.456902319669176</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>-2.332110045281293</v>
       </c>
-      <c r="E131" t="n">
+      <c r="E131">
         <v>-0.9245829393446895</v>
       </c>
-      <c r="F131" t="n">
+      <c r="F131">
         <v>0.02121656638311313</v>
       </c>
-      <c r="G131" t="n">
+      <c r="G131">
         <v>-1.580673926711856</v>
       </c>
-      <c r="H131" t="n">
+      <c r="H131">
         <v>-2.12985435769767</v>
       </c>
-      <c r="I131" t="n">
+      <c r="I131">
         <v>-0.3684946762752081</v>
       </c>
-      <c r="J131" t="n">
+      <c r="J131">
         <v>-0.3555614082883715</v>
       </c>
-      <c r="K131" t="n">
+      <c r="K131">
         <v>-1.25030726314092</v>
       </c>
-      <c r="L131" t="n">
+      <c r="L131">
         <v>0.2635345839392237</v>
       </c>
-      <c r="M131" t="n">
+      <c r="M131">
         <v>2.132946280257557</v>
       </c>
-      <c r="N131" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-05-02-02-02-01_angry.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
+      <c r="N131" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
+      <c r="A132">
         <v>-0.01840443327772619</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>0.354858956785951</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>-0.1924256141529274</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>-0.3846126720509989</v>
       </c>
-      <c r="E132" t="n">
+      <c r="E132">
         <v>0.400572158738572</v>
       </c>
-      <c r="F132" t="n">
+      <c r="F132">
         <v>0.03305350325684506</v>
       </c>
-      <c r="G132" t="n">
+      <c r="G132">
         <v>-1.128890945073242</v>
       </c>
-      <c r="H132" t="n">
+      <c r="H132">
         <v>-0.8954660489844072</v>
       </c>
-      <c r="I132" t="n">
+      <c r="I132">
         <v>0.1193398360844987</v>
       </c>
-      <c r="J132" t="n">
+      <c r="J132">
         <v>0.21511962286828</v>
       </c>
-      <c r="K132" t="n">
+      <c r="K132">
         <v>-0.2944538089652974</v>
       </c>
-      <c r="L132" t="n">
+      <c r="L132">
         <v>-0.5873822061339773</v>
       </c>
-      <c r="M132" t="n">
+      <c r="M132">
         <v>-0.6202587259358945</v>
       </c>
-      <c r="N132" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-06-01-01-01-01_fear.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
+      <c r="N132" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
+      <c r="A133">
         <v>-0.2795899080794917</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>0.4449417818441416</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>-0.3205653388746711</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>-0.4647024981598057</v>
       </c>
-      <c r="E133" t="n">
+      <c r="E133">
         <v>0.5181961647128535</v>
       </c>
-      <c r="F133" t="n">
+      <c r="F133">
         <v>0.04703941277486191</v>
       </c>
-      <c r="G133" t="n">
+      <c r="G133">
         <v>-1.118593037550839</v>
       </c>
-      <c r="H133" t="n">
+      <c r="H133">
         <v>-0.5917711767063777</v>
       </c>
-      <c r="I133" t="n">
+      <c r="I133">
         <v>0.4309902623869012</v>
       </c>
-      <c r="J133" t="n">
+      <c r="J133">
         <v>-0.2022479911602731</v>
       </c>
-      <c r="K133" t="n">
+      <c r="K133">
         <v>-0.9264224451246218</v>
       </c>
-      <c r="L133" t="n">
+      <c r="L133">
         <v>-0.8302301668962191</v>
       </c>
-      <c r="M133" t="n">
+      <c r="M133">
         <v>0.2300460806839986</v>
       </c>
-      <c r="N133" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-06-01-01-02-01_fear.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
+      <c r="N133" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
+      <c r="A134">
         <v>0.1890337222632301</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>0.1044104249052152</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>0.3623938983216134</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>-0.1510169812722429</v>
       </c>
-      <c r="E134" t="n">
+      <c r="E134">
         <v>-0.1490515274869218</v>
       </c>
-      <c r="F134" t="n">
+      <c r="F134">
         <v>0.5644145319790062</v>
       </c>
-      <c r="G134" t="n">
+      <c r="G134">
         <v>-0.11528416084653</v>
       </c>
-      <c r="H134" t="n">
+      <c r="H134">
         <v>-0.745412316863883</v>
       </c>
-      <c r="I134" t="n">
+      <c r="I134">
         <v>-0.0954246124394012</v>
       </c>
-      <c r="J134" t="n">
+      <c r="J134">
         <v>0.8956516684300264</v>
       </c>
-      <c r="K134" t="n">
+      <c r="K134">
         <v>-0.03211818956356695</v>
       </c>
-      <c r="L134" t="n">
+      <c r="L134">
         <v>-1.40723622415803</v>
       </c>
-      <c r="M134" t="n">
+      <c r="M134">
         <v>-1.055161036881276</v>
       </c>
-      <c r="N134" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-06-01-02-01-01_fear.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
+      <c r="N134" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
+      <c r="A135">
         <v>0.261805641061315</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>0.3700937271025833</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>0.2320800250113311</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>-0.3710860124840451</v>
       </c>
-      <c r="E135" t="n">
+      <c r="E135">
         <v>0.186761165795563</v>
       </c>
-      <c r="F135" t="n">
+      <c r="F135">
         <v>0.7506006458317083</v>
       </c>
-      <c r="G135" t="n">
+      <c r="G135">
         <v>-0.4955182982267757</v>
       </c>
-      <c r="H135" t="n">
+      <c r="H135">
         <v>-1.043487127925051</v>
       </c>
-      <c r="I135" t="n">
+      <c r="I135">
         <v>-0.8999661189071414</v>
       </c>
-      <c r="J135" t="n">
+      <c r="J135">
         <v>-1.059349686303076</v>
       </c>
-      <c r="K135" t="n">
+      <c r="K135">
         <v>-0.9888993077687974</v>
       </c>
-      <c r="L135" t="n">
+      <c r="L135">
         <v>-0.8924333731021131</v>
       </c>
-      <c r="M135" t="n">
+      <c r="M135">
         <v>0.1786404574508125</v>
       </c>
-      <c r="N135" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-06-01-02-02-01_fear.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
+      <c r="N135" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
+      <c r="A136">
         <v>0.6412356195009563</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>0.03304336933083725</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>-0.1411073727318679</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>-0.9216954409851257</v>
       </c>
-      <c r="E136" t="n">
+      <c r="E136">
         <v>-0.6018403488769265</v>
       </c>
-      <c r="F136" t="n">
+      <c r="F136">
         <v>0.5410177416407421</v>
       </c>
-      <c r="G136" t="n">
+      <c r="G136">
         <v>-0.7207098009050205</v>
       </c>
-      <c r="H136" t="n">
+      <c r="H136">
         <v>-1.227448581936494</v>
       </c>
-      <c r="I136" t="n">
+      <c r="I136">
         <v>0.07195801474048127</v>
       </c>
-      <c r="J136" t="n">
+      <c r="J136">
         <v>0.3754060155337082</v>
       </c>
-      <c r="K136" t="n">
+      <c r="K136">
         <v>-1.083712834304994</v>
       </c>
-      <c r="L136" t="n">
+      <c r="L136">
         <v>-2.11486145534041</v>
       </c>
-      <c r="M136" t="n">
+      <c r="M136">
         <v>-0.937105476763912</v>
       </c>
-      <c r="N136" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-06-02-01-01-01_fear.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
+      <c r="N136" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
+      <c r="A137">
         <v>1.009344600261862</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>0.9155533390948415</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>-0.1384410879629362</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>-1.237732652648832</v>
       </c>
-      <c r="E137" t="n">
+      <c r="E137">
         <v>-0.4811363812304648</v>
       </c>
-      <c r="F137" t="n">
+      <c r="F137">
         <v>0.9446323681199936</v>
       </c>
-      <c r="G137" t="n">
+      <c r="G137">
         <v>-0.1513440802073729</v>
       </c>
-      <c r="H137" t="n">
+      <c r="H137">
         <v>-0.7026236991809469</v>
       </c>
-      <c r="I137" t="n">
+      <c r="I137">
         <v>-0.502259147382446</v>
       </c>
-      <c r="J137" t="n">
+      <c r="J137">
         <v>-0.8602825829575875</v>
       </c>
-      <c r="K137" t="n">
+      <c r="K137">
         <v>-1.38195787364395</v>
       </c>
-      <c r="L137" t="n">
+      <c r="L137">
         <v>-1.940204552829248</v>
       </c>
-      <c r="M137" t="n">
+      <c r="M137">
         <v>-0.8467654645156245</v>
       </c>
-      <c r="N137" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-06-02-01-02-01_fear.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
+      <c r="N137" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
+      <c r="A138">
         <v>1.269867989306187</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>0.1304318482786391</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>-0.6578851938584538</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>-0.9950425648412182</v>
       </c>
-      <c r="E138" t="n">
+      <c r="E138">
         <v>-0.1018198471282891</v>
       </c>
-      <c r="F138" t="n">
+      <c r="F138">
         <v>1.223614545304757</v>
       </c>
-      <c r="G138" t="n">
+      <c r="G138">
         <v>0.1537622306750267</v>
       </c>
-      <c r="H138" t="n">
+      <c r="H138">
         <v>-0.7396363189807827</v>
       </c>
-      <c r="I138" t="n">
+      <c r="I138">
         <v>-0.8516562628163582</v>
       </c>
-      <c r="J138" t="n">
+      <c r="J138">
         <v>-1.027587186800152</v>
       </c>
-      <c r="K138" t="n">
+      <c r="K138">
         <v>-0.865946036817574</v>
       </c>
-      <c r="L138" t="n">
+      <c r="L138">
         <v>-0.4639862295167608</v>
       </c>
-      <c r="M138" t="n">
+      <c r="M138">
         <v>0.05487228561067202</v>
       </c>
-      <c r="N138" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-06-02-02-01-01_fear.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
+      <c r="N138" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
+      <c r="A139">
         <v>1.034061799766139</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>0.5394451816404389</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>-1.206460033119414</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>-1.29675833192691</v>
       </c>
-      <c r="E139" t="n">
+      <c r="E139">
         <v>0.1953456887415589</v>
       </c>
-      <c r="F139" t="n">
+      <c r="F139">
         <v>1.069463919265405</v>
       </c>
-      <c r="G139" t="n">
+      <c r="G139">
         <v>-0.2744190541618489</v>
       </c>
-      <c r="H139" t="n">
+      <c r="H139">
         <v>-1.134782425370117</v>
       </c>
-      <c r="I139" t="n">
+      <c r="I139">
         <v>-1.396328743015502</v>
       </c>
-      <c r="J139" t="n">
+      <c r="J139">
         <v>-1.961078110202078</v>
       </c>
-      <c r="K139" t="n">
+      <c r="K139">
         <v>-1.548407778385685</v>
       </c>
-      <c r="L139" t="n">
+      <c r="L139">
         <v>-0.4040346031343106</v>
       </c>
-      <c r="M139" t="n">
+      <c r="M139">
         <v>0.9858969212742933</v>
       </c>
-      <c r="N139" t="inlineStr">
-        <is>
-          <t>output\cleaned_03-02-06-02-02-02-01_fear.wav</t>
-        </is>
+      <c r="N139" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/scaled_output_data.xlsx
+++ b/scaled_output_data.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="161">
+  <si>
+    <t>Audio File</t>
+  </si>
   <si>
     <t>MFCC_1</t>
   </si>
@@ -55,7 +58,7 @@
     <t>MFCC_13</t>
   </si>
   <si>
-    <t>Audio File</t>
+    <t>Emotion</t>
   </si>
   <si>
     <t>output\cleaned_01_01_01_01_dogs-sitting_disgust.wav</t>
@@ -470,6 +473,30 @@
   </si>
   <si>
     <t>output\cleaned_03-02-06-02-02-02-01_fear.wav</t>
+  </si>
+  <si>
+    <t>disgust</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>ps</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>angry</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>calm</t>
   </si>
 </sst>
 </file>
@@ -827,13 +854,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N139"/>
+  <dimension ref="A1:O139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -876,6077 +903,6494 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2">
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
         <v>-1.402855846892461</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>1.196844487585031</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1.128202993308587</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1.23522504794948</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.276046587188842</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.1629774160760051</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2.025443251703428</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1.539621114648255</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>-0.3307373648459484</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.4622092747823311</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1.852550217861224</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1.867827715203199</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.1384621867369506</v>
       </c>
-      <c r="N2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3">
+      <c r="O2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
         <v>-0.6625235908456274</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>-0.5148080602873482</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1.537641359106641</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2.05141493123905</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2.032518043597147</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1.861664300843478</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1.911824633150278</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>2.106366334652431</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1.688295304626511</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1.63001530541786</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1.995256319386314</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>2.276236507673817</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1.156576637233561</v>
       </c>
-      <c r="N3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4">
+      <c r="O3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
         <v>-1.313647481972548</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>-1.633120826000694</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.9277380481369082</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1.558147635620344</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.3222331620348527</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.1080813855762057</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1.324072081232635</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1.728677676727971</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1.207834835624485</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1.275418631947304</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1.39972657320513</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1.085798094738833</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.2682595563806355</v>
       </c>
-      <c r="N4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5">
+      <c r="O4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
         <v>-1.116777953931418</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>-0.9028821915018278</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.8850168127767931</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1.33316425147345</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.4971316613595479</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-0.06939485188970443</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.881489409126338</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1.417484117143812</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.789693661398808</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.7127228712761019</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1.348356387199712</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1.469033569315161</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.4752885722541024</v>
       </c>
-      <c r="N5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6">
+      <c r="O5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
         <v>-1.92346658466409</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>-0.9268448113757181</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.7393304048295867</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1.267543388041448</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.8628957145317316</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.6745467253072635</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1.063102250829001</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1.423096720206812</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1.233841141648568</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.9987903039183971</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1.116378204329217</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>1.136656627365953</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.5792513520189362</v>
       </c>
-      <c r="N6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7">
+      <c r="O6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
         <v>0.05261998038481196</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>-1.352961424767156</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-0.1729369937651472</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.7820506204874722</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.1580068548763404</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-0.8948445788989172</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.1375674693129125</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1.279979863831267</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1.891694536321645</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>1.893828966720578</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1.021287221641354</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0.5608893324950487</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.3154681104219429</v>
       </c>
-      <c r="N7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8">
+      <c r="O7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
         <v>-1.133058575829525</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>0.114810856691343</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>1.246362257109239</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.4854620449497435</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-0.5464979097926524</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.7578353434213785</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1.387795221290418</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.7818739073579027</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.2811457569455882</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.7009960233488353</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>0.8501193579538658</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>0.7857950683139605</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>0.3578862415344864</v>
       </c>
-      <c r="N8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9">
+      <c r="O8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
         <v>-0.3822386138754414</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>-0.6171873693664087</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1.25289679721997</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1.323031055120755</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1.256915037563606</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1.280642292955093</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.8476908443653381</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.9576940117906437</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.690691456351046</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.3770940916051506</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>1.063437222075035</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1.326533024877584</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>-0.03886539284682042</v>
       </c>
-      <c r="N9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10">
+      <c r="O9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
         <v>-0.9889385569985979</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>-0.5373084226437986</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.7923944476904602</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.7794096714731295</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.4109619281206388</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.3485237493144118</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.3865584371610684</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.7350348275634709</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.8089832229980702</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>0.7708270672199573</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>1.174409596163563</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>1.407905931524743</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>-0.05471171963188077</v>
       </c>
-      <c r="N10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11">
+      <c r="O10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
         <v>-1.44554432768354</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>-1.64712870216741</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.9923862620812125</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1.304620358838165</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.4903710247533744</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.9346732935368757</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1.258390803984083</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1.392507192219293</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1.475243834393533</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>1.604269932715553</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>1.344527251433246</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>1.136105847698877</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>0.7684191793244075</v>
       </c>
-      <c r="N11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12">
+      <c r="O11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
         <v>-0.8916400391415593</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>-2.211656502728373</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>1.100741365957287</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1.196151425936417</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-0.5756501544146949</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.1400919856581925</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.9457273228060042</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.8138041736134615</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.7564061243436353</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>1.383458253993319</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>1.46155894871676</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>0.94384677672618</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>-0.1280693958014254</v>
       </c>
-      <c r="N12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13">
+      <c r="O12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
         <v>-1.377030489711336</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>-0.8910664496784749</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1.301519934775451</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1.212103539328909</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.5175508286511507</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1.099213385993755</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>1.253313932021631</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1.153676712756157</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.9242332061652105</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>1.071703074920292</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>1.186214956470183</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>0.7301709816657524</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>-0.3938484249162456</v>
       </c>
-      <c r="N13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14">
+      <c r="O13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
         <v>0.3126437956303413</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>-1.610185416994148</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.08734236660554227</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1.174259990106757</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-0.284398128010064</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-1.093594185463008</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.486828645152479</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1.202143903935523</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1.238360309707192</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>0.7781493405672467</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>0.526677596613829</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>0.5530440099351057</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>-0.2467872147734302</v>
       </c>
-      <c r="N14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15">
+      <c r="O14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
         <v>-1.222717025309799</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>-0.6858809224334972</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.6669230119434089</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1.060517675846222</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-0.5034671271363564</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-0.2823047480095781</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1.775288971483947</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1.362255623087901</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-0.1580988247393251</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.765317562968611</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>1.868272783304209</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>2.120895232704092</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>0.9349887230500118</v>
       </c>
-      <c r="N15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16">
+      <c r="O15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
         <v>-0.7525284649949453</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>0.1249177102344604</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.6520891248826667</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1.001320881824316</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1.318001956076801</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1.257089539500276</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>1.28785475338774</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1.26206321647286</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.5163970770634808</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>0.3874174546383463</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>1.296592674129479</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>1.791010260688709</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>0.8472599076150726</v>
       </c>
-      <c r="N16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17">
+      <c r="O16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
         <v>-1.132084841624643</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>-0.2590175311232645</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.6091272466100199</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>1.43207474603876</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1.22215274675788</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>-0.005985558080897894</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.7478147087687794</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1.601363711611427</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>1.329017991719081</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.6378331061381083</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>0.7004202473669294</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>1.067234676484206</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>0.5619665106313392</v>
       </c>
-      <c r="N17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18">
+      <c r="O17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18">
         <v>-1.296118259964198</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>-1.739332301399022</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>1.045994481361746</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1.794562578539204</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.4793545592133538</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.3228867313168569</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1.697897174315497</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>1.983833613629165</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>1.153487176973407</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>1.183034671483818</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>1.50535712600797</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>1.412379579570744</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>0.8257152719149768</v>
       </c>
-      <c r="N18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19">
+      <c r="O18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
         <v>-1.213235823508556</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>-1.364790937851373</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.1994500347735677</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>1.05914321033997</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-0.2468175402416421</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>-1.315154061496189</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.2621170516059217</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>1.177645633958088</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>1.078463038713497</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>1.262926711677277</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>1.378967041987646</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>1.140077384331897</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>-0.05360213260139707</v>
       </c>
-      <c r="N19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20">
+      <c r="O19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
         <v>-1.586317135185186</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>-1.329205999772658</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.9986493359770046</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>1.747816843370303</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.9201608879302695</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.3625995865017618</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>1.217986331487663</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>2.007236741984913</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>1.645341830695354</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.8352225572769766</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>0.9419433433833031</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0.9097625344936121</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>-0.130924110406066</v>
       </c>
-      <c r="N20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21">
+      <c r="O20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21">
         <v>0.2398551574949473</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>-1.189710012826702</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-0.3992940658448266</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.5988348607520301</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-0.521445173093449</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>-1.71954526815314</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.1482929645517952</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.8321688146197449</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.03939022687702433</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.3674543767630689</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.8379666881833873</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.1148752272702737</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>-1.214988788889697</v>
       </c>
-      <c r="N21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22">
+      <c r="O21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
         <v>-0.8660547716441938</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>-0.4119198405226358</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.978833131612948</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.2240620053943041</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>-1.29756169435421</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.2152944139335281</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>1.112032598709756</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.3511186111648822</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-0.07889649417856874</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.5710926398490251</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.7058928930670489</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.5068967714032321</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>-0.001331272763364333</v>
       </c>
-      <c r="N22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23">
+      <c r="O22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23">
         <v>-0.5446114676334565</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>-0.8142146764808542</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.388784865132729</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.4567899334584662</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.2215243038696417</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.4434057363712974</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.3487368985287126</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.3598542350903835</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>-0.1506867624076134</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>-0.8126789557489421</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>0.07958990249196304</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>0.7163656618698845</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>-0.5152012910498226</v>
       </c>
-      <c r="N23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24">
+      <c r="O23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24">
         <v>-0.685111415550218</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>-0.9639959173947846</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.9524048451083317</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.9934480409164699</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.9863520334207967</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>1.424586626279763</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.6823496275566496</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>0.7564843339494577</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>1.192810215091028</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>0.811495087463286</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>0.9537241647030968</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>1.80281552234027</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>0.9327939636783248</v>
       </c>
-      <c r="N24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25">
+      <c r="O24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25">
         <v>-1.397308370773302</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>-1.43537490945558</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.8235009651069086</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>1.325214604267347</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>1.023195215299891</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>1.089047909158514</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>1.118084290209266</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>1.438734775456561</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>1.389720439999146</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>1.091325705436876</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>1.19062203806749</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>1.478598434486772</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>1.070751427443018</v>
       </c>
-      <c r="N25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26">
+      <c r="O25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26">
         <v>-1.20874434073384</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>-1.922583965882275</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0.6467855817730805</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.9852978222275323</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>0.1713829627776518</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0.725105653821145</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>0.855477356864343</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>0.7076849486705721</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>0.6496385770448232</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>1.074128098567138</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>1.552028924038724</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>1.735270457500182</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>0.3571477873858306</v>
       </c>
-      <c r="N26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27">
+      <c r="O26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27">
         <v>-1.567451034965601</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>-0.3817407483003782</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>1.227650577451689</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>1.336319482334314</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>1.263488710286694</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>1.244186412214853</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>1.240301283447357</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>1.672451699630281</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>1.526705636043784</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>1.138300950605647</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>1.069162634394061</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>0.7137081680974016</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>-0.01752501160292605</v>
       </c>
-      <c r="N27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28">
+      <c r="O27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28">
         <v>1.399282013426778</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>-0.500153560826315</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>-2.113305415855336</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>-0.7153263718525181</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>-1.347141649557073</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-2.383474282274706</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>-0.262703137567678</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-0.02164107177079506</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-0.648381068577243</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-0.3702177555846383</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>-0.2362696130105273</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>-0.3945788791112421</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>-0.9473117235290968</v>
       </c>
-      <c r="N28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29">
+      <c r="O28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29">
         <v>0.2445064771343382</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>-0.528668208382949</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>1.057530689727976</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>1.228898646772163</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-2.258410746888288</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>-2.618614843709837</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>1.23217838373643</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>0.4232703048670466</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-2.449709435844743</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>0.004915505003223218</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>2.342902178128408</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>-0.1091263145172588</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>-4.169301559570091</v>
       </c>
-      <c r="N29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30">
+      <c r="O29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30">
         <v>1.871982821365696</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>-0.697411223577079</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>-0.6223445439698785</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-1.25882617808398</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>-2.935336079419982</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>-1.581976590890516</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>0.5846992087658023</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>0.3347497288961899</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-1.857845273431309</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-2.496693260089997</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>-0.8892625906807591</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>-0.9432612550841017</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>-1.496859124316718</v>
       </c>
-      <c r="N30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31">
+      <c r="O30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31">
         <v>0.2940197914149916</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>-0.6339294667815026</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-0.08847616920504979</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>0.06296192775098181</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>-0.4986694700911825</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>-0.1521047472904731</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>0.4248787074719655</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>0.23677826682373</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-0.0821368261072314</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>-0.3493597987480349</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>-0.2457260051487125</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>0.5509856534353624</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>0.7715078965600807</v>
       </c>
-      <c r="N31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32">
+      <c r="O31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32">
         <v>-0.5409713335145198</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>-0.5909437279199138</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>-0.4341463747199608</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>0.6360919317699909</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>0.2199269206026805</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>-0.8131522598745692</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>0.2068977539402903</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>0.8235721213284893</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>0.4699470082704411</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>0.004816379949045568</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>0.6570536852611905</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>1.310865471291023</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>0.1375741914600198</v>
       </c>
-      <c r="N32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33">
+      <c r="O32" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33">
         <v>-0.6466830219054962</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>-1.155874650844419</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0.5252727979587517</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>1.113872424990809</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>0.8097044897940699</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.4826049087808235</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>0.6176610093088162</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>0.7995582350250182</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>0.3570348157997981</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>-0.3931364908293239</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>-0.09224442803405949</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>0.3552912250204937</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>0.1158607160178424</v>
       </c>
-      <c r="N33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34">
+      <c r="O33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34">
         <v>2.050232023445684</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>-1.035806783148905</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>-2.196761925997027</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>-1.371627204984286</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>-2.569789888948608</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>-3.50642415186831</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>-0.7180531892745096</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>-0.2341101119208826</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>-2.146925441474336</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>-1.358245946393585</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>0.2647415261141726</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>-1.025494036586572</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>-2.723514099566868</v>
       </c>
-      <c r="N34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35">
+      <c r="O34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35">
         <v>0.738808334489864</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>-1.446427598233653</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>0.5416742503675744</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>-0.4836867023052729</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>-4.344377028292702</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>-2.834445076597997</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>0.4465359562079194</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>-0.1086290871974906</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>-2.058985562860954</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>-1.547238089371404</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>0.1710980425572149</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>-0.1524783384725112</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>-1.408125171204069</v>
       </c>
-      <c r="N35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36">
+      <c r="O35" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36">
         <v>1.046268253548765</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>0.3449430229957596</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>-0.05321666100750647</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>-1.0089530214957</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>-1.54530027756449</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>0.7401879508649057</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>2.056932911899191</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>1.515097083414729</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>-0.3511636893427653</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>-0.8720705973369396</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>0.3616530607510763</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>1.303081035823436</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>1.663976864627329</v>
       </c>
-      <c r="N36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37">
+      <c r="O36" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37">
         <v>-0.4450464764107967</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>-1.274731273550095</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>0.08948776520797731</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>0.1306789858621794</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>-1.211876810429932</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>-0.7555663633688137</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>0.2603913662874946</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>-0.1645740324105541</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>-0.6796807311276358</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>0.5387235894193474</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>0.9620260200929815</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>-0.1093313424813142</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>-1.263828085049211</v>
       </c>
-      <c r="N37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38">
+      <c r="O37" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38">
         <v>-0.4477744034861491</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>-1.105143829678302</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>0.05341116305441848</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>0.498220172726606</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>0.3065315849291286</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>0.2381406876539928</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>0.3559968733140498</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>0.5691192235179029</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>0.7191284096577916</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>1.000328905701793</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>1.068619916311179</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>1.247897448649516</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>0.5338992395121547</v>
       </c>
-      <c r="N38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39">
+      <c r="O38" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39">
         <v>-1.254553987413782</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>-0.5161507582218174</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>1.557256313567973</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>1.665279998290159</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>1.248751889411511</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>1.304274687150283</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>1.350697857113702</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>1.446838582057857</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>1.172652811765585</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>1.132494464545158</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>1.502415458507411</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>1.593940902320948</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>0.209474609502784</v>
       </c>
-      <c r="N39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40">
+      <c r="O39" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40">
         <v>2.418964635488218</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>-0.8127880990483795</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>-3.065388849892312</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>-1.732387091110405</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>-2.456880363475738</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>-3.734516310752928</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>-1.204761340788427</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>-1.190759076744523</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>-2.42158406993867</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>-0.9898799375202966</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>-0.5078815716164238</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>-1.590212705832861</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>-1.12446744738416</v>
       </c>
-      <c r="N40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41">
+      <c r="O40" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41">
         <v>0.662336760732022</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>-1.9470711456019</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>0.6780520209872298</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>0.5781812330373168</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>-2.639450766030532</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>-1.703042213484842</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>0.7805428563503598</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>-0.3368702131884564</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>-2.257043615560115</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>-0.5324268596184016</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>1.668363593659618</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>0.7522568424725357</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>-2.651190814295004</v>
       </c>
-      <c r="N41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42">
+      <c r="O41" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42">
         <v>1.351325603836348</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>-0.7432638885644839</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>-0.5906081876150771</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>-1.032121801540935</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>-2.225148562351819</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>-0.4758986121440434</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>1.077914902109223</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>0.04783447779515242</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>-1.876394283839097</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>-1.516132883382489</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>-0.5354302727045704</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>-0.7750459584254386</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>0.376244496616044</v>
       </c>
-      <c r="N42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43">
+      <c r="O42" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43">
         <v>0.1290781786728068</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>-0.4026336289338761</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>-0.0519756429775504</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>0.1058532837814949</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>-0.6947472776309276</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>-0.4823885028930556</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>0.2932029484277278</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>0.1993615375856934</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>-0.03427947990060162</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>-0.2200802737241206</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>-0.1442628648203064</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>-0.1001096402758038</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>-0.336537203822211</v>
       </c>
-      <c r="N43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44">
+      <c r="O43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44">
         <v>-0.2720581810084895</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>-1.284860661883718</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>-0.2142856937309908</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>0.4334637903565761</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>-0.7202384757024715</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>-0.9451322311409176</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>0.6461780891766982</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>0.7307052071132462</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>-0.2602021210960759</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>0.206089409103374</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>0.9613693387399908</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>0.8169264936662247</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>-0.1675350055283265</v>
       </c>
-      <c r="N44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="A45">
+      <c r="O44" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45">
         <v>-0.5769159024086021</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>-0.5819097807915711</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>0.1641728342768837</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>1.016314908920539</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>0.9664519592064033</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>-0.0282519476605522</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>0.347821767360842</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>0.7808707676487028</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>0.3942337484439951</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>-0.1269979143174115</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>0.3145111077764004</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>0.9206078924952776</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>0.4366373159221061</v>
       </c>
-      <c r="N45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46">
+      <c r="O45" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46">
         <v>1.786994082795854</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>-0.7540361443939979</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>-2.018517748330034</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>-1.568402909620413</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>-1.77781034183244</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>-2.205205743880783</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>-1.185674751773222</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>-0.4225458817734053</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>-0.3430953460483943</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>-0.3987791452030477</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>-0.4130258922194192</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>-1.131354323506358</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>-1.90595273105987</v>
       </c>
-      <c r="N46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="A47">
+      <c r="O46" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47">
         <v>0.6189199856077578</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>-1.561747510762282</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>-0.2458734969724999</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>-0.3331038525059324</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>-2.69383432680846</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>-2.274423377915164</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>-0.4811784133001354</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>-1.466269189253941</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>-2.97837340518133</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>-0.9243614235359867</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>1.373896655016364</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>0.6211139152983322</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>-2.005589679357193</v>
       </c>
-      <c r="N47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48">
+      <c r="O47" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48">
         <v>1.665725051038762</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>-1.758314732570515</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>-0.2358455571080111</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>-1.279605602482512</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>-3.152461162523203</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>-0.01592853859773416</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>1.205070099106191</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>-0.1014397151130934</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>-1.834508439350969</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>-1.90040216979706</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>-0.3930342957982708</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>-0.3937604240466496</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>-1.747850197413281</v>
       </c>
-      <c r="N48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
-      <c r="A49">
+      <c r="O48" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49">
         <v>0.008629397604099589</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>-1.324729714024682</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>0.290720597628686</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>-0.04394196938871587</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>-1.143752198559344</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>0.2595567464120009</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>0.6054125660087968</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>-0.05200808015325669</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>-0.07941309192581443</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>0.4066569589534659</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>0.2091756249992049</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>0.1418682977824011</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>0.8146173200242827</v>
       </c>
-      <c r="N49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
-      <c r="A50">
+      <c r="O49" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50">
         <v>0.01815340090885384</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>-1.620086953557072</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>-0.176909536917116</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>0.3667077876559237</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>-0.4362034811231459</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>-0.6618471311213122</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>0.1338284296120699</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>0.6184766372364151</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>0.5885642598243576</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>0.7291255109454706</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>0.7760557276955395</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>0.4767077498392852</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>-0.2180011581791057</v>
       </c>
-      <c r="N50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
-      <c r="A51">
+      <c r="O50" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51">
         <v>-0.6574710071108182</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>-1.433232852424456</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>0.6596141573030992</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>0.8326229188820666</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>0.1971320128510939</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>0.5388992979469319</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>0.4513201079508896</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>0.3775028933259886</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>0.3929642068245644</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>0.2742190028878078</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>0.514701968858737</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>0.6558595280391937</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>-0.2695874815680371</v>
       </c>
-      <c r="N51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
-      <c r="A52">
+      <c r="O51" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52">
         <v>0.8542827783223685</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>0.7482030991474315</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>-1.413227047811064</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>-0.2032733925382913</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>1.226832209867899</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>-0.9567056898985961</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>-1.160557445071097</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>0.2267873671468987</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>1.235525926590879</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>0.3196869178676559</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>-0.3668176251116052</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>0.2509417249671554</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>0.1774985272017913</v>
       </c>
-      <c r="N52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
-      <c r="A53">
+      <c r="O52" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53">
         <v>0.1890337222632301</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>0.1044104249052152</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>0.3623938983216134</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>-0.1510169812722429</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>-0.1490515274869218</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>0.5644145319790062</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>-0.11528416084653</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>-0.745412316863883</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>-0.0954246124394012</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>0.8956516684300264</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <v>-0.03211818956356695</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>-1.40723622415803</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>-1.055161036881276</v>
       </c>
-      <c r="N53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="A54">
+      <c r="O53" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54">
         <v>-0.0526971316456697</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>0.523024830956491</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>-0.9933612788875775</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>-0.3683397380474741</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>0.416319488335323</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>-0.4385517506209285</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>-0.4625880550656387</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>-0.7571776086245691</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>-0.8631460482160307</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>-0.1230167846613321</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>-0.5131810894953753</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>-0.6523046216005243</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>0.6483617141396574</v>
       </c>
-      <c r="N54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="A55">
+      <c r="O54" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55">
         <v>-0.2764125652172708</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>-0.1088763595276062</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>-0.1289407379876653</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>0.5021504986828027</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>0.8390761769193725</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>-0.1979608900855764</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>-0.1853843271281147</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>0.2531543550381819</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>0.0798778229046469</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>-0.4398562529715541</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>-0.2452641302310186</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>-0.08884987726800221</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>-0.4187925956270747</v>
       </c>
-      <c r="N55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="A56">
+      <c r="O55" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56">
         <v>-0.6197856208161127</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>0.2425393012269837</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>2.048720739477979</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>1.15570833903062</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>0.03971604870875959</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>0.7910883390531167</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>1.102226356184187</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>0.4261745892460133</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>-1.282150372653049</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>-2.118039880018661</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>-0.3915863450295706</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>0.3642863609707752</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>-0.6792329213487612</v>
       </c>
-      <c r="N56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="A57">
+      <c r="O56" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57">
         <v>0.8302015824093294</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>0.4496359039003714</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>-0.83646086888625</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>-0.5140573034318698</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>0.6604536507633206</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>-0.4954767948998323</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>-1.029302297554645</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>0.3718674113852013</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>1.808769068269698</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>1.804491528259497</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <v>0.8460896950067078</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>0.2709949095444407</v>
       </c>
-      <c r="M57">
+      <c r="N57">
         <v>-0.108838724956673</v>
       </c>
-      <c r="N57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
-      <c r="A58">
+      <c r="O57" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58">
         <v>-0.01840443327772619</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>0.354858956785951</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>-0.1924256141529274</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>-0.3846126720509989</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>0.400572158738572</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>0.03305350325684506</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>-1.128890945073242</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>-0.8954660489844072</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>0.1193398360844987</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>0.21511962286828</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <v>-0.2944538089652974</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>-0.5873822061339773</v>
       </c>
-      <c r="M58">
+      <c r="N58">
         <v>-0.6202587259358945</v>
       </c>
-      <c r="N58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="A59">
+      <c r="O58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59">
         <v>0.07819588505328444</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>0.7475151620705112</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>-0.5972930086026886</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>-0.6408456714195</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>0.3432547371249737</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>0.05176210867873208</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>-0.8984796737372392</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>-0.997613500743496</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>-0.1624036879408419</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>-0.06088661677498375</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <v>-0.8399798745608467</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>-0.4649562810153821</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>0.8939960249293035</v>
       </c>
-      <c r="N59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="A60">
+      <c r="O59" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60">
         <v>-0.4423165430149673</v>
       </c>
-      <c r="B60">
+      <c r="C60">
         <v>0.370524391987859</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>-0.326443743485241</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>-0.2761974957445723</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>0.3913431469992229</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>0.2694892740816638</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>-0.3862374869663637</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>-0.4219117585465566</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>0.04614565416948509</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>-0.4252585153303368</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>-0.9692587844597896</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>-0.5803164040353521</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>0.1007866298328397</v>
       </c>
-      <c r="N60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="A61">
+      <c r="O60" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61">
         <v>-0.5428552684425089</v>
       </c>
-      <c r="B61">
+      <c r="C61">
         <v>0.1288631764726794</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>1.855278945959706</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>0.8757210190277263</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>-0.1342449481840619</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>0.5342506015643211</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>0.4494002739848379</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>0.1386652799765507</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>-0.2199214828362841</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>-0.6826536326983557</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <v>-0.5617848434644445</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>-1.270951444164063</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>-1.86624946898806</v>
       </c>
-      <c r="N61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="A62">
+      <c r="O61" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62">
         <v>1.143265823334239</v>
       </c>
-      <c r="B62">
+      <c r="C62">
         <v>-0.1940027826067016</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>-0.5473417391771472</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>0.02370836178584624</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>0.2798028102175875</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>-1.216285889465635</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>-1.199281742008356</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>0.02973544794956962</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>1.299424447225648</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>1.169638825124505</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <v>0.01639433357103925</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>-0.7651776932868168</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>-1.19031527984979</v>
       </c>
-      <c r="N62" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="A63">
+      <c r="O62" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63">
         <v>0.261805641061315</v>
       </c>
-      <c r="B63">
+      <c r="C63">
         <v>0.3700937271025833</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>0.2320800250113311</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>-0.3710860124840451</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>0.186761165795563</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>0.7506006458317083</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>-0.4955182982267757</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>-1.043487127925051</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>-0.8999661189071414</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>-1.059349686303076</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>-0.9888993077687974</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>-0.8924333731021131</v>
       </c>
-      <c r="M63">
+      <c r="N63">
         <v>0.1786404574508125</v>
       </c>
-      <c r="N63" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="A64">
+      <c r="O63" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64">
         <v>0.4040403874172685</v>
       </c>
-      <c r="B64">
+      <c r="C64">
         <v>-0.3165112933075817</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>-0.112118056816099</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>-0.2280590897108295</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>-0.8752408547317491</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>-0.663429161245097</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>-0.4488877418534436</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>-1.061323284869322</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>-0.8823263771867629</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>-0.05326264137787577</v>
       </c>
-      <c r="K64">
+      <c r="L64">
         <v>-0.3768602431068635</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <v>-0.2836635138332475</v>
       </c>
-      <c r="M64">
+      <c r="N64">
         <v>0.8523802156453864</v>
       </c>
-      <c r="N64" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65">
+      <c r="O64" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65">
         <v>-0.3111413039022356</v>
       </c>
-      <c r="B65">
+      <c r="C65">
         <v>0.4096034745282136</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>-0.6467230117537447</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>-0.0003414638536416746</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>0.8872213537732275</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>-0.09249946026174041</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>-0.1951903475344684</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>-0.09424241648836094</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>-0.5427490449079148</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>-0.7179531658805084</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <v>-0.4528434845371246</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>0.07220828665350119</v>
       </c>
-      <c r="M65">
+      <c r="N65">
         <v>0.8641695223353151</v>
       </c>
-      <c r="N65" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="A66">
+      <c r="O65" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66">
         <v>-0.1128773831295273</v>
       </c>
-      <c r="B66">
+      <c r="C66">
         <v>0.2479013294352281</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>0.5006542401467032</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>0.2420076446196957</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>0.01120518622944525</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>-0.4393207815201147</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>-0.336734057112997</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>0.2634850871170381</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>-0.01015057648469768</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>-1.440127961384999</v>
       </c>
-      <c r="K66">
+      <c r="L66">
         <v>-1.025341961395225</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>-0.4523056414352618</v>
       </c>
-      <c r="M66">
+      <c r="N66">
         <v>-0.5851259973139555</v>
       </c>
-      <c r="N66" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
-      <c r="A67">
+      <c r="O66" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67">
         <v>0.7106335760300655</v>
       </c>
-      <c r="B67">
+      <c r="C67">
         <v>0.7245785011311636</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>-1.170839076779271</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>-0.3943666812567525</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>0.9851048544061396</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>-1.631543494432179</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>-1.819462021155293</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>0.409118259751851</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>1.412292557160628</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>0.6847532818323365</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <v>0.668121219957768</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>0.6906101111549414</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>-0.5736836030979218</v>
       </c>
-      <c r="N67" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="A68">
+      <c r="O67" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68">
         <v>-0.2795899080794917</v>
       </c>
-      <c r="B68">
+      <c r="C68">
         <v>0.4449417818441416</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>-0.3205653388746711</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>-0.4647024981598057</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>0.5181961647128535</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>0.04703941277486191</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>-1.118593037550839</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>-0.5917711767063777</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>0.4309902623869012</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>-0.2022479911602731</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <v>-0.9264224451246218</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>-0.8302301668962191</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <v>0.2300460806839986</v>
       </c>
-      <c r="N68" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
-      <c r="A69">
+      <c r="O68" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69">
         <v>0.06328223617356955</v>
       </c>
-      <c r="B69">
+      <c r="C69">
         <v>1.411882726013492</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>-0.3570588849372752</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>-0.9293463796680974</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>0.6535823044257719</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>1.146377627949415</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>-0.635160140815796</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>-1.164501186872039</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>-0.2134799444423386</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>-0.2560335602397776</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <v>-1.150664223123763</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>-0.6826359201455887</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>0.8244667621569848</v>
       </c>
-      <c r="N69" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
-      <c r="A70">
+      <c r="O69" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" t="s">
+        <v>83</v>
+      </c>
+      <c r="B70">
         <v>-0.1739818795798317</v>
       </c>
-      <c r="B70">
+      <c r="C70">
         <v>0.3412711040756625</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>-0.4094250149744293</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>-0.49035033235673</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>0.6352163507746951</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>0.4063538774239653</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>-0.8749225324048034</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>-0.4991162614153831</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>0.2375844220256831</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>-0.5013924572396158</v>
       </c>
-      <c r="K70">
+      <c r="L70">
         <v>-0.3781007415820215</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <v>0.6347323282885843</v>
       </c>
-      <c r="M70">
+      <c r="N70">
         <v>0.9123312252910108</v>
       </c>
-      <c r="N70" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
-      <c r="A71">
+      <c r="O70" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71">
         <v>-0.5084074146243369</v>
       </c>
-      <c r="B71">
+      <c r="C71">
         <v>0.1892132233539566</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>0.7670972243410621</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>0.372455524087672</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>0.5993977987563768</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>0.09784920962090521</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>-0.8743457463886068</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>-0.2877442544477438</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>0.2792087809508607</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>-0.9069582895201824</v>
       </c>
-      <c r="K71">
+      <c r="L71">
         <v>-1.069326966187364</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>-1.309452382230394</v>
       </c>
-      <c r="M71">
+      <c r="N71">
         <v>-1.712709919573284</v>
       </c>
-      <c r="N71" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
-      <c r="A72">
+      <c r="O71" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72">
         <v>1.644318614708433</v>
       </c>
-      <c r="B72">
+      <c r="C72">
         <v>1.639313847288885</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>-1.784966614222829</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>-2.045946186237457</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>-1.139861965919535</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>-0.6637142087283338</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>-0.7733363256480038</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>-1.192744458920221</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>-1.133064653347684</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>-1.57803844648338</v>
       </c>
-      <c r="K72">
+      <c r="L72">
         <v>-1.263469192835848</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>0.1626761509465729</v>
       </c>
-      <c r="M72">
+      <c r="N72">
         <v>0.7747065145906099</v>
       </c>
-      <c r="N72" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
-      <c r="A73">
+      <c r="O72" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73">
         <v>1.269867989306187</v>
       </c>
-      <c r="B73">
+      <c r="C73">
         <v>0.1304318482786391</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>-0.6578851938584538</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>-0.9950425648412182</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>-0.1018198471282891</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>1.223614545304757</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>0.1537622306750267</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>-0.7396363189807827</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>-0.8516562628163582</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>-1.027587186800152</v>
       </c>
-      <c r="K73">
+      <c r="L73">
         <v>-0.865946036817574</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <v>-0.4639862295167608</v>
       </c>
-      <c r="M73">
+      <c r="N73">
         <v>0.05487228561067202</v>
       </c>
-      <c r="N73" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
-      <c r="A74">
+      <c r="O73" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" t="s">
+        <v>87</v>
+      </c>
+      <c r="B74">
         <v>1.038337937476314</v>
       </c>
-      <c r="B74">
+      <c r="C74">
         <v>0.116184226979566</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>-0.9445798673889175</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>-0.8444303364374585</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>-0.1551464935909332</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>-0.5232496780031531</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>-1.597976454188144</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>-2.156181424649443</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>-1.252253915635442</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>-0.06367077206652901</v>
       </c>
-      <c r="K74">
+      <c r="L74">
         <v>-0.5738628424529234</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <v>-0.8814161229689672</v>
       </c>
-      <c r="M74">
+      <c r="N74">
         <v>0.07297775290523557</v>
       </c>
-      <c r="N74" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
-      <c r="A75">
+      <c r="O74" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" t="s">
+        <v>88</v>
+      </c>
+      <c r="B75">
         <v>0.2455497637824258</v>
       </c>
-      <c r="B75">
+      <c r="C75">
         <v>0.1477742474742288</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>-0.460271335049075</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>-0.4938048186828271</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>-0.06289944567201991</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>-0.0130657858178938</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>-0.4151387837172393</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>-0.5993630729209083</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>-0.4243159131816664</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>-0.7293167519524851</v>
       </c>
-      <c r="K75">
+      <c r="L75">
         <v>-1.51169173334774</v>
       </c>
-      <c r="L75">
+      <c r="M75">
         <v>-1.666774703788096</v>
       </c>
-      <c r="M75">
+      <c r="N75">
         <v>0.613124452901511</v>
       </c>
-      <c r="N75" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
-      <c r="A76">
+      <c r="O75" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" t="s">
+        <v>89</v>
+      </c>
+      <c r="B76">
         <v>1.7327164261556</v>
       </c>
-      <c r="B76">
+      <c r="C76">
         <v>0.9290391592814382</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>-1.144430832332276</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>-1.502223852704432</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>-0.3536610449120331</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>-0.6357415601012545</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>-1.604519855930995</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>-0.9210010383782818</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>0.3364512812962799</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>-0.1122955446745622</v>
       </c>
-      <c r="K76">
+      <c r="L76">
         <v>-0.5183147057578648</v>
       </c>
-      <c r="L76">
+      <c r="M76">
         <v>0.16520876405004</v>
       </c>
-      <c r="M76">
+      <c r="N76">
         <v>0.2655345847098555</v>
       </c>
-      <c r="N76" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
-      <c r="A77">
+      <c r="O76" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" t="s">
+        <v>90</v>
+      </c>
+      <c r="B77">
         <v>0.6412356195009563</v>
       </c>
-      <c r="B77">
+      <c r="C77">
         <v>0.03304336933083725</v>
       </c>
-      <c r="C77">
+      <c r="D77">
         <v>-0.1411073727318679</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>-0.9216954409851257</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>-0.6018403488769265</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>0.5410177416407421</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>-0.7207098009050205</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>-1.227448581936494</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>0.07195801474048127</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>0.3754060155337082</v>
       </c>
-      <c r="K77">
+      <c r="L77">
         <v>-1.083712834304994</v>
       </c>
-      <c r="L77">
+      <c r="M77">
         <v>-2.11486145534041</v>
       </c>
-      <c r="M77">
+      <c r="N77">
         <v>-0.937105476763912</v>
       </c>
-      <c r="N77" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
-      <c r="A78">
+      <c r="O77" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" t="s">
+        <v>91</v>
+      </c>
+      <c r="B78">
         <v>1.016800087154734</v>
       </c>
-      <c r="B78">
+      <c r="C78">
         <v>0.004917446910475699</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>-0.4292253239134765</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>-0.4530920111853881</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>-0.1562393285540709</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>-0.06876734922288189</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>-0.5545067121803566</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>-1.044510948698581</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>-0.6050578501652358</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>0.4325407920489095</v>
       </c>
-      <c r="K78">
+      <c r="L78">
         <v>-0.1971219500877794</v>
       </c>
-      <c r="L78">
+      <c r="M78">
         <v>-1.149351222573436</v>
       </c>
-      <c r="M78">
+      <c r="N78">
         <v>-0.7312798950630474</v>
       </c>
-      <c r="N78" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="A79">
+      <c r="O78" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" t="s">
+        <v>92</v>
+      </c>
+      <c r="B79">
         <v>0.03906327292110341</v>
       </c>
-      <c r="B79">
+      <c r="C79">
         <v>-0.02745440562155311</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>0.1350533832076701</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>-0.2504577752742493</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>0.1227689641021624</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>0.4888971909427955</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>-0.2545126971619631</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>0.004514493671900197</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>0.3068740243260629</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>-0.6538703917682154</v>
       </c>
-      <c r="K79">
+      <c r="L79">
         <v>-0.5884853687747931</v>
       </c>
-      <c r="L79">
+      <c r="M79">
         <v>-0.2046014173102593</v>
       </c>
-      <c r="M79">
+      <c r="N79">
         <v>-0.7404647770322961</v>
       </c>
-      <c r="N79" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
-      <c r="A80">
+      <c r="O79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" t="s">
+        <v>93</v>
+      </c>
+      <c r="B80">
         <v>1.892458659381402</v>
       </c>
-      <c r="B80">
+      <c r="C80">
         <v>1.926969196198555</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>-1.456902319669176</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>-2.332110045281293</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>-0.9245829393446895</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>0.02121656638311313</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>-1.580673926711856</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>-2.12985435769767</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>-0.3684946762752081</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>-0.3555614082883715</v>
       </c>
-      <c r="K80">
+      <c r="L80">
         <v>-1.25030726314092</v>
       </c>
-      <c r="L80">
+      <c r="M80">
         <v>0.2635345839392237</v>
       </c>
-      <c r="M80">
+      <c r="N80">
         <v>2.132946280257557</v>
       </c>
-      <c r="N80" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14">
-      <c r="A81">
+      <c r="O80" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" t="s">
+        <v>94</v>
+      </c>
+      <c r="B81">
         <v>1.034061799766139</v>
       </c>
-      <c r="B81">
+      <c r="C81">
         <v>0.5394451816404389</v>
       </c>
-      <c r="C81">
+      <c r="D81">
         <v>-1.206460033119414</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>-1.29675833192691</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>0.1953456887415589</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>1.069463919265405</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>-0.2744190541618489</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>-1.134782425370117</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>-1.396328743015502</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>-1.961078110202078</v>
       </c>
-      <c r="K81">
+      <c r="L81">
         <v>-1.548407778385685</v>
       </c>
-      <c r="L81">
+      <c r="M81">
         <v>-0.4040346031343106</v>
       </c>
-      <c r="M81">
+      <c r="N81">
         <v>0.9858969212742933</v>
       </c>
-      <c r="N81" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
-      <c r="A82">
+      <c r="O81" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" t="s">
+        <v>95</v>
+      </c>
+      <c r="B82">
         <v>0.903796092603022</v>
       </c>
-      <c r="B82">
+      <c r="C82">
         <v>0.5396780411423601</v>
       </c>
-      <c r="C82">
+      <c r="D82">
         <v>-0.7287282350368255</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>-0.8332380257685077</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>-0.3530487523160692</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>-0.3814398824385765</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>-0.7847597688218212</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>-1.426364102826185</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>-1.26954772452576</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>-0.2975044147512674</v>
       </c>
-      <c r="K82">
+      <c r="L82">
         <v>-0.8855332668668457</v>
       </c>
-      <c r="L82">
+      <c r="M82">
         <v>-1.586079424917087</v>
       </c>
-      <c r="M82">
+      <c r="N82">
         <v>-0.04300369655696173</v>
       </c>
-      <c r="N82" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14">
-      <c r="A83">
+      <c r="O82" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" t="s">
+        <v>96</v>
+      </c>
+      <c r="B83">
         <v>0.3741756383422664</v>
       </c>
-      <c r="B83">
+      <c r="C83">
         <v>0.08777286387942396</v>
       </c>
-      <c r="C83">
+      <c r="D83">
         <v>-0.3817954835576525</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>-0.6300196556907646</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>0.159444669270276</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>0.4008935091624291</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>-0.7187963508097552</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>-0.8450117462023617</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>-0.5290893011161962</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>-1.193409635070723</v>
       </c>
-      <c r="K83">
+      <c r="L83">
         <v>-1.612232027116347</v>
       </c>
-      <c r="L83">
+      <c r="M83">
         <v>-1.976546277205435</v>
       </c>
-      <c r="M83">
+      <c r="N83">
         <v>-1.050170559674004</v>
       </c>
-      <c r="N83" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14">
-      <c r="A84">
+      <c r="O83" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84">
         <v>1.530616755017438</v>
       </c>
-      <c r="B84">
+      <c r="C84">
         <v>3.805945067463009</v>
       </c>
-      <c r="C84">
+      <c r="D84">
         <v>-2.577884596346985</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>-2.685602164735278</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>0.5077888851181716</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>-0.3992432381116044</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>-1.369734514283665</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>-1.336727037619328</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>-1.119177061269226</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>-0.7555022870977506</v>
       </c>
-      <c r="K84">
+      <c r="L84">
         <v>-1.064263203237067</v>
       </c>
-      <c r="L84">
+      <c r="M84">
         <v>-0.4053337348701887</v>
       </c>
-      <c r="M84">
+      <c r="N84">
         <v>1.189714114924251</v>
       </c>
-      <c r="N84" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14">
-      <c r="A85">
+      <c r="O84" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" t="s">
+        <v>98</v>
+      </c>
+      <c r="B85">
         <v>1.009344600261862</v>
       </c>
-      <c r="B85">
+      <c r="C85">
         <v>0.9155533390948415</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>-0.1384410879629362</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>-1.237732652648832</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>-0.4811363812304648</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>0.9446323681199936</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>-0.1513440802073729</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>-0.7026236991809469</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>-0.502259147382446</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>-0.8602825829575875</v>
       </c>
-      <c r="K85">
+      <c r="L85">
         <v>-1.38195787364395</v>
       </c>
-      <c r="L85">
+      <c r="M85">
         <v>-1.940204552829248</v>
       </c>
-      <c r="M85">
+      <c r="N85">
         <v>-0.8467654645156245</v>
       </c>
-      <c r="N85" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
-      <c r="A86">
+      <c r="O85" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86">
         <v>0.6777479770900556</v>
       </c>
-      <c r="B86">
+      <c r="C86">
         <v>0.6342177469900311</v>
       </c>
-      <c r="C86">
+      <c r="D86">
         <v>-0.8576089025344455</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>-0.5794881435501781</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>0.7684557949055478</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>-0.0545118226150748</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>-1.363699979436893</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>-1.361857629337171</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>-0.2024609038712903</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>0.06546753909052108</v>
       </c>
-      <c r="K86">
+      <c r="L86">
         <v>-1.018088056234173</v>
       </c>
-      <c r="L86">
+      <c r="M86">
         <v>-0.9111041721641769</v>
       </c>
-      <c r="M86">
+      <c r="N86">
         <v>0.7243076665493451</v>
       </c>
-      <c r="N86" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
-      <c r="A87">
+      <c r="O86" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87" t="s">
+        <v>100</v>
+      </c>
+      <c r="B87">
         <v>-0.2643024148175454</v>
       </c>
-      <c r="B87">
+      <c r="C87">
         <v>-0.1165701125870811</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>0.1316695236653892</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>0.1773390855245803</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>0.3942594446680068</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>-0.3724650346718482</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>-0.8703697137114605</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>-0.2044971337027099</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>0.2901777196841875</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>-0.4768798540602959</v>
       </c>
-      <c r="K87">
+      <c r="L87">
         <v>-0.6499346048908801</v>
       </c>
-      <c r="L87">
+      <c r="M87">
         <v>-0.7409402814511743</v>
       </c>
-      <c r="M87">
+      <c r="N87">
         <v>-1.187187091120441</v>
       </c>
-      <c r="N87" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14">
-      <c r="A88">
+      <c r="O87" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" t="s">
+        <v>101</v>
+      </c>
+      <c r="B88">
         <v>-1.898202997216551</v>
       </c>
-      <c r="B88">
+      <c r="C88">
         <v>-0.6252980160503</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>1.27998481297301</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>1.398590247247412</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>0.7334401708624677</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>1.154665242494045</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>1.495747792548676</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>1.299833829707153</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>1.312008683370171</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>1.749326665519382</v>
       </c>
-      <c r="K88">
+      <c r="L88">
         <v>1.256719078725274</v>
       </c>
-      <c r="L88">
+      <c r="M88">
         <v>0.8593018389563406</v>
       </c>
-      <c r="M88">
+      <c r="N88">
         <v>0.6314303630372768</v>
       </c>
-      <c r="N88" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
-      <c r="A89">
+      <c r="O88" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" t="s">
+        <v>102</v>
+      </c>
+      <c r="B89">
         <v>-1.533637847191682</v>
       </c>
-      <c r="B89">
+      <c r="C89">
         <v>-0.8556517744613801</v>
       </c>
-      <c r="C89">
+      <c r="D89">
         <v>2.006229918669953</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>1.4380471194059</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>-0.005631730468426028</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>1.49288486603796</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>1.961956972995746</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>1.132247815375043</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>0.9114212987722448</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>2.04657487324584</v>
       </c>
-      <c r="K89">
+      <c r="L89">
         <v>1.769605130376925</v>
       </c>
-      <c r="L89">
+      <c r="M89">
         <v>1.082016571395734</v>
       </c>
-      <c r="M89">
+      <c r="N89">
         <v>0.9082024413668749</v>
       </c>
-      <c r="N89" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14">
-      <c r="A90">
+      <c r="O89" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" t="s">
+        <v>103</v>
+      </c>
+      <c r="B90">
         <v>-1.65057021723754</v>
       </c>
-      <c r="B90">
+      <c r="C90">
         <v>0.1625076187020397</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>1.078546653127508</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>1.256898488283577</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>0.6726969608775398</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>0.7285215779101323</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>1.690841351769119</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>1.95791626999771</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>1.579031694394725</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>1.808951959020796</v>
       </c>
-      <c r="K90">
+      <c r="L90">
         <v>1.571254843852512</v>
       </c>
-      <c r="L90">
+      <c r="M90">
         <v>1.035885383032765</v>
       </c>
-      <c r="M90">
+      <c r="N90">
         <v>0.8044998260089311</v>
       </c>
-      <c r="N90" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
-      <c r="A91">
+      <c r="O90" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91" t="s">
+        <v>104</v>
+      </c>
+      <c r="B91">
         <v>-1.559544794738875</v>
       </c>
-      <c r="B91">
+      <c r="C91">
         <v>-0.07508356326072278</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>1.273980074288888</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>1.189670708951309</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>0.5337353487177113</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>0.9776208901264263</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>1.686051737538775</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>1.702084872511445</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>1.342002511450486</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>1.67074036190268</v>
       </c>
-      <c r="K91">
+      <c r="L91">
         <v>1.554003333929708</v>
       </c>
-      <c r="L91">
+      <c r="M91">
         <v>1.114976266310302</v>
       </c>
-      <c r="M91">
+      <c r="N91">
         <v>0.5084868877608985</v>
       </c>
-      <c r="N91" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
-      <c r="A92">
+      <c r="O91" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" t="s">
+        <v>105</v>
+      </c>
+      <c r="B92">
         <v>-2.136787271843879</v>
       </c>
-      <c r="B92">
+      <c r="C92">
         <v>0.7818750838985269</v>
       </c>
-      <c r="C92">
+      <c r="D92">
         <v>1.501739261075465</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>1.220098504595022</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>0.9108248379557378</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>1.510855799102182</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>1.607729277310644</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>1.148555302985863</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>1.288733281578486</v>
       </c>
-      <c r="J92">
+      <c r="K92">
         <v>2.535150268009093</v>
       </c>
-      <c r="K92">
+      <c r="L92">
         <v>1.950359006249577</v>
       </c>
-      <c r="L92">
+      <c r="M92">
         <v>1.048196483878472</v>
       </c>
-      <c r="M92">
+      <c r="N92">
         <v>1.015373546290971</v>
       </c>
-      <c r="N92" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
-      <c r="A93">
+      <c r="O92" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93" t="s">
+        <v>106</v>
+      </c>
+      <c r="B93">
         <v>-1.675572983023057</v>
       </c>
-      <c r="B93">
+      <c r="C93">
         <v>0.3970991696615477</v>
       </c>
-      <c r="C93">
+      <c r="D93">
         <v>1.49405665661581</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>0.8761623231707146</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>0.2961793777773493</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>1.473318463475017</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>1.710120444104426</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>0.9643634028290247</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <v>0.8579336036431838</v>
       </c>
-      <c r="J93">
+      <c r="K93">
         <v>2.112310026609468</v>
       </c>
-      <c r="K93">
+      <c r="L93">
         <v>1.687147058980871</v>
       </c>
-      <c r="L93">
+      <c r="M93">
         <v>1.061092535718598</v>
       </c>
-      <c r="M93">
+      <c r="N93">
         <v>1.465593257679808</v>
       </c>
-      <c r="N93" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
-      <c r="A94">
+      <c r="O93" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94" t="s">
+        <v>107</v>
+      </c>
+      <c r="B94">
         <v>-1.895743248311637</v>
       </c>
-      <c r="B94">
+      <c r="C94">
         <v>1.817406296678471</v>
       </c>
-      <c r="C94">
+      <c r="D94">
         <v>0.9090197338671822</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <v>1.160625661079988</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>0.5101781818717956</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>0.6621430118312402</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>2.168933252114565</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>1.719797429471074</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>0.7145648049869124</v>
       </c>
-      <c r="J94">
+      <c r="K94">
         <v>1.765776900948892</v>
       </c>
-      <c r="K94">
+      <c r="L94">
         <v>1.668326860452343</v>
       </c>
-      <c r="L94">
+      <c r="M94">
         <v>0.7988303942003764</v>
       </c>
-      <c r="M94">
+      <c r="N94">
         <v>1.111206558327923</v>
       </c>
-      <c r="N94" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
-      <c r="A95">
+      <c r="O94" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95" t="s">
+        <v>108</v>
+      </c>
+      <c r="B95">
         <v>-1.68942796346436</v>
       </c>
-      <c r="B95">
+      <c r="C95">
         <v>1.13419714400468</v>
       </c>
-      <c r="C95">
+      <c r="D95">
         <v>0.5594563932148044</v>
       </c>
-      <c r="D95">
+      <c r="E95">
         <v>0.8125060757747073</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>1.030392759953095</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>1.26833083000333</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>1.878834631693533</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>1.368570157327348</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>0.5815216764160529</v>
       </c>
-      <c r="J95">
+      <c r="K95">
         <v>1.168885553383433</v>
       </c>
-      <c r="K95">
+      <c r="L95">
         <v>1.32420309904952</v>
       </c>
-      <c r="L95">
+      <c r="M95">
         <v>1.374216523447197</v>
       </c>
-      <c r="M95">
+      <c r="N95">
         <v>1.856673690019739</v>
       </c>
-      <c r="N95" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
-      <c r="A96">
+      <c r="O95" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" t="s">
+        <v>109</v>
+      </c>
+      <c r="B96">
         <v>-0.4423165430149673</v>
       </c>
-      <c r="B96">
+      <c r="C96">
         <v>0.370524391987859</v>
       </c>
-      <c r="C96">
+      <c r="D96">
         <v>-0.326443743485241</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <v>-0.2761974957445723</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>0.3913431469992229</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>0.2694892740816638</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>-0.3862374869663637</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>-0.4219117585465566</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>0.04614565416948509</v>
       </c>
-      <c r="J96">
+      <c r="K96">
         <v>-0.4252585153303368</v>
       </c>
-      <c r="K96">
+      <c r="L96">
         <v>-0.9692587844597896</v>
       </c>
-      <c r="L96">
+      <c r="M96">
         <v>-0.5803164040353521</v>
       </c>
-      <c r="M96">
+      <c r="N96">
         <v>0.1007866298328397</v>
       </c>
-      <c r="N96" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
-      <c r="A97">
+      <c r="O96" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97" t="s">
+        <v>110</v>
+      </c>
+      <c r="B97">
         <v>-0.1739818795798317</v>
       </c>
-      <c r="B97">
+      <c r="C97">
         <v>0.3412711040756625</v>
       </c>
-      <c r="C97">
+      <c r="D97">
         <v>-0.4094250149744293</v>
       </c>
-      <c r="D97">
+      <c r="E97">
         <v>-0.49035033235673</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>0.6352163507746951</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>0.4063538774239653</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>-0.8749225324048034</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>-0.4991162614153831</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <v>0.2375844220256831</v>
       </c>
-      <c r="J97">
+      <c r="K97">
         <v>-0.5013924572396158</v>
       </c>
-      <c r="K97">
+      <c r="L97">
         <v>-0.3781007415820215</v>
       </c>
-      <c r="L97">
+      <c r="M97">
         <v>0.6347323282885843</v>
       </c>
-      <c r="M97">
+      <c r="N97">
         <v>0.9123312252910108</v>
       </c>
-      <c r="N97" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
-      <c r="A98">
+      <c r="O97" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" t="s">
+        <v>111</v>
+      </c>
+      <c r="B98">
         <v>-0.2764125652172708</v>
       </c>
-      <c r="B98">
+      <c r="C98">
         <v>-0.1088763595276062</v>
       </c>
-      <c r="C98">
+      <c r="D98">
         <v>-0.1289407379876653</v>
       </c>
-      <c r="D98">
+      <c r="E98">
         <v>0.5021504986828027</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>0.8390761769193725</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>-0.1979608900855764</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>-0.1853843271281147</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>0.2531543550381819</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <v>0.0798778229046469</v>
       </c>
-      <c r="J98">
+      <c r="K98">
         <v>-0.4398562529715541</v>
       </c>
-      <c r="K98">
+      <c r="L98">
         <v>-0.2452641302310186</v>
       </c>
-      <c r="L98">
+      <c r="M98">
         <v>-0.08884987726800221</v>
       </c>
-      <c r="M98">
+      <c r="N98">
         <v>-0.4187925956270747</v>
       </c>
-      <c r="N98" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
-      <c r="A99">
+      <c r="O98" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99" t="s">
+        <v>112</v>
+      </c>
+      <c r="B99">
         <v>-0.3111413039022356</v>
       </c>
-      <c r="B99">
+      <c r="C99">
         <v>0.4096034745282136</v>
       </c>
-      <c r="C99">
+      <c r="D99">
         <v>-0.6467230117537447</v>
       </c>
-      <c r="D99">
+      <c r="E99">
         <v>-0.0003414638536416746</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>0.8872213537732275</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>-0.09249946026174041</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>-0.1951903475344684</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>-0.09424241648836094</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <v>-0.5427490449079148</v>
       </c>
-      <c r="J99">
+      <c r="K99">
         <v>-0.7179531658805084</v>
       </c>
-      <c r="K99">
+      <c r="L99">
         <v>-0.4528434845371246</v>
       </c>
-      <c r="L99">
+      <c r="M99">
         <v>0.07220828665350119</v>
       </c>
-      <c r="M99">
+      <c r="N99">
         <v>0.8641695223353151</v>
       </c>
-      <c r="N99" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
-      <c r="A100">
+      <c r="O99" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100" t="s">
+        <v>113</v>
+      </c>
+      <c r="B100">
         <v>-0.4675466917878877</v>
       </c>
-      <c r="B100">
+      <c r="C100">
         <v>0.931677607670153</v>
       </c>
-      <c r="C100">
+      <c r="D100">
         <v>0.3363957558398551</v>
       </c>
-      <c r="D100">
+      <c r="E100">
         <v>-0.0632329299196958</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <v>1.098980262766849</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>1.239766351124385</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <v>-0.3536007702351942</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>-0.5003602958913281</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <v>0.5259043876263962</v>
       </c>
-      <c r="J100">
+      <c r="K100">
         <v>0.4717518313371831</v>
       </c>
-      <c r="K100">
+      <c r="L100">
         <v>-0.2974984498829696</v>
       </c>
-      <c r="L100">
+      <c r="M100">
         <v>-0.08825032579735599</v>
       </c>
-      <c r="M100">
+      <c r="N100">
         <v>1.058226331034336</v>
       </c>
-      <c r="N100" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
-      <c r="A101">
+      <c r="O100" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" t="s">
+        <v>114</v>
+      </c>
+      <c r="B101">
         <v>-0.351355322771569</v>
       </c>
-      <c r="B101">
+      <c r="C101">
         <v>0.6698965800292004</v>
       </c>
-      <c r="C101">
+      <c r="D101">
         <v>-0.05145696834844642</v>
       </c>
-      <c r="D101">
+      <c r="E101">
         <v>-0.1818437321132105</v>
       </c>
-      <c r="E101">
+      <c r="F101">
         <v>1.100735237947347</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>0.941095987411201</v>
       </c>
-      <c r="G101">
+      <c r="H101">
         <v>-0.3761071395988259</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>-0.08420035459663616</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <v>0.4804986677404855</v>
       </c>
-      <c r="J101">
+      <c r="K101">
         <v>-0.5299408661961685</v>
       </c>
-      <c r="K101">
+      <c r="L101">
         <v>-0.7659781186803449</v>
       </c>
-      <c r="L101">
+      <c r="M101">
         <v>0.196075827588045</v>
       </c>
-      <c r="M101">
+      <c r="N101">
         <v>1.102923696898563</v>
       </c>
-      <c r="N101" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14">
-      <c r="A102">
+      <c r="O101" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102" t="s">
+        <v>115</v>
+      </c>
+      <c r="B102">
         <v>-0.5147988828908587</v>
       </c>
-      <c r="B102">
+      <c r="C102">
         <v>0.7617771805968525</v>
       </c>
-      <c r="C102">
+      <c r="D102">
         <v>1.223423500167942</v>
       </c>
-      <c r="D102">
+      <c r="E102">
         <v>1.017383321252555</v>
       </c>
-      <c r="E102">
+      <c r="F102">
         <v>0.4266654821858517</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>-0.2952218124245619</v>
       </c>
-      <c r="G102">
+      <c r="H102">
         <v>0.1530690870964569</v>
       </c>
-      <c r="H102">
+      <c r="I102">
         <v>0.690616801425364</v>
       </c>
-      <c r="I102">
+      <c r="J102">
         <v>1.05202635259224</v>
       </c>
-      <c r="J102">
+      <c r="K102">
         <v>0.441933087608937</v>
       </c>
-      <c r="K102">
+      <c r="L102">
         <v>-0.4308104852854941</v>
       </c>
-      <c r="L102">
+      <c r="M102">
         <v>-0.6758360331033743</v>
       </c>
-      <c r="M102">
+      <c r="N102">
         <v>0.08479997640625091</v>
       </c>
-      <c r="N102" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14">
-      <c r="A103">
+      <c r="O102" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103" t="s">
+        <v>116</v>
+      </c>
+      <c r="B103">
         <v>-0.1783168693573345</v>
       </c>
-      <c r="B103">
+      <c r="C103">
         <v>0.4830049209123994</v>
       </c>
-      <c r="C103">
+      <c r="D103">
         <v>0.3274386147366371</v>
       </c>
-      <c r="D103">
+      <c r="E103">
         <v>0.1774630069783302</v>
       </c>
-      <c r="E103">
+      <c r="F103">
         <v>0.321368665892673</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>-0.05086925425245656</v>
       </c>
-      <c r="G103">
+      <c r="H103">
         <v>-0.4692848013335625</v>
       </c>
-      <c r="H103">
+      <c r="I103">
         <v>-0.3401025122184024</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <v>0.07380293082137476</v>
       </c>
-      <c r="J103">
+      <c r="K103">
         <v>-0.3610927436528402</v>
       </c>
-      <c r="K103">
+      <c r="L103">
         <v>-0.6897789943843804</v>
       </c>
-      <c r="L103">
+      <c r="M103">
         <v>-0.362521824985902</v>
       </c>
-      <c r="M103">
+      <c r="N103">
         <v>0.602126555904549</v>
       </c>
-      <c r="N103" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14">
-      <c r="A104">
+      <c r="O103" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104" t="s">
+        <v>117</v>
+      </c>
+      <c r="B104">
         <v>-0.75288625881336</v>
       </c>
-      <c r="B104">
+      <c r="C104">
         <v>1.770302324851433</v>
       </c>
-      <c r="C104">
+      <c r="D104">
         <v>0.5212865018086238</v>
       </c>
-      <c r="D104">
+      <c r="E104">
         <v>-0.4172948067764211</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>0.8560540225865173</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>0.8900160757207402</v>
       </c>
-      <c r="G104">
+      <c r="H104">
         <v>-0.6493515513868295</v>
       </c>
-      <c r="H104">
+      <c r="I104">
         <v>-0.4346592207142821</v>
       </c>
-      <c r="I104">
+      <c r="J104">
         <v>-0.2043102459095796</v>
       </c>
-      <c r="J104">
+      <c r="K104">
         <v>-1.138739414218022</v>
       </c>
-      <c r="K104">
+      <c r="L104">
         <v>-0.1125368152262511</v>
       </c>
-      <c r="L104">
+      <c r="M104">
         <v>1.520990658341606</v>
       </c>
-      <c r="M104">
+      <c r="N104">
         <v>1.114570382576769</v>
       </c>
-      <c r="N104" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14">
-      <c r="A105">
+      <c r="O104" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105" t="s">
+        <v>118</v>
+      </c>
+      <c r="B105">
         <v>-0.6594392074988451</v>
       </c>
-      <c r="B105">
+      <c r="C105">
         <v>0.5203419389531622</v>
       </c>
-      <c r="C105">
+      <c r="D105">
         <v>0.3124752145173406</v>
       </c>
-      <c r="D105">
+      <c r="E105">
         <v>-0.05221267160960994</v>
       </c>
-      <c r="E105">
+      <c r="F105">
         <v>0.3966501535355504</v>
       </c>
-      <c r="F105">
+      <c r="G105">
         <v>0.8111833570302599</v>
       </c>
-      <c r="G105">
+      <c r="H105">
         <v>0.0001305630429980714</v>
       </c>
-      <c r="H105">
+      <c r="I105">
         <v>-0.6909745672659063</v>
       </c>
-      <c r="I105">
+      <c r="J105">
         <v>-0.8140336775302287</v>
       </c>
-      <c r="J105">
+      <c r="K105">
         <v>-0.418200968814244</v>
       </c>
-      <c r="K105">
+      <c r="L105">
         <v>-0.1267688254019359</v>
       </c>
-      <c r="L105">
+      <c r="M105">
         <v>-0.04302633440059215</v>
       </c>
-      <c r="M105">
+      <c r="N105">
         <v>0.2986665855168574</v>
       </c>
-      <c r="N105" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14">
-      <c r="A106">
+      <c r="O105" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106" t="s">
+        <v>119</v>
+      </c>
+      <c r="B106">
         <v>-0.4975986974407517</v>
       </c>
-      <c r="B106">
+      <c r="C106">
         <v>0.9931212178575103</v>
       </c>
-      <c r="C106">
+      <c r="D106">
         <v>1.773003949670001</v>
       </c>
-      <c r="D106">
+      <c r="E106">
         <v>0.7665274659733449</v>
       </c>
-      <c r="E106">
+      <c r="F106">
         <v>0.007213140175962788</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <v>0.8941909096981573</v>
       </c>
-      <c r="G106">
+      <c r="H106">
         <v>0.9957062893331677</v>
       </c>
-      <c r="H106">
+      <c r="I106">
         <v>0.1317154335292043</v>
       </c>
-      <c r="I106">
+      <c r="J106">
         <v>-0.4912445327687942</v>
       </c>
-      <c r="J106">
+      <c r="K106">
         <v>-0.1756403878279764</v>
       </c>
-      <c r="K106">
+      <c r="L106">
         <v>0.1135106106747184</v>
       </c>
-      <c r="L106">
+      <c r="M106">
         <v>0.1745526546381692</v>
       </c>
-      <c r="M106">
+      <c r="N106">
         <v>0.6747257021862427</v>
       </c>
-      <c r="N106" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14">
-      <c r="A107">
+      <c r="O106" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107" t="s">
+        <v>120</v>
+      </c>
+      <c r="B107">
         <v>-0.4615591627107536</v>
       </c>
-      <c r="B107">
+      <c r="C107">
         <v>1.41228084064581</v>
       </c>
-      <c r="C107">
+      <c r="D107">
         <v>1.194473231709262</v>
       </c>
-      <c r="D107">
+      <c r="E107">
         <v>0.1797537567772211</v>
       </c>
-      <c r="E107">
+      <c r="F107">
         <v>0.09235033571614312</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>0.5625121137934463</v>
       </c>
-      <c r="G107">
+      <c r="H107">
         <v>0.2572520155619583</v>
       </c>
-      <c r="H107">
+      <c r="I107">
         <v>0.002587767894686299</v>
       </c>
-      <c r="I107">
+      <c r="J107">
         <v>0.007968230864209617</v>
       </c>
-      <c r="J107">
+      <c r="K107">
         <v>-0.2429301721256273</v>
       </c>
-      <c r="K107">
+      <c r="L107">
         <v>-0.4529889119069088</v>
       </c>
-      <c r="L107">
+      <c r="M107">
         <v>-0.2330098020712291</v>
       </c>
-      <c r="M107">
+      <c r="N107">
         <v>1.043147360061178</v>
       </c>
-      <c r="N107" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14">
-      <c r="A108">
+      <c r="O107" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108" t="s">
+        <v>121</v>
+      </c>
+      <c r="B108">
         <v>0.07819588505328444</v>
       </c>
-      <c r="B108">
+      <c r="C108">
         <v>0.7475151620705112</v>
       </c>
-      <c r="C108">
+      <c r="D108">
         <v>-0.5972930086026886</v>
       </c>
-      <c r="D108">
+      <c r="E108">
         <v>-0.6408456714195</v>
       </c>
-      <c r="E108">
+      <c r="F108">
         <v>0.3432547371249737</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>0.05176210867873208</v>
       </c>
-      <c r="G108">
+      <c r="H108">
         <v>-0.8984796737372392</v>
       </c>
-      <c r="H108">
+      <c r="I108">
         <v>-0.997613500743496</v>
       </c>
-      <c r="I108">
+      <c r="J108">
         <v>-0.1624036879408419</v>
       </c>
-      <c r="J108">
+      <c r="K108">
         <v>-0.06088661677498375</v>
       </c>
-      <c r="K108">
+      <c r="L108">
         <v>-0.8399798745608467</v>
       </c>
-      <c r="L108">
+      <c r="M108">
         <v>-0.4649562810153821</v>
       </c>
-      <c r="M108">
+      <c r="N108">
         <v>0.8939960249293035</v>
       </c>
-      <c r="N108" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14">
-      <c r="A109">
+      <c r="O108" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="A109" t="s">
+        <v>122</v>
+      </c>
+      <c r="B109">
         <v>0.06328223617356955</v>
       </c>
-      <c r="B109">
+      <c r="C109">
         <v>1.411882726013492</v>
       </c>
-      <c r="C109">
+      <c r="D109">
         <v>-0.3570588849372752</v>
       </c>
-      <c r="D109">
+      <c r="E109">
         <v>-0.9293463796680974</v>
       </c>
-      <c r="E109">
+      <c r="F109">
         <v>0.6535823044257719</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <v>1.146377627949415</v>
       </c>
-      <c r="G109">
+      <c r="H109">
         <v>-0.635160140815796</v>
       </c>
-      <c r="H109">
+      <c r="I109">
         <v>-1.164501186872039</v>
       </c>
-      <c r="I109">
+      <c r="J109">
         <v>-0.2134799444423386</v>
       </c>
-      <c r="J109">
+      <c r="K109">
         <v>-0.2560335602397776</v>
       </c>
-      <c r="K109">
+      <c r="L109">
         <v>-1.150664223123763</v>
       </c>
-      <c r="L109">
+      <c r="M109">
         <v>-0.6826359201455887</v>
       </c>
-      <c r="M109">
+      <c r="N109">
         <v>0.8244667621569848</v>
       </c>
-      <c r="N109" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14">
-      <c r="A110">
+      <c r="O109" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="A110" t="s">
+        <v>123</v>
+      </c>
+      <c r="B110">
         <v>-0.0526971316456697</v>
       </c>
-      <c r="B110">
+      <c r="C110">
         <v>0.523024830956491</v>
       </c>
-      <c r="C110">
+      <c r="D110">
         <v>-0.9933612788875775</v>
       </c>
-      <c r="D110">
+      <c r="E110">
         <v>-0.3683397380474741</v>
       </c>
-      <c r="E110">
+      <c r="F110">
         <v>0.416319488335323</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>-0.4385517506209285</v>
       </c>
-      <c r="G110">
+      <c r="H110">
         <v>-0.4625880550656387</v>
       </c>
-      <c r="H110">
+      <c r="I110">
         <v>-0.7571776086245691</v>
       </c>
-      <c r="I110">
+      <c r="J110">
         <v>-0.8631460482160307</v>
       </c>
-      <c r="J110">
+      <c r="K110">
         <v>-0.1230167846613321</v>
       </c>
-      <c r="K110">
+      <c r="L110">
         <v>-0.5131810894953753</v>
       </c>
-      <c r="L110">
+      <c r="M110">
         <v>-0.6523046216005243</v>
       </c>
-      <c r="M110">
+      <c r="N110">
         <v>0.6483617141396574</v>
       </c>
-      <c r="N110" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14">
-      <c r="A111">
+      <c r="O110" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="A111" t="s">
+        <v>124</v>
+      </c>
+      <c r="B111">
         <v>0.4040403874172685</v>
       </c>
-      <c r="B111">
+      <c r="C111">
         <v>-0.3165112933075817</v>
       </c>
-      <c r="C111">
+      <c r="D111">
         <v>-0.112118056816099</v>
       </c>
-      <c r="D111">
+      <c r="E111">
         <v>-0.2280590897108295</v>
       </c>
-      <c r="E111">
+      <c r="F111">
         <v>-0.8752408547317491</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <v>-0.663429161245097</v>
       </c>
-      <c r="G111">
+      <c r="H111">
         <v>-0.4488877418534436</v>
       </c>
-      <c r="H111">
+      <c r="I111">
         <v>-1.061323284869322</v>
       </c>
-      <c r="I111">
+      <c r="J111">
         <v>-0.8823263771867629</v>
       </c>
-      <c r="J111">
+      <c r="K111">
         <v>-0.05326264137787577</v>
       </c>
-      <c r="K111">
+      <c r="L111">
         <v>-0.3768602431068635</v>
       </c>
-      <c r="L111">
+      <c r="M111">
         <v>-0.2836635138332475</v>
       </c>
-      <c r="M111">
+      <c r="N111">
         <v>0.8523802156453864</v>
       </c>
-      <c r="N111" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14">
-      <c r="A112">
+      <c r="O111" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112" t="s">
+        <v>125</v>
+      </c>
+      <c r="B112">
         <v>1.016800087154734</v>
       </c>
-      <c r="B112">
+      <c r="C112">
         <v>0.004917446910475699</v>
       </c>
-      <c r="C112">
+      <c r="D112">
         <v>-0.4292253239134765</v>
       </c>
-      <c r="D112">
+      <c r="E112">
         <v>-0.4530920111853881</v>
       </c>
-      <c r="E112">
+      <c r="F112">
         <v>-0.1562393285540709</v>
       </c>
-      <c r="F112">
+      <c r="G112">
         <v>-0.06876734922288189</v>
       </c>
-      <c r="G112">
+      <c r="H112">
         <v>-0.5545067121803566</v>
       </c>
-      <c r="H112">
+      <c r="I112">
         <v>-1.044510948698581</v>
       </c>
-      <c r="I112">
+      <c r="J112">
         <v>-0.6050578501652358</v>
       </c>
-      <c r="J112">
+      <c r="K112">
         <v>0.4325407920489095</v>
       </c>
-      <c r="K112">
+      <c r="L112">
         <v>-0.1971219500877794</v>
       </c>
-      <c r="L112">
+      <c r="M112">
         <v>-1.149351222573436</v>
       </c>
-      <c r="M112">
+      <c r="N112">
         <v>-0.7312798950630474</v>
       </c>
-      <c r="N112" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14">
-      <c r="A113">
+      <c r="O112" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="A113" t="s">
+        <v>126</v>
+      </c>
+      <c r="B113">
         <v>0.6777479770900556</v>
       </c>
-      <c r="B113">
+      <c r="C113">
         <v>0.6342177469900311</v>
       </c>
-      <c r="C113">
+      <c r="D113">
         <v>-0.8576089025344455</v>
       </c>
-      <c r="D113">
+      <c r="E113">
         <v>-0.5794881435501781</v>
       </c>
-      <c r="E113">
+      <c r="F113">
         <v>0.7684557949055478</v>
       </c>
-      <c r="F113">
+      <c r="G113">
         <v>-0.0545118226150748</v>
       </c>
-      <c r="G113">
+      <c r="H113">
         <v>-1.363699979436893</v>
       </c>
-      <c r="H113">
+      <c r="I113">
         <v>-1.361857629337171</v>
       </c>
-      <c r="I113">
+      <c r="J113">
         <v>-0.2024609038712903</v>
       </c>
-      <c r="J113">
+      <c r="K113">
         <v>0.06546753909052108</v>
       </c>
-      <c r="K113">
+      <c r="L113">
         <v>-1.018088056234173</v>
       </c>
-      <c r="L113">
+      <c r="M113">
         <v>-0.9111041721641769</v>
       </c>
-      <c r="M113">
+      <c r="N113">
         <v>0.7243076665493451</v>
       </c>
-      <c r="N113" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14">
-      <c r="A114">
+      <c r="O113" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="A114" t="s">
+        <v>127</v>
+      </c>
+      <c r="B114">
         <v>1.038337937476314</v>
       </c>
-      <c r="B114">
+      <c r="C114">
         <v>0.116184226979566</v>
       </c>
-      <c r="C114">
+      <c r="D114">
         <v>-0.9445798673889175</v>
       </c>
-      <c r="D114">
+      <c r="E114">
         <v>-0.8444303364374585</v>
       </c>
-      <c r="E114">
+      <c r="F114">
         <v>-0.1551464935909332</v>
       </c>
-      <c r="F114">
+      <c r="G114">
         <v>-0.5232496780031531</v>
       </c>
-      <c r="G114">
+      <c r="H114">
         <v>-1.597976454188144</v>
       </c>
-      <c r="H114">
+      <c r="I114">
         <v>-2.156181424649443</v>
       </c>
-      <c r="I114">
+      <c r="J114">
         <v>-1.252253915635442</v>
       </c>
-      <c r="J114">
+      <c r="K114">
         <v>-0.06367077206652901</v>
       </c>
-      <c r="K114">
+      <c r="L114">
         <v>-0.5738628424529234</v>
       </c>
-      <c r="L114">
+      <c r="M114">
         <v>-0.8814161229689672</v>
       </c>
-      <c r="M114">
+      <c r="N114">
         <v>0.07297775290523557</v>
       </c>
-      <c r="N114" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14">
-      <c r="A115">
+      <c r="O114" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="A115" t="s">
+        <v>128</v>
+      </c>
+      <c r="B115">
         <v>0.903796092603022</v>
       </c>
-      <c r="B115">
+      <c r="C115">
         <v>0.5396780411423601</v>
       </c>
-      <c r="C115">
+      <c r="D115">
         <v>-0.7287282350368255</v>
       </c>
-      <c r="D115">
+      <c r="E115">
         <v>-0.8332380257685077</v>
       </c>
-      <c r="E115">
+      <c r="F115">
         <v>-0.3530487523160692</v>
       </c>
-      <c r="F115">
+      <c r="G115">
         <v>-0.3814398824385765</v>
       </c>
-      <c r="G115">
+      <c r="H115">
         <v>-0.7847597688218212</v>
       </c>
-      <c r="H115">
+      <c r="I115">
         <v>-1.426364102826185</v>
       </c>
-      <c r="I115">
+      <c r="J115">
         <v>-1.26954772452576</v>
       </c>
-      <c r="J115">
+      <c r="K115">
         <v>-0.2975044147512674</v>
       </c>
-      <c r="K115">
+      <c r="L115">
         <v>-0.8855332668668457</v>
       </c>
-      <c r="L115">
+      <c r="M115">
         <v>-1.586079424917087</v>
       </c>
-      <c r="M115">
+      <c r="N115">
         <v>-0.04300369655696173</v>
       </c>
-      <c r="N115" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14">
-      <c r="A116">
+      <c r="O115" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="A116" t="s">
+        <v>129</v>
+      </c>
+      <c r="B116">
         <v>-0.5428552684425089</v>
       </c>
-      <c r="B116">
+      <c r="C116">
         <v>0.1288631764726794</v>
       </c>
-      <c r="C116">
+      <c r="D116">
         <v>1.855278945959706</v>
       </c>
-      <c r="D116">
+      <c r="E116">
         <v>0.8757210190277263</v>
       </c>
-      <c r="E116">
+      <c r="F116">
         <v>-0.1342449481840619</v>
       </c>
-      <c r="F116">
+      <c r="G116">
         <v>0.5342506015643211</v>
       </c>
-      <c r="G116">
+      <c r="H116">
         <v>0.4494002739848379</v>
       </c>
-      <c r="H116">
+      <c r="I116">
         <v>0.1386652799765507</v>
       </c>
-      <c r="I116">
+      <c r="J116">
         <v>-0.2199214828362841</v>
       </c>
-      <c r="J116">
+      <c r="K116">
         <v>-0.6826536326983557</v>
       </c>
-      <c r="K116">
+      <c r="L116">
         <v>-0.5617848434644445</v>
       </c>
-      <c r="L116">
+      <c r="M116">
         <v>-1.270951444164063</v>
       </c>
-      <c r="M116">
+      <c r="N116">
         <v>-1.86624946898806</v>
       </c>
-      <c r="N116" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14">
-      <c r="A117">
+      <c r="O116" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="A117" t="s">
+        <v>130</v>
+      </c>
+      <c r="B117">
         <v>-0.5084074146243369</v>
       </c>
-      <c r="B117">
+      <c r="C117">
         <v>0.1892132233539566</v>
       </c>
-      <c r="C117">
+      <c r="D117">
         <v>0.7670972243410621</v>
       </c>
-      <c r="D117">
+      <c r="E117">
         <v>0.372455524087672</v>
       </c>
-      <c r="E117">
+      <c r="F117">
         <v>0.5993977987563768</v>
       </c>
-      <c r="F117">
+      <c r="G117">
         <v>0.09784920962090521</v>
       </c>
-      <c r="G117">
+      <c r="H117">
         <v>-0.8743457463886068</v>
       </c>
-      <c r="H117">
+      <c r="I117">
         <v>-0.2877442544477438</v>
       </c>
-      <c r="I117">
+      <c r="J117">
         <v>0.2792087809508607</v>
       </c>
-      <c r="J117">
+      <c r="K117">
         <v>-0.9069582895201824</v>
       </c>
-      <c r="K117">
+      <c r="L117">
         <v>-1.069326966187364</v>
       </c>
-      <c r="L117">
+      <c r="M117">
         <v>-1.309452382230394</v>
       </c>
-      <c r="M117">
+      <c r="N117">
         <v>-1.712709919573284</v>
       </c>
-      <c r="N117" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14">
-      <c r="A118">
+      <c r="O117" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118" t="s">
+        <v>131</v>
+      </c>
+      <c r="B118">
         <v>-0.6197856208161127</v>
       </c>
-      <c r="B118">
+      <c r="C118">
         <v>0.2425393012269837</v>
       </c>
-      <c r="C118">
+      <c r="D118">
         <v>2.048720739477979</v>
       </c>
-      <c r="D118">
+      <c r="E118">
         <v>1.15570833903062</v>
       </c>
-      <c r="E118">
+      <c r="F118">
         <v>0.03971604870875959</v>
       </c>
-      <c r="F118">
+      <c r="G118">
         <v>0.7910883390531167</v>
       </c>
-      <c r="G118">
+      <c r="H118">
         <v>1.102226356184187</v>
       </c>
-      <c r="H118">
+      <c r="I118">
         <v>0.4261745892460133</v>
       </c>
-      <c r="I118">
+      <c r="J118">
         <v>-1.282150372653049</v>
       </c>
-      <c r="J118">
+      <c r="K118">
         <v>-2.118039880018661</v>
       </c>
-      <c r="K118">
+      <c r="L118">
         <v>-0.3915863450295706</v>
       </c>
-      <c r="L118">
+      <c r="M118">
         <v>0.3642863609707752</v>
       </c>
-      <c r="M118">
+      <c r="N118">
         <v>-0.6792329213487612</v>
       </c>
-      <c r="N118" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14">
-      <c r="A119">
+      <c r="O118" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
+      <c r="A119" t="s">
+        <v>132</v>
+      </c>
+      <c r="B119">
         <v>-0.1128773831295273</v>
       </c>
-      <c r="B119">
+      <c r="C119">
         <v>0.2479013294352281</v>
       </c>
-      <c r="C119">
+      <c r="D119">
         <v>0.5006542401467032</v>
       </c>
-      <c r="D119">
+      <c r="E119">
         <v>0.2420076446196957</v>
       </c>
-      <c r="E119">
+      <c r="F119">
         <v>0.01120518622944525</v>
       </c>
-      <c r="F119">
+      <c r="G119">
         <v>-0.4393207815201147</v>
       </c>
-      <c r="G119">
+      <c r="H119">
         <v>-0.336734057112997</v>
       </c>
-      <c r="H119">
+      <c r="I119">
         <v>0.2634850871170381</v>
       </c>
-      <c r="I119">
+      <c r="J119">
         <v>-0.01015057648469768</v>
       </c>
-      <c r="J119">
+      <c r="K119">
         <v>-1.440127961384999</v>
       </c>
-      <c r="K119">
+      <c r="L119">
         <v>-1.025341961395225</v>
       </c>
-      <c r="L119">
+      <c r="M119">
         <v>-0.4523056414352618</v>
       </c>
-      <c r="M119">
+      <c r="N119">
         <v>-0.5851259973139555</v>
       </c>
-      <c r="N119" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14">
-      <c r="A120">
+      <c r="O119" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="A120" t="s">
+        <v>133</v>
+      </c>
+      <c r="B120">
         <v>0.03906327292110341</v>
       </c>
-      <c r="B120">
+      <c r="C120">
         <v>-0.02745440562155311</v>
       </c>
-      <c r="C120">
+      <c r="D120">
         <v>0.1350533832076701</v>
       </c>
-      <c r="D120">
+      <c r="E120">
         <v>-0.2504577752742493</v>
       </c>
-      <c r="E120">
+      <c r="F120">
         <v>0.1227689641021624</v>
       </c>
-      <c r="F120">
+      <c r="G120">
         <v>0.4888971909427955</v>
       </c>
-      <c r="G120">
+      <c r="H120">
         <v>-0.2545126971619631</v>
       </c>
-      <c r="H120">
+      <c r="I120">
         <v>0.004514493671900197</v>
       </c>
-      <c r="I120">
+      <c r="J120">
         <v>0.3068740243260629</v>
       </c>
-      <c r="J120">
+      <c r="K120">
         <v>-0.6538703917682154</v>
       </c>
-      <c r="K120">
+      <c r="L120">
         <v>-0.5884853687747931</v>
       </c>
-      <c r="L120">
+      <c r="M120">
         <v>-0.2046014173102593</v>
       </c>
-      <c r="M120">
+      <c r="N120">
         <v>-0.7404647770322961</v>
       </c>
-      <c r="N120" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14">
-      <c r="A121">
+      <c r="O120" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="A121" t="s">
+        <v>134</v>
+      </c>
+      <c r="B121">
         <v>-0.2643024148175454</v>
       </c>
-      <c r="B121">
+      <c r="C121">
         <v>-0.1165701125870811</v>
       </c>
-      <c r="C121">
+      <c r="D121">
         <v>0.1316695236653892</v>
       </c>
-      <c r="D121">
+      <c r="E121">
         <v>0.1773390855245803</v>
       </c>
-      <c r="E121">
+      <c r="F121">
         <v>0.3942594446680068</v>
       </c>
-      <c r="F121">
+      <c r="G121">
         <v>-0.3724650346718482</v>
       </c>
-      <c r="G121">
+      <c r="H121">
         <v>-0.8703697137114605</v>
       </c>
-      <c r="H121">
+      <c r="I121">
         <v>-0.2044971337027099</v>
       </c>
-      <c r="I121">
+      <c r="J121">
         <v>0.2901777196841875</v>
       </c>
-      <c r="J121">
+      <c r="K121">
         <v>-0.4768798540602959</v>
       </c>
-      <c r="K121">
+      <c r="L121">
         <v>-0.6499346048908801</v>
       </c>
-      <c r="L121">
+      <c r="M121">
         <v>-0.7409402814511743</v>
       </c>
-      <c r="M121">
+      <c r="N121">
         <v>-1.187187091120441</v>
       </c>
-      <c r="N121" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14">
-      <c r="A122">
+      <c r="O121" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122" t="s">
+        <v>135</v>
+      </c>
+      <c r="B122">
         <v>0.2455497637824258</v>
       </c>
-      <c r="B122">
+      <c r="C122">
         <v>0.1477742474742288</v>
       </c>
-      <c r="C122">
+      <c r="D122">
         <v>-0.460271335049075</v>
       </c>
-      <c r="D122">
+      <c r="E122">
         <v>-0.4938048186828271</v>
       </c>
-      <c r="E122">
+      <c r="F122">
         <v>-0.06289944567201991</v>
       </c>
-      <c r="F122">
+      <c r="G122">
         <v>-0.0130657858178938</v>
       </c>
-      <c r="G122">
+      <c r="H122">
         <v>-0.4151387837172393</v>
       </c>
-      <c r="H122">
+      <c r="I122">
         <v>-0.5993630729209083</v>
       </c>
-      <c r="I122">
+      <c r="J122">
         <v>-0.4243159131816664</v>
       </c>
-      <c r="J122">
+      <c r="K122">
         <v>-0.7293167519524851</v>
       </c>
-      <c r="K122">
+      <c r="L122">
         <v>-1.51169173334774</v>
       </c>
-      <c r="L122">
+      <c r="M122">
         <v>-1.666774703788096</v>
       </c>
-      <c r="M122">
+      <c r="N122">
         <v>0.613124452901511</v>
       </c>
-      <c r="N122" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14">
-      <c r="A123">
+      <c r="O122" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123" t="s">
+        <v>136</v>
+      </c>
+      <c r="B123">
         <v>0.3741756383422664</v>
       </c>
-      <c r="B123">
+      <c r="C123">
         <v>0.08777286387942396</v>
       </c>
-      <c r="C123">
+      <c r="D123">
         <v>-0.3817954835576525</v>
       </c>
-      <c r="D123">
+      <c r="E123">
         <v>-0.6300196556907646</v>
       </c>
-      <c r="E123">
+      <c r="F123">
         <v>0.159444669270276</v>
       </c>
-      <c r="F123">
+      <c r="G123">
         <v>0.4008935091624291</v>
       </c>
-      <c r="G123">
+      <c r="H123">
         <v>-0.7187963508097552</v>
       </c>
-      <c r="H123">
+      <c r="I123">
         <v>-0.8450117462023617</v>
       </c>
-      <c r="I123">
+      <c r="J123">
         <v>-0.5290893011161962</v>
       </c>
-      <c r="J123">
+      <c r="K123">
         <v>-1.193409635070723</v>
       </c>
-      <c r="K123">
+      <c r="L123">
         <v>-1.612232027116347</v>
       </c>
-      <c r="L123">
+      <c r="M123">
         <v>-1.976546277205435</v>
       </c>
-      <c r="M123">
+      <c r="N123">
         <v>-1.050170559674004</v>
       </c>
-      <c r="N123" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14">
-      <c r="A124">
+      <c r="O123" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124" t="s">
+        <v>137</v>
+      </c>
+      <c r="B124">
         <v>0.8302015824093294</v>
       </c>
-      <c r="B124">
+      <c r="C124">
         <v>0.4496359039003714</v>
       </c>
-      <c r="C124">
+      <c r="D124">
         <v>-0.83646086888625</v>
       </c>
-      <c r="D124">
+      <c r="E124">
         <v>-0.5140573034318698</v>
       </c>
-      <c r="E124">
+      <c r="F124">
         <v>0.6604536507633206</v>
       </c>
-      <c r="F124">
+      <c r="G124">
         <v>-0.4954767948998323</v>
       </c>
-      <c r="G124">
+      <c r="H124">
         <v>-1.029302297554645</v>
       </c>
-      <c r="H124">
+      <c r="I124">
         <v>0.3718674113852013</v>
       </c>
-      <c r="I124">
+      <c r="J124">
         <v>1.808769068269698</v>
       </c>
-      <c r="J124">
+      <c r="K124">
         <v>1.804491528259497</v>
       </c>
-      <c r="K124">
+      <c r="L124">
         <v>0.8460896950067078</v>
       </c>
-      <c r="L124">
+      <c r="M124">
         <v>0.2709949095444407</v>
       </c>
-      <c r="M124">
+      <c r="N124">
         <v>-0.108838724956673</v>
       </c>
-      <c r="N124" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14">
-      <c r="A125">
+      <c r="O124" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="A125" t="s">
+        <v>138</v>
+      </c>
+      <c r="B125">
         <v>0.7106335760300655</v>
       </c>
-      <c r="B125">
+      <c r="C125">
         <v>0.7245785011311636</v>
       </c>
-      <c r="C125">
+      <c r="D125">
         <v>-1.170839076779271</v>
       </c>
-      <c r="D125">
+      <c r="E125">
         <v>-0.3943666812567525</v>
       </c>
-      <c r="E125">
+      <c r="F125">
         <v>0.9851048544061396</v>
       </c>
-      <c r="F125">
+      <c r="G125">
         <v>-1.631543494432179</v>
       </c>
-      <c r="G125">
+      <c r="H125">
         <v>-1.819462021155293</v>
       </c>
-      <c r="H125">
+      <c r="I125">
         <v>0.409118259751851</v>
       </c>
-      <c r="I125">
+      <c r="J125">
         <v>1.412292557160628</v>
       </c>
-      <c r="J125">
+      <c r="K125">
         <v>0.6847532818323365</v>
       </c>
-      <c r="K125">
+      <c r="L125">
         <v>0.668121219957768</v>
       </c>
-      <c r="L125">
+      <c r="M125">
         <v>0.6906101111549414</v>
       </c>
-      <c r="M125">
+      <c r="N125">
         <v>-0.5736836030979218</v>
       </c>
-      <c r="N125" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14">
-      <c r="A126">
+      <c r="O125" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="A126" t="s">
+        <v>139</v>
+      </c>
+      <c r="B126">
         <v>0.8542827783223685</v>
       </c>
-      <c r="B126">
+      <c r="C126">
         <v>0.7482030991474315</v>
       </c>
-      <c r="C126">
+      <c r="D126">
         <v>-1.413227047811064</v>
       </c>
-      <c r="D126">
+      <c r="E126">
         <v>-0.2032733925382913</v>
       </c>
-      <c r="E126">
+      <c r="F126">
         <v>1.226832209867899</v>
       </c>
-      <c r="F126">
+      <c r="G126">
         <v>-0.9567056898985961</v>
       </c>
-      <c r="G126">
+      <c r="H126">
         <v>-1.160557445071097</v>
       </c>
-      <c r="H126">
+      <c r="I126">
         <v>0.2267873671468987</v>
       </c>
-      <c r="I126">
+      <c r="J126">
         <v>1.235525926590879</v>
       </c>
-      <c r="J126">
+      <c r="K126">
         <v>0.3196869178676559</v>
       </c>
-      <c r="K126">
+      <c r="L126">
         <v>-0.3668176251116052</v>
       </c>
-      <c r="L126">
+      <c r="M126">
         <v>0.2509417249671554</v>
       </c>
-      <c r="M126">
+      <c r="N126">
         <v>0.1774985272017913</v>
       </c>
-      <c r="N126" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14">
-      <c r="A127">
+      <c r="O126" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" t="s">
+        <v>140</v>
+      </c>
+      <c r="B127">
         <v>1.143265823334239</v>
       </c>
-      <c r="B127">
+      <c r="C127">
         <v>-0.1940027826067016</v>
       </c>
-      <c r="C127">
+      <c r="D127">
         <v>-0.5473417391771472</v>
       </c>
-      <c r="D127">
+      <c r="E127">
         <v>0.02370836178584624</v>
       </c>
-      <c r="E127">
+      <c r="F127">
         <v>0.2798028102175875</v>
       </c>
-      <c r="F127">
+      <c r="G127">
         <v>-1.216285889465635</v>
       </c>
-      <c r="G127">
+      <c r="H127">
         <v>-1.199281742008356</v>
       </c>
-      <c r="H127">
+      <c r="I127">
         <v>0.02973544794956962</v>
       </c>
-      <c r="I127">
+      <c r="J127">
         <v>1.299424447225648</v>
       </c>
-      <c r="J127">
+      <c r="K127">
         <v>1.169638825124505</v>
       </c>
-      <c r="K127">
+      <c r="L127">
         <v>0.01639433357103925</v>
       </c>
-      <c r="L127">
+      <c r="M127">
         <v>-0.7651776932868168</v>
       </c>
-      <c r="M127">
+      <c r="N127">
         <v>-1.19031527984979</v>
       </c>
-      <c r="N127" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14">
-      <c r="A128">
+      <c r="O127" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="A128" t="s">
+        <v>141</v>
+      </c>
+      <c r="B128">
         <v>1.7327164261556</v>
       </c>
-      <c r="B128">
+      <c r="C128">
         <v>0.9290391592814382</v>
       </c>
-      <c r="C128">
+      <c r="D128">
         <v>-1.144430832332276</v>
       </c>
-      <c r="D128">
+      <c r="E128">
         <v>-1.502223852704432</v>
       </c>
-      <c r="E128">
+      <c r="F128">
         <v>-0.3536610449120331</v>
       </c>
-      <c r="F128">
+      <c r="G128">
         <v>-0.6357415601012545</v>
       </c>
-      <c r="G128">
+      <c r="H128">
         <v>-1.604519855930995</v>
       </c>
-      <c r="H128">
+      <c r="I128">
         <v>-0.9210010383782818</v>
       </c>
-      <c r="I128">
+      <c r="J128">
         <v>0.3364512812962799</v>
       </c>
-      <c r="J128">
+      <c r="K128">
         <v>-0.1122955446745622</v>
       </c>
-      <c r="K128">
+      <c r="L128">
         <v>-0.5183147057578648</v>
       </c>
-      <c r="L128">
+      <c r="M128">
         <v>0.16520876405004</v>
       </c>
-      <c r="M128">
+      <c r="N128">
         <v>0.2655345847098555</v>
       </c>
-      <c r="N128" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129">
+      <c r="O128" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
+      <c r="A129" t="s">
+        <v>142</v>
+      </c>
+      <c r="B129">
         <v>1.530616755017438</v>
       </c>
-      <c r="B129">
+      <c r="C129">
         <v>3.805945067463009</v>
       </c>
-      <c r="C129">
+      <c r="D129">
         <v>-2.577884596346985</v>
       </c>
-      <c r="D129">
+      <c r="E129">
         <v>-2.685602164735278</v>
       </c>
-      <c r="E129">
+      <c r="F129">
         <v>0.5077888851181716</v>
       </c>
-      <c r="F129">
+      <c r="G129">
         <v>-0.3992432381116044</v>
       </c>
-      <c r="G129">
+      <c r="H129">
         <v>-1.369734514283665</v>
       </c>
-      <c r="H129">
+      <c r="I129">
         <v>-1.336727037619328</v>
       </c>
-      <c r="I129">
+      <c r="J129">
         <v>-1.119177061269226</v>
       </c>
-      <c r="J129">
+      <c r="K129">
         <v>-0.7555022870977506</v>
       </c>
-      <c r="K129">
+      <c r="L129">
         <v>-1.064263203237067</v>
       </c>
-      <c r="L129">
+      <c r="M129">
         <v>-0.4053337348701887</v>
       </c>
-      <c r="M129">
+      <c r="N129">
         <v>1.189714114924251</v>
       </c>
-      <c r="N129" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
-      <c r="A130">
+      <c r="O129" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
+      <c r="A130" t="s">
+        <v>143</v>
+      </c>
+      <c r="B130">
         <v>1.644318614708433</v>
       </c>
-      <c r="B130">
+      <c r="C130">
         <v>1.639313847288885</v>
       </c>
-      <c r="C130">
+      <c r="D130">
         <v>-1.784966614222829</v>
       </c>
-      <c r="D130">
+      <c r="E130">
         <v>-2.045946186237457</v>
       </c>
-      <c r="E130">
+      <c r="F130">
         <v>-1.139861965919535</v>
       </c>
-      <c r="F130">
+      <c r="G130">
         <v>-0.6637142087283338</v>
       </c>
-      <c r="G130">
+      <c r="H130">
         <v>-0.7733363256480038</v>
       </c>
-      <c r="H130">
+      <c r="I130">
         <v>-1.192744458920221</v>
       </c>
-      <c r="I130">
+      <c r="J130">
         <v>-1.133064653347684</v>
       </c>
-      <c r="J130">
+      <c r="K130">
         <v>-1.57803844648338</v>
       </c>
-      <c r="K130">
+      <c r="L130">
         <v>-1.263469192835848</v>
       </c>
-      <c r="L130">
+      <c r="M130">
         <v>0.1626761509465729</v>
       </c>
-      <c r="M130">
+      <c r="N130">
         <v>0.7747065145906099</v>
       </c>
-      <c r="N130" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
-      <c r="A131">
+      <c r="O130" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
+      <c r="A131" t="s">
+        <v>144</v>
+      </c>
+      <c r="B131">
         <v>1.892458659381402</v>
       </c>
-      <c r="B131">
+      <c r="C131">
         <v>1.926969196198555</v>
       </c>
-      <c r="C131">
+      <c r="D131">
         <v>-1.456902319669176</v>
       </c>
-      <c r="D131">
+      <c r="E131">
         <v>-2.332110045281293</v>
       </c>
-      <c r="E131">
+      <c r="F131">
         <v>-0.9245829393446895</v>
       </c>
-      <c r="F131">
+      <c r="G131">
         <v>0.02121656638311313</v>
       </c>
-      <c r="G131">
+      <c r="H131">
         <v>-1.580673926711856</v>
       </c>
-      <c r="H131">
+      <c r="I131">
         <v>-2.12985435769767</v>
       </c>
-      <c r="I131">
+      <c r="J131">
         <v>-0.3684946762752081</v>
       </c>
-      <c r="J131">
+      <c r="K131">
         <v>-0.3555614082883715</v>
       </c>
-      <c r="K131">
+      <c r="L131">
         <v>-1.25030726314092</v>
       </c>
-      <c r="L131">
+      <c r="M131">
         <v>0.2635345839392237</v>
       </c>
-      <c r="M131">
+      <c r="N131">
         <v>2.132946280257557</v>
       </c>
-      <c r="N131" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
-      <c r="A132">
+      <c r="O131" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
+      <c r="A132" t="s">
+        <v>145</v>
+      </c>
+      <c r="B132">
         <v>-0.01840443327772619</v>
       </c>
-      <c r="B132">
+      <c r="C132">
         <v>0.354858956785951</v>
       </c>
-      <c r="C132">
+      <c r="D132">
         <v>-0.1924256141529274</v>
       </c>
-      <c r="D132">
+      <c r="E132">
         <v>-0.3846126720509989</v>
       </c>
-      <c r="E132">
+      <c r="F132">
         <v>0.400572158738572</v>
       </c>
-      <c r="F132">
+      <c r="G132">
         <v>0.03305350325684506</v>
       </c>
-      <c r="G132">
+      <c r="H132">
         <v>-1.128890945073242</v>
       </c>
-      <c r="H132">
+      <c r="I132">
         <v>-0.8954660489844072</v>
       </c>
-      <c r="I132">
+      <c r="J132">
         <v>0.1193398360844987</v>
       </c>
-      <c r="J132">
+      <c r="K132">
         <v>0.21511962286828</v>
       </c>
-      <c r="K132">
+      <c r="L132">
         <v>-0.2944538089652974</v>
       </c>
-      <c r="L132">
+      <c r="M132">
         <v>-0.5873822061339773</v>
       </c>
-      <c r="M132">
+      <c r="N132">
         <v>-0.6202587259358945</v>
       </c>
-      <c r="N132" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
-      <c r="A133">
+      <c r="O132" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
+      <c r="A133" t="s">
+        <v>146</v>
+      </c>
+      <c r="B133">
         <v>-0.2795899080794917</v>
       </c>
-      <c r="B133">
+      <c r="C133">
         <v>0.4449417818441416</v>
       </c>
-      <c r="C133">
+      <c r="D133">
         <v>-0.3205653388746711</v>
       </c>
-      <c r="D133">
+      <c r="E133">
         <v>-0.4647024981598057</v>
       </c>
-      <c r="E133">
+      <c r="F133">
         <v>0.5181961647128535</v>
       </c>
-      <c r="F133">
+      <c r="G133">
         <v>0.04703941277486191</v>
       </c>
-      <c r="G133">
+      <c r="H133">
         <v>-1.118593037550839</v>
       </c>
-      <c r="H133">
+      <c r="I133">
         <v>-0.5917711767063777</v>
       </c>
-      <c r="I133">
+      <c r="J133">
         <v>0.4309902623869012</v>
       </c>
-      <c r="J133">
+      <c r="K133">
         <v>-0.2022479911602731</v>
       </c>
-      <c r="K133">
+      <c r="L133">
         <v>-0.9264224451246218</v>
       </c>
-      <c r="L133">
+      <c r="M133">
         <v>-0.8302301668962191</v>
       </c>
-      <c r="M133">
+      <c r="N133">
         <v>0.2300460806839986</v>
       </c>
-      <c r="N133" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
-      <c r="A134">
+      <c r="O133" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
+      <c r="A134" t="s">
+        <v>147</v>
+      </c>
+      <c r="B134">
         <v>0.1890337222632301</v>
       </c>
-      <c r="B134">
+      <c r="C134">
         <v>0.1044104249052152</v>
       </c>
-      <c r="C134">
+      <c r="D134">
         <v>0.3623938983216134</v>
       </c>
-      <c r="D134">
+      <c r="E134">
         <v>-0.1510169812722429</v>
       </c>
-      <c r="E134">
+      <c r="F134">
         <v>-0.1490515274869218</v>
       </c>
-      <c r="F134">
+      <c r="G134">
         <v>0.5644145319790062</v>
       </c>
-      <c r="G134">
+      <c r="H134">
         <v>-0.11528416084653</v>
       </c>
-      <c r="H134">
+      <c r="I134">
         <v>-0.745412316863883</v>
       </c>
-      <c r="I134">
+      <c r="J134">
         <v>-0.0954246124394012</v>
       </c>
-      <c r="J134">
+      <c r="K134">
         <v>0.8956516684300264</v>
       </c>
-      <c r="K134">
+      <c r="L134">
         <v>-0.03211818956356695</v>
       </c>
-      <c r="L134">
+      <c r="M134">
         <v>-1.40723622415803</v>
       </c>
-      <c r="M134">
+      <c r="N134">
         <v>-1.055161036881276</v>
       </c>
-      <c r="N134" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
-      <c r="A135">
+      <c r="O134" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
+      <c r="A135" t="s">
+        <v>148</v>
+      </c>
+      <c r="B135">
         <v>0.261805641061315</v>
       </c>
-      <c r="B135">
+      <c r="C135">
         <v>0.3700937271025833</v>
       </c>
-      <c r="C135">
+      <c r="D135">
         <v>0.2320800250113311</v>
       </c>
-      <c r="D135">
+      <c r="E135">
         <v>-0.3710860124840451</v>
       </c>
-      <c r="E135">
+      <c r="F135">
         <v>0.186761165795563</v>
       </c>
-      <c r="F135">
+      <c r="G135">
         <v>0.7506006458317083</v>
       </c>
-      <c r="G135">
+      <c r="H135">
         <v>-0.4955182982267757</v>
       </c>
-      <c r="H135">
+      <c r="I135">
         <v>-1.043487127925051</v>
       </c>
-      <c r="I135">
+      <c r="J135">
         <v>-0.8999661189071414</v>
       </c>
-      <c r="J135">
+      <c r="K135">
         <v>-1.059349686303076</v>
       </c>
-      <c r="K135">
+      <c r="L135">
         <v>-0.9888993077687974</v>
       </c>
-      <c r="L135">
+      <c r="M135">
         <v>-0.8924333731021131</v>
       </c>
-      <c r="M135">
+      <c r="N135">
         <v>0.1786404574508125</v>
       </c>
-      <c r="N135" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
-      <c r="A136">
+      <c r="O135" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
+      <c r="A136" t="s">
+        <v>149</v>
+      </c>
+      <c r="B136">
         <v>0.6412356195009563</v>
       </c>
-      <c r="B136">
+      <c r="C136">
         <v>0.03304336933083725</v>
       </c>
-      <c r="C136">
+      <c r="D136">
         <v>-0.1411073727318679</v>
       </c>
-      <c r="D136">
+      <c r="E136">
         <v>-0.9216954409851257</v>
       </c>
-      <c r="E136">
+      <c r="F136">
         <v>-0.6018403488769265</v>
       </c>
-      <c r="F136">
+      <c r="G136">
         <v>0.5410177416407421</v>
       </c>
-      <c r="G136">
+      <c r="H136">
         <v>-0.7207098009050205</v>
       </c>
-      <c r="H136">
+      <c r="I136">
         <v>-1.227448581936494</v>
       </c>
-      <c r="I136">
+      <c r="J136">
         <v>0.07195801474048127</v>
       </c>
-      <c r="J136">
+      <c r="K136">
         <v>0.3754060155337082</v>
       </c>
-      <c r="K136">
+      <c r="L136">
         <v>-1.083712834304994</v>
       </c>
-      <c r="L136">
+      <c r="M136">
         <v>-2.11486145534041</v>
       </c>
-      <c r="M136">
+      <c r="N136">
         <v>-0.937105476763912</v>
       </c>
-      <c r="N136" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
-      <c r="A137">
+      <c r="O136" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="A137" t="s">
+        <v>150</v>
+      </c>
+      <c r="B137">
         <v>1.009344600261862</v>
       </c>
-      <c r="B137">
+      <c r="C137">
         <v>0.9155533390948415</v>
       </c>
-      <c r="C137">
+      <c r="D137">
         <v>-0.1384410879629362</v>
       </c>
-      <c r="D137">
+      <c r="E137">
         <v>-1.237732652648832</v>
       </c>
-      <c r="E137">
+      <c r="F137">
         <v>-0.4811363812304648</v>
       </c>
-      <c r="F137">
+      <c r="G137">
         <v>0.9446323681199936</v>
       </c>
-      <c r="G137">
+      <c r="H137">
         <v>-0.1513440802073729</v>
       </c>
-      <c r="H137">
+      <c r="I137">
         <v>-0.7026236991809469</v>
       </c>
-      <c r="I137">
+      <c r="J137">
         <v>-0.502259147382446</v>
       </c>
-      <c r="J137">
+      <c r="K137">
         <v>-0.8602825829575875</v>
       </c>
-      <c r="K137">
+      <c r="L137">
         <v>-1.38195787364395</v>
       </c>
-      <c r="L137">
+      <c r="M137">
         <v>-1.940204552829248</v>
       </c>
-      <c r="M137">
+      <c r="N137">
         <v>-0.8467654645156245</v>
       </c>
-      <c r="N137" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
-      <c r="A138">
+      <c r="O137" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="A138" t="s">
+        <v>151</v>
+      </c>
+      <c r="B138">
         <v>1.269867989306187</v>
       </c>
-      <c r="B138">
+      <c r="C138">
         <v>0.1304318482786391</v>
       </c>
-      <c r="C138">
+      <c r="D138">
         <v>-0.6578851938584538</v>
       </c>
-      <c r="D138">
+      <c r="E138">
         <v>-0.9950425648412182</v>
       </c>
-      <c r="E138">
+      <c r="F138">
         <v>-0.1018198471282891</v>
       </c>
-      <c r="F138">
+      <c r="G138">
         <v>1.223614545304757</v>
       </c>
-      <c r="G138">
+      <c r="H138">
         <v>0.1537622306750267</v>
       </c>
-      <c r="H138">
+      <c r="I138">
         <v>-0.7396363189807827</v>
       </c>
-      <c r="I138">
+      <c r="J138">
         <v>-0.8516562628163582</v>
       </c>
-      <c r="J138">
+      <c r="K138">
         <v>-1.027587186800152</v>
       </c>
-      <c r="K138">
+      <c r="L138">
         <v>-0.865946036817574</v>
       </c>
-      <c r="L138">
+      <c r="M138">
         <v>-0.4639862295167608</v>
       </c>
-      <c r="M138">
+      <c r="N138">
         <v>0.05487228561067202</v>
       </c>
-      <c r="N138" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
-      <c r="A139">
+      <c r="O138" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
+      <c r="A139" t="s">
+        <v>152</v>
+      </c>
+      <c r="B139">
         <v>1.034061799766139</v>
       </c>
-      <c r="B139">
+      <c r="C139">
         <v>0.5394451816404389</v>
       </c>
-      <c r="C139">
+      <c r="D139">
         <v>-1.206460033119414</v>
       </c>
-      <c r="D139">
+      <c r="E139">
         <v>-1.29675833192691</v>
       </c>
-      <c r="E139">
+      <c r="F139">
         <v>0.1953456887415589</v>
       </c>
-      <c r="F139">
+      <c r="G139">
         <v>1.069463919265405</v>
       </c>
-      <c r="G139">
+      <c r="H139">
         <v>-0.2744190541618489</v>
       </c>
-      <c r="H139">
+      <c r="I139">
         <v>-1.134782425370117</v>
       </c>
-      <c r="I139">
+      <c r="J139">
         <v>-1.396328743015502</v>
       </c>
-      <c r="J139">
+      <c r="K139">
         <v>-1.961078110202078</v>
       </c>
-      <c r="K139">
+      <c r="L139">
         <v>-1.548407778385685</v>
       </c>
-      <c r="L139">
+      <c r="M139">
         <v>-0.4040346031343106</v>
       </c>
-      <c r="M139">
+      <c r="N139">
         <v>0.9858969212742933</v>
       </c>
-      <c r="N139" t="s">
-        <v>151</v>
+      <c r="O139" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
